--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8769AC84-43EB-4224-B9CF-826A5E180CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AF50B-BB9E-428E-A1D3-72C8B4FE3A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1301"/>
+  <dimension ref="A1:L1691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1300" sqref="C1300:H1301"/>
+      <pane ySplit="1" topLeftCell="A1642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1647" sqref="F1647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34804,6 +34804,9847 @@
         <v>3830323.47</v>
       </c>
     </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1302">
+        <v>0</v>
+      </c>
+      <c r="E1302">
+        <v>0</v>
+      </c>
+      <c r="F1302">
+        <v>0</v>
+      </c>
+      <c r="G1302">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1302">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1303">
+        <v>16959.57</v>
+      </c>
+      <c r="E1303">
+        <v>63010984.399999999</v>
+      </c>
+      <c r="F1303">
+        <v>-62994024.829999998</v>
+      </c>
+      <c r="G1303">
+        <v>63661114.109999999</v>
+      </c>
+      <c r="H1303">
+        <v>667089.28000000119</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1304">
+        <v>280800.64000000001</v>
+      </c>
+      <c r="E1304">
+        <v>0</v>
+      </c>
+      <c r="F1304">
+        <v>280800.64000000001</v>
+      </c>
+      <c r="G1304">
+        <v>0</v>
+      </c>
+      <c r="H1304">
+        <v>280800.64000000001</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1305">
+        <v>0</v>
+      </c>
+      <c r="E1305">
+        <v>0</v>
+      </c>
+      <c r="F1305">
+        <v>0</v>
+      </c>
+      <c r="G1305">
+        <v>25029779.739999998</v>
+      </c>
+      <c r="H1305">
+        <v>25029779.739999998</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1306">
+        <v>0</v>
+      </c>
+      <c r="E1306">
+        <v>0</v>
+      </c>
+      <c r="F1306">
+        <v>0</v>
+      </c>
+      <c r="G1306">
+        <v>81299.7</v>
+      </c>
+      <c r="H1306">
+        <v>81299.7</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1307" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1307">
+        <v>0</v>
+      </c>
+      <c r="E1307">
+        <v>0</v>
+      </c>
+      <c r="F1307">
+        <v>0</v>
+      </c>
+      <c r="G1307">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1307">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1308">
+        <v>38597.769999999997</v>
+      </c>
+      <c r="E1308">
+        <v>6416.59</v>
+      </c>
+      <c r="F1308">
+        <v>32181.179999999997</v>
+      </c>
+      <c r="G1308">
+        <v>942745.03</v>
+      </c>
+      <c r="H1308">
+        <v>974926.21000000008</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1309">
+        <v>0</v>
+      </c>
+      <c r="E1309">
+        <v>32476.23</v>
+      </c>
+      <c r="F1309">
+        <v>-32476.23</v>
+      </c>
+      <c r="G1309">
+        <v>67520.789999999994</v>
+      </c>
+      <c r="H1309">
+        <v>35044.559999999998</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1310">
+        <v>0</v>
+      </c>
+      <c r="E1310">
+        <v>0</v>
+      </c>
+      <c r="F1310">
+        <v>0</v>
+      </c>
+      <c r="G1310">
+        <v>63341625.399999999</v>
+      </c>
+      <c r="H1310">
+        <v>63341625.399999999</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1311" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1311">
+        <v>0</v>
+      </c>
+      <c r="E1311">
+        <v>0</v>
+      </c>
+      <c r="F1311">
+        <v>0</v>
+      </c>
+      <c r="G1311">
+        <v>366988.15</v>
+      </c>
+      <c r="H1311">
+        <v>366988.15</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1312" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1312">
+        <v>0</v>
+      </c>
+      <c r="E1312">
+        <v>0</v>
+      </c>
+      <c r="F1312">
+        <v>0</v>
+      </c>
+      <c r="G1312">
+        <v>1136407.8600000001</v>
+      </c>
+      <c r="H1312">
+        <v>1136407.8600000001</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1313" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1313">
+        <v>108012.44</v>
+      </c>
+      <c r="E1313">
+        <v>0</v>
+      </c>
+      <c r="F1313">
+        <v>108012.44</v>
+      </c>
+      <c r="G1313">
+        <v>60780.83</v>
+      </c>
+      <c r="H1313">
+        <v>168793.27000000002</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1314" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1314">
+        <v>0</v>
+      </c>
+      <c r="E1314">
+        <v>0</v>
+      </c>
+      <c r="F1314">
+        <v>0</v>
+      </c>
+      <c r="G1314">
+        <v>4279231.4800000004</v>
+      </c>
+      <c r="H1314">
+        <v>4279231.4800000004</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1315">
+        <v>0</v>
+      </c>
+      <c r="E1315">
+        <v>0</v>
+      </c>
+      <c r="F1315">
+        <v>0</v>
+      </c>
+      <c r="G1315">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1315">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1316">
+        <v>20055.98</v>
+      </c>
+      <c r="E1316">
+        <v>45315</v>
+      </c>
+      <c r="F1316">
+        <v>-25259.02</v>
+      </c>
+      <c r="G1316">
+        <v>64588915.939999998</v>
+      </c>
+      <c r="H1316">
+        <v>64563656.919999994</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1317">
+        <v>105800.57</v>
+      </c>
+      <c r="E1317">
+        <v>0</v>
+      </c>
+      <c r="F1317">
+        <v>105800.57</v>
+      </c>
+      <c r="G1317">
+        <v>0</v>
+      </c>
+      <c r="H1317">
+        <v>105800.57</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1318">
+        <v>0</v>
+      </c>
+      <c r="E1318">
+        <v>0</v>
+      </c>
+      <c r="F1318">
+        <v>0</v>
+      </c>
+      <c r="G1318">
+        <v>25038006.02</v>
+      </c>
+      <c r="H1318">
+        <v>25038006.02</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1319" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1319">
+        <v>0</v>
+      </c>
+      <c r="E1319">
+        <v>0</v>
+      </c>
+      <c r="F1319">
+        <v>0</v>
+      </c>
+      <c r="G1319">
+        <v>120825.07</v>
+      </c>
+      <c r="H1319">
+        <v>120825.07</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1320">
+        <v>0</v>
+      </c>
+      <c r="E1320">
+        <v>0</v>
+      </c>
+      <c r="F1320">
+        <v>0</v>
+      </c>
+      <c r="G1320">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1320">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1321" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1321">
+        <v>49497.16</v>
+      </c>
+      <c r="E1321">
+        <v>3764.21</v>
+      </c>
+      <c r="F1321">
+        <v>45732.950000000004</v>
+      </c>
+      <c r="G1321">
+        <v>1450902.97</v>
+      </c>
+      <c r="H1321">
+        <v>1496635.92</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1322">
+        <v>0</v>
+      </c>
+      <c r="E1322">
+        <v>138707.75</v>
+      </c>
+      <c r="F1322">
+        <v>-138707.75</v>
+      </c>
+      <c r="G1322">
+        <v>35044.559999999998</v>
+      </c>
+      <c r="H1322">
+        <v>-103663.19</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1323" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1323">
+        <v>0</v>
+      </c>
+      <c r="E1323">
+        <v>0</v>
+      </c>
+      <c r="F1323">
+        <v>0</v>
+      </c>
+      <c r="G1323">
+        <v>63315728.700000003</v>
+      </c>
+      <c r="H1323">
+        <v>63315728.700000003</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1324" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1324">
+        <v>0</v>
+      </c>
+      <c r="E1324">
+        <v>0</v>
+      </c>
+      <c r="F1324">
+        <v>0</v>
+      </c>
+      <c r="G1324">
+        <v>367157.59</v>
+      </c>
+      <c r="H1324">
+        <v>367157.59</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1325" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1325">
+        <v>0</v>
+      </c>
+      <c r="E1325">
+        <v>0</v>
+      </c>
+      <c r="F1325">
+        <v>0</v>
+      </c>
+      <c r="G1325">
+        <v>1136853.58</v>
+      </c>
+      <c r="H1325">
+        <v>1136853.58</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1326" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1326">
+        <v>10001.58</v>
+      </c>
+      <c r="E1326">
+        <v>0</v>
+      </c>
+      <c r="F1326">
+        <v>10001.58</v>
+      </c>
+      <c r="G1326">
+        <v>200056.62</v>
+      </c>
+      <c r="H1326">
+        <v>210058.19999999998</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1327" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1327">
+        <v>0</v>
+      </c>
+      <c r="E1327">
+        <v>0</v>
+      </c>
+      <c r="F1327">
+        <v>0</v>
+      </c>
+      <c r="G1327">
+        <v>4276549.66</v>
+      </c>
+      <c r="H1327">
+        <v>4276549.66</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1328">
+        <v>0</v>
+      </c>
+      <c r="E1328">
+        <v>0</v>
+      </c>
+      <c r="F1328">
+        <v>0</v>
+      </c>
+      <c r="G1328">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1328">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1329">
+        <v>32777.879999999997</v>
+      </c>
+      <c r="E1329">
+        <v>5058977.47</v>
+      </c>
+      <c r="F1329">
+        <v>-5026199.59</v>
+      </c>
+      <c r="G1329">
+        <v>66191655.469999999</v>
+      </c>
+      <c r="H1329">
+        <v>61165455.879999995</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1330">
+        <v>285840.98</v>
+      </c>
+      <c r="E1330">
+        <v>0</v>
+      </c>
+      <c r="F1330">
+        <v>285840.98</v>
+      </c>
+      <c r="G1330">
+        <v>0</v>
+      </c>
+      <c r="H1330">
+        <v>285840.98</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1331">
+        <v>0</v>
+      </c>
+      <c r="E1331">
+        <v>0</v>
+      </c>
+      <c r="F1331">
+        <v>0</v>
+      </c>
+      <c r="G1331">
+        <v>23635619.460000001</v>
+      </c>
+      <c r="H1331">
+        <v>23635619.460000001</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1332">
+        <v>0</v>
+      </c>
+      <c r="E1332">
+        <v>0</v>
+      </c>
+      <c r="F1332">
+        <v>0</v>
+      </c>
+      <c r="G1332">
+        <v>611106.22</v>
+      </c>
+      <c r="H1332">
+        <v>611106.22</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1333" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1333">
+        <v>0</v>
+      </c>
+      <c r="E1333">
+        <v>0</v>
+      </c>
+      <c r="F1333">
+        <v>0</v>
+      </c>
+      <c r="G1333">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1333">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1334" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1334">
+        <v>116074.88</v>
+      </c>
+      <c r="E1334">
+        <v>999263.38</v>
+      </c>
+      <c r="F1334">
+        <v>-883188.5</v>
+      </c>
+      <c r="G1334">
+        <v>995134.09</v>
+      </c>
+      <c r="H1334">
+        <v>111945.58999999997</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1335" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1335">
+        <v>0</v>
+      </c>
+      <c r="E1335">
+        <v>6205262.21</v>
+      </c>
+      <c r="F1335">
+        <v>-6205262.21</v>
+      </c>
+      <c r="G1335">
+        <v>3278831.95</v>
+      </c>
+      <c r="H1335">
+        <v>-2926430.26</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1336" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1336">
+        <v>0</v>
+      </c>
+      <c r="E1336">
+        <v>0</v>
+      </c>
+      <c r="F1336">
+        <v>0</v>
+      </c>
+      <c r="G1336">
+        <v>61364228.090000004</v>
+      </c>
+      <c r="H1336">
+        <v>61364228.090000004</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1337" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1337">
+        <v>0</v>
+      </c>
+      <c r="E1337">
+        <v>0</v>
+      </c>
+      <c r="F1337">
+        <v>0</v>
+      </c>
+      <c r="G1337">
+        <v>367326.9</v>
+      </c>
+      <c r="H1337">
+        <v>367326.9</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1338" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1338">
+        <v>0</v>
+      </c>
+      <c r="E1338">
+        <v>0</v>
+      </c>
+      <c r="F1338">
+        <v>0</v>
+      </c>
+      <c r="G1338">
+        <v>1137193.6200000001</v>
+      </c>
+      <c r="H1338">
+        <v>1137193.6200000001</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1339" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1339">
+        <v>5004.6499999999996</v>
+      </c>
+      <c r="E1339">
+        <v>322643.92</v>
+      </c>
+      <c r="F1339">
+        <v>-317639.26999999996</v>
+      </c>
+      <c r="G1339">
+        <v>353147.42</v>
+      </c>
+      <c r="H1339">
+        <v>35508.150000000023</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1340" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1340">
+        <v>0</v>
+      </c>
+      <c r="E1340">
+        <v>0</v>
+      </c>
+      <c r="F1340">
+        <v>0</v>
+      </c>
+      <c r="G1340">
+        <v>4208754.42</v>
+      </c>
+      <c r="H1340">
+        <v>4208754.42</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1341">
+        <v>0</v>
+      </c>
+      <c r="E1341">
+        <v>0</v>
+      </c>
+      <c r="F1341">
+        <v>0</v>
+      </c>
+      <c r="G1341">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1341">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1342">
+        <v>229412</v>
+      </c>
+      <c r="E1342">
+        <v>8736</v>
+      </c>
+      <c r="F1342">
+        <v>220676</v>
+      </c>
+      <c r="G1342">
+        <v>0</v>
+      </c>
+      <c r="H1342">
+        <v>220676</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1343">
+        <v>460572.62</v>
+      </c>
+      <c r="E1343">
+        <v>0</v>
+      </c>
+      <c r="F1343">
+        <v>460572.62</v>
+      </c>
+      <c r="G1343">
+        <v>0</v>
+      </c>
+      <c r="H1343">
+        <v>460572.62</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1344">
+        <v>0</v>
+      </c>
+      <c r="E1344">
+        <v>0</v>
+      </c>
+      <c r="F1344">
+        <v>0</v>
+      </c>
+      <c r="G1344">
+        <v>86444919.829999998</v>
+      </c>
+      <c r="H1344">
+        <v>86444919.829999998</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1345">
+        <v>0</v>
+      </c>
+      <c r="E1345">
+        <v>0</v>
+      </c>
+      <c r="F1345">
+        <v>0</v>
+      </c>
+      <c r="G1345">
+        <v>76158.600000000006</v>
+      </c>
+      <c r="H1345">
+        <v>76158.600000000006</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1346">
+        <v>0</v>
+      </c>
+      <c r="E1346">
+        <v>0</v>
+      </c>
+      <c r="F1346">
+        <v>0</v>
+      </c>
+      <c r="G1346">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1346">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1347" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1347">
+        <v>528063.04</v>
+      </c>
+      <c r="E1347">
+        <v>0</v>
+      </c>
+      <c r="F1347">
+        <v>528063.04</v>
+      </c>
+      <c r="G1347">
+        <v>0</v>
+      </c>
+      <c r="H1347">
+        <v>528063.04</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1348" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1348">
+        <v>0</v>
+      </c>
+      <c r="E1348">
+        <v>9340.49</v>
+      </c>
+      <c r="F1348">
+        <v>-9340.49</v>
+      </c>
+      <c r="G1348">
+        <v>99289.14</v>
+      </c>
+      <c r="H1348">
+        <v>89948.65</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1349">
+        <v>0</v>
+      </c>
+      <c r="E1349">
+        <v>0</v>
+      </c>
+      <c r="F1349">
+        <v>0</v>
+      </c>
+      <c r="G1349">
+        <v>60152698.119999997</v>
+      </c>
+      <c r="H1349">
+        <v>60152698.119999997</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1350" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1350">
+        <v>0</v>
+      </c>
+      <c r="E1350">
+        <v>0</v>
+      </c>
+      <c r="F1350">
+        <v>0</v>
+      </c>
+      <c r="G1350">
+        <v>367326.9</v>
+      </c>
+      <c r="H1350">
+        <v>367326.9</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1351" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1351">
+        <v>0</v>
+      </c>
+      <c r="E1351">
+        <v>0</v>
+      </c>
+      <c r="F1351">
+        <v>0</v>
+      </c>
+      <c r="G1351">
+        <v>1137193.6200000001</v>
+      </c>
+      <c r="H1351">
+        <v>1137193.6200000001</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1352" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1352">
+        <v>37190.99</v>
+      </c>
+      <c r="E1352">
+        <v>0</v>
+      </c>
+      <c r="F1352">
+        <v>37190.99</v>
+      </c>
+      <c r="G1352">
+        <v>0</v>
+      </c>
+      <c r="H1352">
+        <v>37190.99</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1353" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1353">
+        <v>0</v>
+      </c>
+      <c r="E1353">
+        <v>0</v>
+      </c>
+      <c r="F1353">
+        <v>0</v>
+      </c>
+      <c r="G1353">
+        <v>4357045.07</v>
+      </c>
+      <c r="H1353">
+        <v>4357045.07</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1354">
+        <v>0</v>
+      </c>
+      <c r="E1354">
+        <v>0</v>
+      </c>
+      <c r="F1354">
+        <v>0</v>
+      </c>
+      <c r="G1354">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1354">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1355">
+        <v>493623.79</v>
+      </c>
+      <c r="E1355">
+        <v>13000</v>
+      </c>
+      <c r="F1355">
+        <v>480623.79</v>
+      </c>
+      <c r="G1355">
+        <v>0</v>
+      </c>
+      <c r="H1355">
+        <v>480623.79</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1356" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1356">
+        <v>164123.34</v>
+      </c>
+      <c r="E1356">
+        <v>0</v>
+      </c>
+      <c r="F1356">
+        <v>164123.34</v>
+      </c>
+      <c r="G1356">
+        <v>0</v>
+      </c>
+      <c r="H1356">
+        <v>164123.34</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1357">
+        <v>0</v>
+      </c>
+      <c r="E1357">
+        <v>0</v>
+      </c>
+      <c r="F1357">
+        <v>0</v>
+      </c>
+      <c r="G1357">
+        <v>88367237.25</v>
+      </c>
+      <c r="H1357">
+        <v>88367237.25</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1358" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1358">
+        <v>0</v>
+      </c>
+      <c r="E1358">
+        <v>0</v>
+      </c>
+      <c r="F1358">
+        <v>0</v>
+      </c>
+      <c r="G1358">
+        <v>32153.01</v>
+      </c>
+      <c r="H1358">
+        <v>32153.01</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1359" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1359">
+        <v>0</v>
+      </c>
+      <c r="E1359">
+        <v>0</v>
+      </c>
+      <c r="F1359">
+        <v>0</v>
+      </c>
+      <c r="G1359">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1359">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1360" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1360">
+        <v>465265.13</v>
+      </c>
+      <c r="E1360">
+        <v>4092</v>
+      </c>
+      <c r="F1360">
+        <v>461173.13</v>
+      </c>
+      <c r="G1360">
+        <v>0</v>
+      </c>
+      <c r="H1360">
+        <v>461173.13</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1361" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1361">
+        <v>0</v>
+      </c>
+      <c r="E1361">
+        <v>0</v>
+      </c>
+      <c r="F1361">
+        <v>0</v>
+      </c>
+      <c r="G1361">
+        <v>89948.65</v>
+      </c>
+      <c r="H1361">
+        <v>89948.65</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1362" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1362">
+        <v>0</v>
+      </c>
+      <c r="E1362">
+        <v>0</v>
+      </c>
+      <c r="F1362">
+        <v>0</v>
+      </c>
+      <c r="G1362">
+        <v>62599220.810000002</v>
+      </c>
+      <c r="H1362">
+        <v>62599220.810000002</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1363" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1363">
+        <v>0</v>
+      </c>
+      <c r="E1363">
+        <v>0</v>
+      </c>
+      <c r="F1363">
+        <v>0</v>
+      </c>
+      <c r="G1363">
+        <v>367666.11</v>
+      </c>
+      <c r="H1363">
+        <v>367666.11</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1364" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1364">
+        <v>0</v>
+      </c>
+      <c r="E1364">
+        <v>0</v>
+      </c>
+      <c r="F1364">
+        <v>0</v>
+      </c>
+      <c r="G1364">
+        <v>1138884.67</v>
+      </c>
+      <c r="H1364">
+        <v>1138884.67</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1365" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1365" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1365">
+        <v>23844.560000000001</v>
+      </c>
+      <c r="E1365">
+        <v>3987.05</v>
+      </c>
+      <c r="F1365">
+        <v>19857.510000000002</v>
+      </c>
+      <c r="G1365">
+        <v>0</v>
+      </c>
+      <c r="H1365">
+        <v>19857.510000000002</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1366" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1366" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1366">
+        <v>0</v>
+      </c>
+      <c r="E1366">
+        <v>0</v>
+      </c>
+      <c r="F1366">
+        <v>0</v>
+      </c>
+      <c r="G1366">
+        <v>4409181.97</v>
+      </c>
+      <c r="H1366">
+        <v>4409181.97</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1367" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1367" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1367">
+        <v>0</v>
+      </c>
+      <c r="E1367">
+        <v>0</v>
+      </c>
+      <c r="F1367">
+        <v>0</v>
+      </c>
+      <c r="G1367">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1367">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1368" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1368" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1368">
+        <v>827069.46</v>
+      </c>
+      <c r="E1368">
+        <v>17250</v>
+      </c>
+      <c r="F1368">
+        <v>809819.46</v>
+      </c>
+      <c r="G1368">
+        <v>0</v>
+      </c>
+      <c r="H1368">
+        <v>809819.46</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1369" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1369" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1369">
+        <v>67703.53</v>
+      </c>
+      <c r="E1369">
+        <v>0</v>
+      </c>
+      <c r="F1369">
+        <v>67703.53</v>
+      </c>
+      <c r="G1369">
+        <v>0</v>
+      </c>
+      <c r="H1369">
+        <v>67703.53</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1370" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1370" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1370">
+        <v>0</v>
+      </c>
+      <c r="E1370">
+        <v>0</v>
+      </c>
+      <c r="F1370">
+        <v>0</v>
+      </c>
+      <c r="G1370">
+        <v>25555680.260000002</v>
+      </c>
+      <c r="H1370">
+        <v>25555680.260000002</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1371" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1371" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1371">
+        <v>0</v>
+      </c>
+      <c r="E1371">
+        <v>0</v>
+      </c>
+      <c r="F1371">
+        <v>0</v>
+      </c>
+      <c r="G1371">
+        <v>353769.23</v>
+      </c>
+      <c r="H1371">
+        <v>353769.23</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1372" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1372" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1372">
+        <v>0</v>
+      </c>
+      <c r="E1372">
+        <v>0</v>
+      </c>
+      <c r="F1372">
+        <v>0</v>
+      </c>
+      <c r="G1372">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1372">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1373" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1373" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1373">
+        <v>644939.29</v>
+      </c>
+      <c r="E1373">
+        <v>1500</v>
+      </c>
+      <c r="F1373">
+        <v>643439.29</v>
+      </c>
+      <c r="G1373">
+        <v>0</v>
+      </c>
+      <c r="H1373">
+        <v>643439.29</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1374" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1374" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1374">
+        <v>0</v>
+      </c>
+      <c r="E1374">
+        <v>0</v>
+      </c>
+      <c r="F1374">
+        <v>0</v>
+      </c>
+      <c r="G1374">
+        <v>89948.65</v>
+      </c>
+      <c r="H1374">
+        <v>89948.65</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1375" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1375" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1375">
+        <v>0</v>
+      </c>
+      <c r="E1375">
+        <v>0</v>
+      </c>
+      <c r="F1375">
+        <v>0</v>
+      </c>
+      <c r="G1375">
+        <v>65643200.810000002</v>
+      </c>
+      <c r="H1375">
+        <v>65643200.810000002</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1376" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1376" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1376">
+        <v>0</v>
+      </c>
+      <c r="E1376">
+        <v>0</v>
+      </c>
+      <c r="F1376">
+        <v>0</v>
+      </c>
+      <c r="G1376">
+        <v>367835.82</v>
+      </c>
+      <c r="H1376">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1377" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1377" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1377">
+        <v>0</v>
+      </c>
+      <c r="E1377">
+        <v>0</v>
+      </c>
+      <c r="F1377">
+        <v>0</v>
+      </c>
+      <c r="G1377">
+        <v>1138884.67</v>
+      </c>
+      <c r="H1377">
+        <v>1138884.67</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1378" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1378" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1378">
+        <v>52975.53</v>
+      </c>
+      <c r="E1378">
+        <v>0</v>
+      </c>
+      <c r="F1378">
+        <v>52975.53</v>
+      </c>
+      <c r="G1378">
+        <v>0</v>
+      </c>
+      <c r="H1378">
+        <v>52975.53</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1379" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1379" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1379">
+        <v>0</v>
+      </c>
+      <c r="E1379">
+        <v>0</v>
+      </c>
+      <c r="F1379">
+        <v>0</v>
+      </c>
+      <c r="G1379">
+        <v>4432156.5599999996</v>
+      </c>
+      <c r="H1379">
+        <v>4432156.5599999996</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1380" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1380" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1380">
+        <v>0</v>
+      </c>
+      <c r="E1380">
+        <v>0</v>
+      </c>
+      <c r="F1380">
+        <v>0</v>
+      </c>
+      <c r="G1380">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1380">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1381" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1381" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1381">
+        <v>226736.66</v>
+      </c>
+      <c r="E1381">
+        <v>1877762.92</v>
+      </c>
+      <c r="F1381">
+        <v>-1651026.26</v>
+      </c>
+      <c r="G1381">
+        <v>0</v>
+      </c>
+      <c r="H1381">
+        <v>-1651026.26</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1382" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1382" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1382">
+        <v>163572</v>
+      </c>
+      <c r="E1382">
+        <v>0</v>
+      </c>
+      <c r="F1382">
+        <v>163572</v>
+      </c>
+      <c r="G1382">
+        <v>0</v>
+      </c>
+      <c r="H1382">
+        <v>163572</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1383" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1383" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1383">
+        <v>0</v>
+      </c>
+      <c r="E1383">
+        <v>0</v>
+      </c>
+      <c r="F1383">
+        <v>0</v>
+      </c>
+      <c r="G1383">
+        <v>26275732.050000001</v>
+      </c>
+      <c r="H1383">
+        <v>26275732.050000001</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1384" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1384" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1384">
+        <v>0</v>
+      </c>
+      <c r="E1384">
+        <v>0</v>
+      </c>
+      <c r="F1384">
+        <v>0</v>
+      </c>
+      <c r="G1384">
+        <v>1939829.38</v>
+      </c>
+      <c r="H1384">
+        <v>1939829.38</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1385" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1385" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1385">
+        <v>0</v>
+      </c>
+      <c r="E1385">
+        <v>0</v>
+      </c>
+      <c r="F1385">
+        <v>0</v>
+      </c>
+      <c r="G1385">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1385">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1386" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1386" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1386">
+        <v>645850.14</v>
+      </c>
+      <c r="E1386">
+        <v>3627826.53</v>
+      </c>
+      <c r="F1386">
+        <v>-2981976.3899999997</v>
+      </c>
+      <c r="G1386">
+        <v>0</v>
+      </c>
+      <c r="H1386">
+        <v>-2981976.3899999997</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1387" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1387" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1387">
+        <v>0</v>
+      </c>
+      <c r="E1387">
+        <v>0</v>
+      </c>
+      <c r="F1387">
+        <v>0</v>
+      </c>
+      <c r="G1387">
+        <v>89948.65</v>
+      </c>
+      <c r="H1387">
+        <v>89948.65</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1388" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1388" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1388">
+        <v>0</v>
+      </c>
+      <c r="E1388">
+        <v>0</v>
+      </c>
+      <c r="F1388">
+        <v>0</v>
+      </c>
+      <c r="G1388">
+        <v>67480663.209999993</v>
+      </c>
+      <c r="H1388">
+        <v>67480663.209999993</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1389" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1389" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1389">
+        <v>0</v>
+      </c>
+      <c r="E1389">
+        <v>80210.789999999994</v>
+      </c>
+      <c r="F1389">
+        <v>-80210.789999999994</v>
+      </c>
+      <c r="G1389">
+        <v>367835.82</v>
+      </c>
+      <c r="H1389">
+        <v>287625.03000000003</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1390" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1390" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1390">
+        <v>0</v>
+      </c>
+      <c r="E1390">
+        <v>0</v>
+      </c>
+      <c r="F1390">
+        <v>0</v>
+      </c>
+      <c r="G1390">
+        <v>1140036.43</v>
+      </c>
+      <c r="H1390">
+        <v>1140036.43</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1391" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1391" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1391">
+        <v>32004.07</v>
+      </c>
+      <c r="E1391">
+        <v>700639.16</v>
+      </c>
+      <c r="F1391">
+        <v>-668635.09000000008</v>
+      </c>
+      <c r="G1391">
+        <v>0</v>
+      </c>
+      <c r="H1391">
+        <v>-668635.09000000008</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1392" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1392" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1392">
+        <v>0</v>
+      </c>
+      <c r="E1392">
+        <v>0</v>
+      </c>
+      <c r="F1392">
+        <v>0</v>
+      </c>
+      <c r="G1392">
+        <v>4637075.84</v>
+      </c>
+      <c r="H1392">
+        <v>4637075.84</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1393" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1393" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1393">
+        <v>0</v>
+      </c>
+      <c r="E1393">
+        <v>0</v>
+      </c>
+      <c r="F1393">
+        <v>0</v>
+      </c>
+      <c r="G1393">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1393">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1394" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1394" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1394">
+        <v>164916.06</v>
+      </c>
+      <c r="E1394">
+        <v>73621.75</v>
+      </c>
+      <c r="F1394">
+        <v>91294.31</v>
+      </c>
+      <c r="G1394">
+        <v>0</v>
+      </c>
+      <c r="H1394">
+        <v>91294.31</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1395" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1395" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1395">
+        <v>101407.33</v>
+      </c>
+      <c r="E1395">
+        <v>0</v>
+      </c>
+      <c r="F1395">
+        <v>101407.33</v>
+      </c>
+      <c r="G1395">
+        <v>0</v>
+      </c>
+      <c r="H1395">
+        <v>101407.33</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1396" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1396" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1396">
+        <v>0</v>
+      </c>
+      <c r="E1396">
+        <v>0</v>
+      </c>
+      <c r="F1396">
+        <v>0</v>
+      </c>
+      <c r="G1396">
+        <v>24985533.469999999</v>
+      </c>
+      <c r="H1396">
+        <v>24985533.469999999</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1397" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1397" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1397">
+        <v>0</v>
+      </c>
+      <c r="E1397">
+        <v>0</v>
+      </c>
+      <c r="F1397">
+        <v>0</v>
+      </c>
+      <c r="G1397">
+        <v>45694.06</v>
+      </c>
+      <c r="H1397">
+        <v>45694.06</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1398" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1398" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1398">
+        <v>0</v>
+      </c>
+      <c r="E1398">
+        <v>0</v>
+      </c>
+      <c r="F1398">
+        <v>0</v>
+      </c>
+      <c r="G1398">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1398">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1399" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1399" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1399">
+        <v>1840143.2</v>
+      </c>
+      <c r="E1399">
+        <v>8709.11</v>
+      </c>
+      <c r="F1399">
+        <v>1831434.0899999999</v>
+      </c>
+      <c r="G1399">
+        <v>0</v>
+      </c>
+      <c r="H1399">
+        <v>1831434.0899999999</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1400" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1400" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1400">
+        <v>0</v>
+      </c>
+      <c r="E1400">
+        <v>0</v>
+      </c>
+      <c r="F1400">
+        <v>0</v>
+      </c>
+      <c r="G1400">
+        <v>89948.65</v>
+      </c>
+      <c r="H1400">
+        <v>89948.65</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1401" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1401" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1401">
+        <v>0</v>
+      </c>
+      <c r="E1401">
+        <v>0</v>
+      </c>
+      <c r="F1401">
+        <v>0</v>
+      </c>
+      <c r="G1401">
+        <v>66014273.32</v>
+      </c>
+      <c r="H1401">
+        <v>66014273.32</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1402" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1402" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1402">
+        <v>0</v>
+      </c>
+      <c r="E1402">
+        <v>0</v>
+      </c>
+      <c r="F1402">
+        <v>0</v>
+      </c>
+      <c r="G1402">
+        <v>367835.82</v>
+      </c>
+      <c r="H1402">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1403" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1403" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1403">
+        <v>0</v>
+      </c>
+      <c r="E1403">
+        <v>0</v>
+      </c>
+      <c r="F1403">
+        <v>0</v>
+      </c>
+      <c r="G1403">
+        <v>1140451.77</v>
+      </c>
+      <c r="H1403">
+        <v>1140451.77</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1404" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1404" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1404">
+        <v>14563.22</v>
+      </c>
+      <c r="E1404">
+        <v>2158.2199999999998</v>
+      </c>
+      <c r="F1404">
+        <v>12405</v>
+      </c>
+      <c r="G1404">
+        <v>0</v>
+      </c>
+      <c r="H1404">
+        <v>12405</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1405" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1405" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1405">
+        <v>0</v>
+      </c>
+      <c r="E1405">
+        <v>0</v>
+      </c>
+      <c r="F1405">
+        <v>0</v>
+      </c>
+      <c r="G1405">
+        <v>3987954.88</v>
+      </c>
+      <c r="H1405">
+        <v>3987954.88</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1406" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1406" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1406">
+        <v>0</v>
+      </c>
+      <c r="E1406">
+        <v>0</v>
+      </c>
+      <c r="F1406">
+        <v>0</v>
+      </c>
+      <c r="G1406">
+        <v>2162970.7200000002</v>
+      </c>
+      <c r="H1406">
+        <v>2162970.7200000002</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1407" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1407" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1407">
+        <v>283311.12</v>
+      </c>
+      <c r="E1407">
+        <v>663642.5</v>
+      </c>
+      <c r="F1407">
+        <v>-380331.38</v>
+      </c>
+      <c r="G1407">
+        <v>0</v>
+      </c>
+      <c r="H1407">
+        <v>-380331.38</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1408" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1408" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1408">
+        <v>240213.54</v>
+      </c>
+      <c r="E1408">
+        <v>0</v>
+      </c>
+      <c r="F1408">
+        <v>240213.54</v>
+      </c>
+      <c r="G1408">
+        <v>0</v>
+      </c>
+      <c r="H1408">
+        <v>240213.54</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1409" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1409" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1409">
+        <v>0</v>
+      </c>
+      <c r="E1409">
+        <v>0</v>
+      </c>
+      <c r="F1409">
+        <v>0</v>
+      </c>
+      <c r="G1409">
+        <v>24999108.530000001</v>
+      </c>
+      <c r="H1409">
+        <v>24999108.530000001</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1410" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1410" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1410">
+        <v>0</v>
+      </c>
+      <c r="E1410">
+        <v>0</v>
+      </c>
+      <c r="F1410">
+        <v>0</v>
+      </c>
+      <c r="G1410">
+        <v>1267411.1399999999</v>
+      </c>
+      <c r="H1410">
+        <v>1267411.1399999999</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1411" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1411" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1411">
+        <v>0</v>
+      </c>
+      <c r="E1411">
+        <v>0</v>
+      </c>
+      <c r="F1411">
+        <v>0</v>
+      </c>
+      <c r="G1411">
+        <v>4473931.53</v>
+      </c>
+      <c r="H1411">
+        <v>4473931.53</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1412" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1412" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1412">
+        <v>370759.7</v>
+      </c>
+      <c r="E1412">
+        <v>0</v>
+      </c>
+      <c r="F1412">
+        <v>370759.7</v>
+      </c>
+      <c r="G1412">
+        <v>0</v>
+      </c>
+      <c r="H1412">
+        <v>370759.7</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1413" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1413" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1413">
+        <v>0</v>
+      </c>
+      <c r="E1413">
+        <v>1271.4100000000001</v>
+      </c>
+      <c r="F1413">
+        <v>-1271.4100000000001</v>
+      </c>
+      <c r="G1413">
+        <v>89948.65</v>
+      </c>
+      <c r="H1413">
+        <v>88677.239999999991</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1414" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1414" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1414">
+        <v>0</v>
+      </c>
+      <c r="E1414">
+        <v>0</v>
+      </c>
+      <c r="F1414">
+        <v>0</v>
+      </c>
+      <c r="G1414">
+        <v>74010795.069999993</v>
+      </c>
+      <c r="H1414">
+        <v>74010795.069999993</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1415" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1415" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1415">
+        <v>0</v>
+      </c>
+      <c r="E1415">
+        <v>0</v>
+      </c>
+      <c r="F1415">
+        <v>0</v>
+      </c>
+      <c r="G1415">
+        <v>367835.82</v>
+      </c>
+      <c r="H1415">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1416" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1416" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1416">
+        <v>0</v>
+      </c>
+      <c r="E1416">
+        <v>0</v>
+      </c>
+      <c r="F1416">
+        <v>0</v>
+      </c>
+      <c r="G1416">
+        <v>1141197.83</v>
+      </c>
+      <c r="H1416">
+        <v>1141197.83</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1417" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1417" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1417">
+        <v>131855.88</v>
+      </c>
+      <c r="E1417">
+        <v>0</v>
+      </c>
+      <c r="F1417">
+        <v>131855.88</v>
+      </c>
+      <c r="G1417">
+        <v>0</v>
+      </c>
+      <c r="H1417">
+        <v>131855.88</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1418" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1418">
+        <v>0</v>
+      </c>
+      <c r="E1418">
+        <v>0</v>
+      </c>
+      <c r="F1418">
+        <v>0</v>
+      </c>
+      <c r="G1418">
+        <v>3989664.82</v>
+      </c>
+      <c r="H1418">
+        <v>3989664.82</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1419" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1419">
+        <v>0</v>
+      </c>
+      <c r="E1419">
+        <v>0</v>
+      </c>
+      <c r="F1419">
+        <v>0</v>
+      </c>
+      <c r="G1419">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1419">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1420" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1420">
+        <v>10025.02</v>
+      </c>
+      <c r="E1420">
+        <v>1726400.6</v>
+      </c>
+      <c r="F1420">
+        <v>-1716375.58</v>
+      </c>
+      <c r="G1420">
+        <v>81998.720000000001</v>
+      </c>
+      <c r="H1420">
+        <v>-1634376.86</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1421" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1421">
+        <v>168178.69</v>
+      </c>
+      <c r="E1421">
+        <v>0</v>
+      </c>
+      <c r="F1421">
+        <v>168178.69</v>
+      </c>
+      <c r="G1421">
+        <v>0</v>
+      </c>
+      <c r="H1421">
+        <v>168178.69</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1422" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1422">
+        <v>0</v>
+      </c>
+      <c r="E1422">
+        <v>0</v>
+      </c>
+      <c r="F1422">
+        <v>0</v>
+      </c>
+      <c r="G1422">
+        <v>26816238.5</v>
+      </c>
+      <c r="H1422">
+        <v>26816238.5</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1423" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1423">
+        <v>0</v>
+      </c>
+      <c r="E1423">
+        <v>0</v>
+      </c>
+      <c r="F1423">
+        <v>0</v>
+      </c>
+      <c r="G1423">
+        <v>19387.38</v>
+      </c>
+      <c r="H1423">
+        <v>19387.38</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1424" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1424">
+        <v>0</v>
+      </c>
+      <c r="E1424">
+        <v>0</v>
+      </c>
+      <c r="F1424">
+        <v>0</v>
+      </c>
+      <c r="G1424">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1424">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1425" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1425">
+        <v>55910.52</v>
+      </c>
+      <c r="E1425">
+        <v>4773191.12</v>
+      </c>
+      <c r="F1425">
+        <v>-4717280.6000000006</v>
+      </c>
+      <c r="G1425">
+        <v>1055318.3999999999</v>
+      </c>
+      <c r="H1425">
+        <v>-3661962.2000000007</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1426" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1426">
+        <v>0</v>
+      </c>
+      <c r="E1426">
+        <v>45098.77</v>
+      </c>
+      <c r="F1426">
+        <v>-45098.77</v>
+      </c>
+      <c r="G1426">
+        <v>123302.26</v>
+      </c>
+      <c r="H1426">
+        <v>78203.489999999991</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1427" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1427">
+        <v>0</v>
+      </c>
+      <c r="E1427">
+        <v>0</v>
+      </c>
+      <c r="F1427">
+        <v>0</v>
+      </c>
+      <c r="G1427">
+        <v>74062822.840000004</v>
+      </c>
+      <c r="H1427">
+        <v>74062822.840000004</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1428" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1428">
+        <v>0</v>
+      </c>
+      <c r="E1428">
+        <v>0</v>
+      </c>
+      <c r="F1428">
+        <v>0</v>
+      </c>
+      <c r="G1428">
+        <v>367835.82</v>
+      </c>
+      <c r="H1428">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1429" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1429">
+        <v>0</v>
+      </c>
+      <c r="E1429">
+        <v>0</v>
+      </c>
+      <c r="F1429">
+        <v>0</v>
+      </c>
+      <c r="G1429">
+        <v>1141197.83</v>
+      </c>
+      <c r="H1429">
+        <v>1141197.83</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1430" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1430">
+        <v>5013.5600000000004</v>
+      </c>
+      <c r="E1430">
+        <v>409557.23</v>
+      </c>
+      <c r="F1430">
+        <v>-404543.67</v>
+      </c>
+      <c r="G1430">
+        <v>36778.400000000001</v>
+      </c>
+      <c r="H1430">
+        <v>-367765.26999999996</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1431" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1431">
+        <v>0</v>
+      </c>
+      <c r="E1431">
+        <v>0</v>
+      </c>
+      <c r="F1431">
+        <v>0</v>
+      </c>
+      <c r="G1431">
+        <v>4141040.58</v>
+      </c>
+      <c r="H1431">
+        <v>4141040.58</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1432" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1432">
+        <v>0</v>
+      </c>
+      <c r="E1432">
+        <v>0</v>
+      </c>
+      <c r="F1432">
+        <v>0</v>
+      </c>
+      <c r="G1432">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1432">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1433" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1433">
+        <v>10206.030000000001</v>
+      </c>
+      <c r="E1433">
+        <v>46884</v>
+      </c>
+      <c r="F1433">
+        <v>-36677.97</v>
+      </c>
+      <c r="G1433">
+        <v>109073.4</v>
+      </c>
+      <c r="H1433">
+        <v>72395.429999999993</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1434" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1434" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1434">
+        <v>131896.01999999999</v>
+      </c>
+      <c r="E1434">
+        <v>0</v>
+      </c>
+      <c r="F1434">
+        <v>131896.01999999999</v>
+      </c>
+      <c r="G1434">
+        <v>0</v>
+      </c>
+      <c r="H1434">
+        <v>131896.01999999999</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1435" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1435" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1435">
+        <v>0</v>
+      </c>
+      <c r="E1435">
+        <v>0</v>
+      </c>
+      <c r="F1435">
+        <v>0</v>
+      </c>
+      <c r="G1435">
+        <v>25366069.969999999</v>
+      </c>
+      <c r="H1435">
+        <v>25366069.969999999</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1436" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1436" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1436">
+        <v>0</v>
+      </c>
+      <c r="E1436">
+        <v>0</v>
+      </c>
+      <c r="F1436">
+        <v>0</v>
+      </c>
+      <c r="G1436">
+        <v>18585.53</v>
+      </c>
+      <c r="H1436">
+        <v>18585.53</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1437" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1437" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1437">
+        <v>0</v>
+      </c>
+      <c r="E1437">
+        <v>0</v>
+      </c>
+      <c r="F1437">
+        <v>0</v>
+      </c>
+      <c r="G1437">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1437">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1438" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1438" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1438">
+        <v>967942.24</v>
+      </c>
+      <c r="E1438">
+        <v>216962.27</v>
+      </c>
+      <c r="F1438">
+        <v>750979.97</v>
+      </c>
+      <c r="G1438">
+        <v>218848.93</v>
+      </c>
+      <c r="H1438">
+        <v>969828.89999999991</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1439" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1439">
+        <v>0</v>
+      </c>
+      <c r="E1439">
+        <v>0</v>
+      </c>
+      <c r="F1439">
+        <v>0</v>
+      </c>
+      <c r="G1439">
+        <v>11632.26</v>
+      </c>
+      <c r="H1439">
+        <v>11632.26</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1440" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1440">
+        <v>0</v>
+      </c>
+      <c r="E1440">
+        <v>0</v>
+      </c>
+      <c r="F1440">
+        <v>0</v>
+      </c>
+      <c r="G1440">
+        <v>70953988.900000006</v>
+      </c>
+      <c r="H1440">
+        <v>70953988.900000006</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1441" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1441">
+        <v>0</v>
+      </c>
+      <c r="E1441">
+        <v>0</v>
+      </c>
+      <c r="F1441">
+        <v>0</v>
+      </c>
+      <c r="G1441">
+        <v>367835.82</v>
+      </c>
+      <c r="H1441">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1442" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1442">
+        <v>0</v>
+      </c>
+      <c r="E1442">
+        <v>0</v>
+      </c>
+      <c r="F1442">
+        <v>0</v>
+      </c>
+      <c r="G1442">
+        <v>1143274.8</v>
+      </c>
+      <c r="H1442">
+        <v>1143274.8</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1443" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1443">
+        <v>5000.57</v>
+      </c>
+      <c r="E1443">
+        <v>25216.73</v>
+      </c>
+      <c r="F1443">
+        <v>-20216.16</v>
+      </c>
+      <c r="G1443">
+        <v>26664.92</v>
+      </c>
+      <c r="H1443">
+        <v>6448.7599999999984</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1444" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1444">
+        <v>0</v>
+      </c>
+      <c r="E1444">
+        <v>0</v>
+      </c>
+      <c r="F1444">
+        <v>0</v>
+      </c>
+      <c r="G1444">
+        <v>3796067.43</v>
+      </c>
+      <c r="H1444">
+        <v>3796067.43</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1445" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1445">
+        <v>0</v>
+      </c>
+      <c r="E1445">
+        <v>0</v>
+      </c>
+      <c r="F1445">
+        <v>0</v>
+      </c>
+      <c r="G1445">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1445">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1446" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1446">
+        <v>13739.71</v>
+      </c>
+      <c r="E1446">
+        <v>617202.39</v>
+      </c>
+      <c r="F1446">
+        <v>-603462.68000000005</v>
+      </c>
+      <c r="G1446">
+        <v>641233.99</v>
+      </c>
+      <c r="H1446">
+        <v>37771.309999999939</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1447" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1447">
+        <v>288424.5</v>
+      </c>
+      <c r="E1447">
+        <v>0</v>
+      </c>
+      <c r="F1447">
+        <v>288424.5</v>
+      </c>
+      <c r="G1447">
+        <v>0</v>
+      </c>
+      <c r="H1447">
+        <v>288424.5</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1448" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1448">
+        <v>0</v>
+      </c>
+      <c r="E1448">
+        <v>0</v>
+      </c>
+      <c r="F1448">
+        <v>0</v>
+      </c>
+      <c r="G1448">
+        <v>26649765.09</v>
+      </c>
+      <c r="H1448">
+        <v>26649765.09</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1449" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1449">
+        <v>0</v>
+      </c>
+      <c r="E1449">
+        <v>0</v>
+      </c>
+      <c r="F1449">
+        <v>0</v>
+      </c>
+      <c r="G1449">
+        <v>87362.77</v>
+      </c>
+      <c r="H1449">
+        <v>87362.77</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1450" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1450">
+        <v>0</v>
+      </c>
+      <c r="E1450">
+        <v>0</v>
+      </c>
+      <c r="F1450">
+        <v>0</v>
+      </c>
+      <c r="G1450">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1450">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1451" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1451">
+        <v>110457.64</v>
+      </c>
+      <c r="E1451">
+        <v>3406563.92</v>
+      </c>
+      <c r="F1451">
+        <v>-3296106.28</v>
+      </c>
+      <c r="G1451">
+        <v>1499020.06</v>
+      </c>
+      <c r="H1451">
+        <v>-1797086.2199999997</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1452" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1452">
+        <v>0</v>
+      </c>
+      <c r="E1452">
+        <v>217749.78</v>
+      </c>
+      <c r="F1452">
+        <v>-217749.78</v>
+      </c>
+      <c r="G1452">
+        <v>63541.7</v>
+      </c>
+      <c r="H1452">
+        <v>-154208.08000000002</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1453" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1453">
+        <v>0</v>
+      </c>
+      <c r="E1453">
+        <v>0</v>
+      </c>
+      <c r="F1453">
+        <v>0</v>
+      </c>
+      <c r="G1453">
+        <v>70998685.189999998</v>
+      </c>
+      <c r="H1453">
+        <v>70998685.189999998</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1454" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1454">
+        <v>0</v>
+      </c>
+      <c r="E1454">
+        <v>0</v>
+      </c>
+      <c r="F1454">
+        <v>0</v>
+      </c>
+      <c r="G1454">
+        <v>367835.82</v>
+      </c>
+      <c r="H1454">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1455" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1455">
+        <v>0</v>
+      </c>
+      <c r="E1455">
+        <v>0</v>
+      </c>
+      <c r="F1455">
+        <v>0</v>
+      </c>
+      <c r="G1455">
+        <v>1143442.8899999999</v>
+      </c>
+      <c r="H1455">
+        <v>1143442.8899999999</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1456" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1456">
+        <v>2868.21</v>
+      </c>
+      <c r="E1456">
+        <v>154458.04</v>
+      </c>
+      <c r="F1456">
+        <v>-151589.83000000002</v>
+      </c>
+      <c r="G1456">
+        <v>26685.43</v>
+      </c>
+      <c r="H1456">
+        <v>-124904.40000000002</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1457" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1457">
+        <v>0</v>
+      </c>
+      <c r="E1457">
+        <v>0</v>
+      </c>
+      <c r="F1457">
+        <v>0</v>
+      </c>
+      <c r="G1457">
+        <v>3798996.77</v>
+      </c>
+      <c r="H1457">
+        <v>3798996.77</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1458" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1458">
+        <v>0</v>
+      </c>
+      <c r="E1458">
+        <v>0</v>
+      </c>
+      <c r="F1458">
+        <v>0</v>
+      </c>
+      <c r="G1458">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1458">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1459" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1459">
+        <v>551417.57999999996</v>
+      </c>
+      <c r="E1459">
+        <v>374428.63</v>
+      </c>
+      <c r="F1459">
+        <v>176988.94999999995</v>
+      </c>
+      <c r="G1459">
+        <v>0</v>
+      </c>
+      <c r="H1459">
+        <v>176988.94999999995</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1460" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1460">
+        <v>175753.92</v>
+      </c>
+      <c r="E1460">
+        <v>0</v>
+      </c>
+      <c r="F1460">
+        <v>175753.92</v>
+      </c>
+      <c r="G1460">
+        <v>0</v>
+      </c>
+      <c r="H1460">
+        <v>175753.92</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1461" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1461">
+        <v>0</v>
+      </c>
+      <c r="E1461">
+        <v>0</v>
+      </c>
+      <c r="F1461">
+        <v>0</v>
+      </c>
+      <c r="G1461">
+        <v>27285349.719999999</v>
+      </c>
+      <c r="H1461">
+        <v>27285349.719999999</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1462" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1462">
+        <v>0</v>
+      </c>
+      <c r="E1462">
+        <v>0</v>
+      </c>
+      <c r="F1462">
+        <v>0</v>
+      </c>
+      <c r="G1462">
+        <v>18701.62</v>
+      </c>
+      <c r="H1462">
+        <v>18701.62</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1463" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1463">
+        <v>0</v>
+      </c>
+      <c r="E1463">
+        <v>0</v>
+      </c>
+      <c r="F1463">
+        <v>0</v>
+      </c>
+      <c r="G1463">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1463">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1464" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1464">
+        <v>581036.23</v>
+      </c>
+      <c r="E1464">
+        <v>85370.81</v>
+      </c>
+      <c r="F1464">
+        <v>495665.42</v>
+      </c>
+      <c r="G1464">
+        <v>0</v>
+      </c>
+      <c r="H1464">
+        <v>495665.42</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1465" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1465">
+        <v>0</v>
+      </c>
+      <c r="E1465">
+        <v>17388.8</v>
+      </c>
+      <c r="F1465">
+        <v>-17388.8</v>
+      </c>
+      <c r="G1465">
+        <v>204732.53</v>
+      </c>
+      <c r="H1465">
+        <v>187343.73</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1466" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1466">
+        <v>0</v>
+      </c>
+      <c r="E1466">
+        <v>0</v>
+      </c>
+      <c r="F1466">
+        <v>0</v>
+      </c>
+      <c r="G1466">
+        <v>69935001.400000006</v>
+      </c>
+      <c r="H1466">
+        <v>69935001.400000006</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1467" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1467">
+        <v>0</v>
+      </c>
+      <c r="E1467">
+        <v>0</v>
+      </c>
+      <c r="F1467">
+        <v>0</v>
+      </c>
+      <c r="G1467">
+        <v>367835.82</v>
+      </c>
+      <c r="H1467">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1468" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1468">
+        <v>0</v>
+      </c>
+      <c r="E1468">
+        <v>0</v>
+      </c>
+      <c r="F1468">
+        <v>0</v>
+      </c>
+      <c r="G1468">
+        <v>1144283.82</v>
+      </c>
+      <c r="H1468">
+        <v>1144283.82</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1469" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1469">
+        <v>72085.7</v>
+      </c>
+      <c r="E1469">
+        <v>7546.89</v>
+      </c>
+      <c r="F1469">
+        <v>64538.81</v>
+      </c>
+      <c r="G1469">
+        <v>0</v>
+      </c>
+      <c r="H1469">
+        <v>64538.81</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1470" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1470">
+        <v>0</v>
+      </c>
+      <c r="E1470">
+        <v>0</v>
+      </c>
+      <c r="F1470">
+        <v>0</v>
+      </c>
+      <c r="G1470">
+        <v>3800573.52</v>
+      </c>
+      <c r="H1470">
+        <v>3800573.52</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1471" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1471">
+        <v>0</v>
+      </c>
+      <c r="E1471">
+        <v>0</v>
+      </c>
+      <c r="F1471">
+        <v>0</v>
+      </c>
+      <c r="G1471">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1471">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1472" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1472">
+        <v>46919.76</v>
+      </c>
+      <c r="E1472">
+        <v>8159.62</v>
+      </c>
+      <c r="F1472">
+        <v>38760.14</v>
+      </c>
+      <c r="G1472">
+        <v>199987.95</v>
+      </c>
+      <c r="H1472">
+        <v>238748.09000000003</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1473" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1473">
+        <v>355275.45</v>
+      </c>
+      <c r="E1473">
+        <v>0</v>
+      </c>
+      <c r="F1473">
+        <v>355275.45</v>
+      </c>
+      <c r="G1473">
+        <v>0</v>
+      </c>
+      <c r="H1473">
+        <v>355275.45</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1474" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1474">
+        <v>0</v>
+      </c>
+      <c r="E1474">
+        <v>0</v>
+      </c>
+      <c r="F1474">
+        <v>0</v>
+      </c>
+      <c r="G1474">
+        <v>28556758.059999999</v>
+      </c>
+      <c r="H1474">
+        <v>28556758.059999999</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1475" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1475">
+        <v>0</v>
+      </c>
+      <c r="E1475">
+        <v>0</v>
+      </c>
+      <c r="F1475">
+        <v>0</v>
+      </c>
+      <c r="G1475">
+        <v>26714.89</v>
+      </c>
+      <c r="H1475">
+        <v>26714.89</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1476" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1476">
+        <v>0</v>
+      </c>
+      <c r="E1476">
+        <v>0</v>
+      </c>
+      <c r="F1476">
+        <v>0</v>
+      </c>
+      <c r="G1476">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1476">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1477" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1477">
+        <v>70921.7</v>
+      </c>
+      <c r="E1477">
+        <v>0</v>
+      </c>
+      <c r="F1477">
+        <v>70921.7</v>
+      </c>
+      <c r="G1477">
+        <v>369881.93</v>
+      </c>
+      <c r="H1477">
+        <v>440803.63</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1478" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1478">
+        <v>0</v>
+      </c>
+      <c r="E1478">
+        <v>208.8</v>
+      </c>
+      <c r="F1478">
+        <v>-208.8</v>
+      </c>
+      <c r="G1478">
+        <v>187343.73</v>
+      </c>
+      <c r="H1478">
+        <v>187134.93000000002</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1479" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1479">
+        <v>0</v>
+      </c>
+      <c r="E1479">
+        <v>0</v>
+      </c>
+      <c r="F1479">
+        <v>0</v>
+      </c>
+      <c r="G1479">
+        <v>71478181.439999998</v>
+      </c>
+      <c r="H1479">
+        <v>71478181.439999998</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1480" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1480" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1480">
+        <v>0</v>
+      </c>
+      <c r="E1480">
+        <v>0</v>
+      </c>
+      <c r="F1480">
+        <v>0</v>
+      </c>
+      <c r="G1480">
+        <v>367835.82</v>
+      </c>
+      <c r="H1480">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1481" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1481">
+        <v>0</v>
+      </c>
+      <c r="E1481">
+        <v>0</v>
+      </c>
+      <c r="F1481">
+        <v>0</v>
+      </c>
+      <c r="G1481">
+        <v>1144283.82</v>
+      </c>
+      <c r="H1481">
+        <v>1144283.82</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1482" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1482">
+        <v>20010</v>
+      </c>
+      <c r="E1482">
+        <v>0</v>
+      </c>
+      <c r="F1482">
+        <v>20010</v>
+      </c>
+      <c r="G1482">
+        <v>716937.75</v>
+      </c>
+      <c r="H1482">
+        <v>736947.75</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1483" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1483">
+        <v>0</v>
+      </c>
+      <c r="E1483">
+        <v>0</v>
+      </c>
+      <c r="F1483">
+        <v>0</v>
+      </c>
+      <c r="G1483">
+        <v>3853310.05</v>
+      </c>
+      <c r="H1483">
+        <v>3853310.05</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1484" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1484">
+        <v>0</v>
+      </c>
+      <c r="E1484">
+        <v>0</v>
+      </c>
+      <c r="F1484">
+        <v>0</v>
+      </c>
+      <c r="G1484">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1484">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1485" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1485">
+        <v>70017.649999999994</v>
+      </c>
+      <c r="E1485">
+        <v>5665.1</v>
+      </c>
+      <c r="F1485">
+        <v>64352.549999999996</v>
+      </c>
+      <c r="G1485">
+        <v>49497.33</v>
+      </c>
+      <c r="H1485">
+        <v>113849.88</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1486" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1486" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1486">
+        <v>38224.300000000003</v>
+      </c>
+      <c r="E1486">
+        <v>0</v>
+      </c>
+      <c r="F1486">
+        <v>38224.300000000003</v>
+      </c>
+      <c r="G1486">
+        <v>0</v>
+      </c>
+      <c r="H1486">
+        <v>38224.300000000003</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1487" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1487" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1487">
+        <v>0</v>
+      </c>
+      <c r="E1487">
+        <v>0</v>
+      </c>
+      <c r="F1487">
+        <v>0</v>
+      </c>
+      <c r="G1487">
+        <v>29456983.190000001</v>
+      </c>
+      <c r="H1487">
+        <v>29456983.190000001</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1488" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1488" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1488">
+        <v>0</v>
+      </c>
+      <c r="E1488">
+        <v>0</v>
+      </c>
+      <c r="F1488">
+        <v>0</v>
+      </c>
+      <c r="G1488">
+        <v>26197.3</v>
+      </c>
+      <c r="H1488">
+        <v>26197.3</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1489" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1489" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1489">
+        <v>0</v>
+      </c>
+      <c r="E1489">
+        <v>0</v>
+      </c>
+      <c r="F1489">
+        <v>0</v>
+      </c>
+      <c r="G1489">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1489">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1490" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1490" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1490">
+        <v>206355.27</v>
+      </c>
+      <c r="E1490">
+        <v>4609.3999999999996</v>
+      </c>
+      <c r="F1490">
+        <v>201745.87</v>
+      </c>
+      <c r="G1490">
+        <v>0</v>
+      </c>
+      <c r="H1490">
+        <v>201745.87</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1491" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1491" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1491">
+        <v>0</v>
+      </c>
+      <c r="E1491">
+        <v>74926.75</v>
+      </c>
+      <c r="F1491">
+        <v>-74926.75</v>
+      </c>
+      <c r="G1491">
+        <v>113512.18</v>
+      </c>
+      <c r="H1491">
+        <v>38585.429999999993</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1492" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1492" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1492">
+        <v>0</v>
+      </c>
+      <c r="E1492">
+        <v>0</v>
+      </c>
+      <c r="F1492">
+        <v>0</v>
+      </c>
+      <c r="G1492">
+        <v>72125026.650000006</v>
+      </c>
+      <c r="H1492">
+        <v>72125026.650000006</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1493" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1493" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1493">
+        <v>0</v>
+      </c>
+      <c r="E1493">
+        <v>0</v>
+      </c>
+      <c r="F1493">
+        <v>0</v>
+      </c>
+      <c r="G1493">
+        <v>367835.82</v>
+      </c>
+      <c r="H1493">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1494" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1494" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1494">
+        <v>0</v>
+      </c>
+      <c r="E1494">
+        <v>0</v>
+      </c>
+      <c r="F1494">
+        <v>0</v>
+      </c>
+      <c r="G1494">
+        <v>1145781.3400000001</v>
+      </c>
+      <c r="H1494">
+        <v>1145781.3400000001</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1495" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1495" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1495">
+        <v>66313.929999999993</v>
+      </c>
+      <c r="E1495">
+        <v>124500</v>
+      </c>
+      <c r="F1495">
+        <v>-58186.070000000007</v>
+      </c>
+      <c r="G1495">
+        <v>0</v>
+      </c>
+      <c r="H1495">
+        <v>-58186.070000000007</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1496" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1496" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1496">
+        <v>0</v>
+      </c>
+      <c r="E1496">
+        <v>0</v>
+      </c>
+      <c r="F1496">
+        <v>0</v>
+      </c>
+      <c r="G1496">
+        <v>4555838.6399999997</v>
+      </c>
+      <c r="H1496">
+        <v>4555838.6399999997</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1497" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1497" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1497">
+        <v>0</v>
+      </c>
+      <c r="E1497">
+        <v>0</v>
+      </c>
+      <c r="F1497">
+        <v>0</v>
+      </c>
+      <c r="G1497">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1497">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1498" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1498" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1498">
+        <v>6349067.4100000001</v>
+      </c>
+      <c r="E1498">
+        <v>6131305.75</v>
+      </c>
+      <c r="F1498">
+        <v>217761.66000000015</v>
+      </c>
+      <c r="G1498">
+        <v>49535.41</v>
+      </c>
+      <c r="H1498">
+        <v>267297.07000000018</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1499" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1499" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1499">
+        <v>368684.95</v>
+      </c>
+      <c r="E1499">
+        <v>0</v>
+      </c>
+      <c r="F1499">
+        <v>368684.95</v>
+      </c>
+      <c r="G1499">
+        <v>0</v>
+      </c>
+      <c r="H1499">
+        <v>368684.95</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1500" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1500" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1500">
+        <v>0</v>
+      </c>
+      <c r="E1500">
+        <v>0</v>
+      </c>
+      <c r="F1500">
+        <v>0</v>
+      </c>
+      <c r="G1500">
+        <v>20302488.539999999</v>
+      </c>
+      <c r="H1500">
+        <v>20302488.539999999</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1501" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1501" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1501">
+        <v>0</v>
+      </c>
+      <c r="E1501">
+        <v>0</v>
+      </c>
+      <c r="F1501">
+        <v>0</v>
+      </c>
+      <c r="G1501">
+        <v>73539.679999999993</v>
+      </c>
+      <c r="H1501">
+        <v>73539.679999999993</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1502" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1502" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1502">
+        <v>0</v>
+      </c>
+      <c r="E1502">
+        <v>0</v>
+      </c>
+      <c r="F1502">
+        <v>0</v>
+      </c>
+      <c r="G1502">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1502">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1503" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1503" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1503">
+        <v>11567587.17</v>
+      </c>
+      <c r="E1503">
+        <v>11385604.85</v>
+      </c>
+      <c r="F1503">
+        <v>181982.3200000003</v>
+      </c>
+      <c r="G1503">
+        <v>0</v>
+      </c>
+      <c r="H1503">
+        <v>181982.3200000003</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1504" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1504" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1504">
+        <v>0</v>
+      </c>
+      <c r="E1504">
+        <v>4181729.19</v>
+      </c>
+      <c r="F1504">
+        <v>-4181729.19</v>
+      </c>
+      <c r="G1504">
+        <v>4238585.43</v>
+      </c>
+      <c r="H1504">
+        <v>56856.239999999758</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1505" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1505" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1505">
+        <v>0</v>
+      </c>
+      <c r="E1505">
+        <v>0</v>
+      </c>
+      <c r="F1505">
+        <v>0</v>
+      </c>
+      <c r="G1505">
+        <v>57544810.829999998</v>
+      </c>
+      <c r="H1505">
+        <v>57544810.829999998</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1506" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1506" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1506">
+        <v>0</v>
+      </c>
+      <c r="E1506">
+        <v>0</v>
+      </c>
+      <c r="F1506">
+        <v>0</v>
+      </c>
+      <c r="G1506">
+        <v>367835.82</v>
+      </c>
+      <c r="H1506">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1507" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1507" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1507">
+        <v>0</v>
+      </c>
+      <c r="E1507">
+        <v>0</v>
+      </c>
+      <c r="F1507">
+        <v>0</v>
+      </c>
+      <c r="G1507">
+        <v>1145781.3400000001</v>
+      </c>
+      <c r="H1507">
+        <v>1145781.3400000001</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1508" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1508" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1508">
+        <v>1008904.23</v>
+      </c>
+      <c r="E1508">
+        <v>1221002.3899999999</v>
+      </c>
+      <c r="F1508">
+        <v>-212098.15999999992</v>
+      </c>
+      <c r="G1508">
+        <v>0</v>
+      </c>
+      <c r="H1508">
+        <v>-212098.15999999992</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1509" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1509" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1509">
+        <v>0</v>
+      </c>
+      <c r="E1509">
+        <v>0</v>
+      </c>
+      <c r="F1509">
+        <v>0</v>
+      </c>
+      <c r="G1509">
+        <v>3629078.41</v>
+      </c>
+      <c r="H1509">
+        <v>3629078.41</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1510" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1510" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1510">
+        <v>0</v>
+      </c>
+      <c r="E1510">
+        <v>0</v>
+      </c>
+      <c r="F1510">
+        <v>0</v>
+      </c>
+      <c r="G1510">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1510">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1511" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1511" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1511">
+        <v>8156.16</v>
+      </c>
+      <c r="E1511">
+        <v>284.74</v>
+      </c>
+      <c r="F1511">
+        <v>7871.42</v>
+      </c>
+      <c r="G1511">
+        <v>3145268.61</v>
+      </c>
+      <c r="H1511">
+        <v>3153140.03</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1512" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1512" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1512">
+        <v>581195.92000000004</v>
+      </c>
+      <c r="E1512">
+        <v>0</v>
+      </c>
+      <c r="F1512">
+        <v>581195.92000000004</v>
+      </c>
+      <c r="G1512">
+        <v>0</v>
+      </c>
+      <c r="H1512">
+        <v>581195.92000000004</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1513" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1513" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1513">
+        <v>0</v>
+      </c>
+      <c r="E1513">
+        <v>0</v>
+      </c>
+      <c r="F1513">
+        <v>0</v>
+      </c>
+      <c r="G1513">
+        <v>20312813.239999998</v>
+      </c>
+      <c r="H1513">
+        <v>20312813.239999998</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1514" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1514" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1514">
+        <v>0</v>
+      </c>
+      <c r="E1514">
+        <v>0</v>
+      </c>
+      <c r="F1514">
+        <v>0</v>
+      </c>
+      <c r="G1514">
+        <v>416198.34</v>
+      </c>
+      <c r="H1514">
+        <v>416198.34</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1515" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1515" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1515">
+        <v>0</v>
+      </c>
+      <c r="E1515">
+        <v>0</v>
+      </c>
+      <c r="F1515">
+        <v>0</v>
+      </c>
+      <c r="G1515">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1515">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1516" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1516" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1516">
+        <v>109795.32</v>
+      </c>
+      <c r="E1516">
+        <v>195734.12</v>
+      </c>
+      <c r="F1516">
+        <v>-85938.799999999988</v>
+      </c>
+      <c r="G1516">
+        <v>1456519.26</v>
+      </c>
+      <c r="H1516">
+        <v>1370580.46</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1517" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1517" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1517">
+        <v>0</v>
+      </c>
+      <c r="E1517">
+        <v>2838.98</v>
+      </c>
+      <c r="F1517">
+        <v>-2838.98</v>
+      </c>
+      <c r="G1517">
+        <v>52939.25</v>
+      </c>
+      <c r="H1517">
+        <v>50100.27</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1518" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1518" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1518">
+        <v>0</v>
+      </c>
+      <c r="E1518">
+        <v>0</v>
+      </c>
+      <c r="F1518">
+        <v>0</v>
+      </c>
+      <c r="G1518">
+        <v>57580204.990000002</v>
+      </c>
+      <c r="H1518">
+        <v>57580204.990000002</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1519" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1519" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1519">
+        <v>0</v>
+      </c>
+      <c r="E1519">
+        <v>0</v>
+      </c>
+      <c r="F1519">
+        <v>0</v>
+      </c>
+      <c r="G1519">
+        <v>367835.82</v>
+      </c>
+      <c r="H1519">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1520" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1520" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1520">
+        <v>0</v>
+      </c>
+      <c r="E1520">
+        <v>0</v>
+      </c>
+      <c r="F1520">
+        <v>0</v>
+      </c>
+      <c r="G1520">
+        <v>1146825.3</v>
+      </c>
+      <c r="H1520">
+        <v>1146825.3</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1521" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1521" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1521">
+        <v>5009.09</v>
+      </c>
+      <c r="E1521">
+        <v>0</v>
+      </c>
+      <c r="F1521">
+        <v>5009.09</v>
+      </c>
+      <c r="G1521">
+        <v>104762.69</v>
+      </c>
+      <c r="H1521">
+        <v>109771.78</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1522" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1522" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1522">
+        <v>0</v>
+      </c>
+      <c r="E1522">
+        <v>0</v>
+      </c>
+      <c r="F1522">
+        <v>0</v>
+      </c>
+      <c r="G1522">
+        <v>3632597.4</v>
+      </c>
+      <c r="H1522">
+        <v>3632597.4</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1523" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1523">
+        <v>0</v>
+      </c>
+      <c r="E1523">
+        <v>0</v>
+      </c>
+      <c r="F1523">
+        <v>0</v>
+      </c>
+      <c r="G1523">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1523">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1524" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1524">
+        <v>25498.13</v>
+      </c>
+      <c r="E1524">
+        <v>992226.68</v>
+      </c>
+      <c r="F1524">
+        <v>-966728.55</v>
+      </c>
+      <c r="G1524">
+        <v>67811.87</v>
+      </c>
+      <c r="H1524">
+        <v>-898916.68</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1525" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1525">
+        <v>13003.7</v>
+      </c>
+      <c r="E1525">
+        <v>0</v>
+      </c>
+      <c r="F1525">
+        <v>13003.7</v>
+      </c>
+      <c r="G1525">
+        <v>0</v>
+      </c>
+      <c r="H1525">
+        <v>13003.7</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1526" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1526">
+        <v>0</v>
+      </c>
+      <c r="E1526">
+        <v>0</v>
+      </c>
+      <c r="F1526">
+        <v>0</v>
+      </c>
+      <c r="G1526">
+        <v>24868729.620000001</v>
+      </c>
+      <c r="H1526">
+        <v>24868729.620000001</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1527" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1527">
+        <v>0</v>
+      </c>
+      <c r="E1527">
+        <v>0</v>
+      </c>
+      <c r="F1527">
+        <v>0</v>
+      </c>
+      <c r="G1527">
+        <v>27176.69</v>
+      </c>
+      <c r="H1527">
+        <v>27176.69</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1528" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1528">
+        <v>0</v>
+      </c>
+      <c r="E1528">
+        <v>0</v>
+      </c>
+      <c r="F1528">
+        <v>0</v>
+      </c>
+      <c r="G1528">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1528">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1529" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1529">
+        <v>162947.64000000001</v>
+      </c>
+      <c r="E1529">
+        <v>672082.12</v>
+      </c>
+      <c r="F1529">
+        <v>-509134.48</v>
+      </c>
+      <c r="G1529">
+        <v>2976973.29</v>
+      </c>
+      <c r="H1529">
+        <v>2467838.81</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1530" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1530">
+        <v>0</v>
+      </c>
+      <c r="E1530">
+        <v>14095.97</v>
+      </c>
+      <c r="F1530">
+        <v>-14095.97</v>
+      </c>
+      <c r="G1530">
+        <v>50100.27</v>
+      </c>
+      <c r="H1530">
+        <v>36004.299999999996</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1531" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1531">
+        <v>0</v>
+      </c>
+      <c r="E1531">
+        <v>0</v>
+      </c>
+      <c r="F1531">
+        <v>0</v>
+      </c>
+      <c r="G1531">
+        <v>57610070.549999997</v>
+      </c>
+      <c r="H1531">
+        <v>57610070.549999997</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1532" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1532">
+        <v>0</v>
+      </c>
+      <c r="E1532">
+        <v>0</v>
+      </c>
+      <c r="F1532">
+        <v>0</v>
+      </c>
+      <c r="G1532">
+        <v>367835.82</v>
+      </c>
+      <c r="H1532">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1533" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1533">
+        <v>0</v>
+      </c>
+      <c r="E1533">
+        <v>0</v>
+      </c>
+      <c r="F1533">
+        <v>0</v>
+      </c>
+      <c r="G1533">
+        <v>1147442.8899999999</v>
+      </c>
+      <c r="H1533">
+        <v>1147442.8899999999</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1534" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1534">
+        <v>5011.5200000000004</v>
+      </c>
+      <c r="E1534">
+        <v>167298.4</v>
+      </c>
+      <c r="F1534">
+        <v>-162286.88</v>
+      </c>
+      <c r="G1534">
+        <v>16272.86</v>
+      </c>
+      <c r="H1534">
+        <v>-146014.02000000002</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1535" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1535">
+        <v>0</v>
+      </c>
+      <c r="E1535">
+        <v>0</v>
+      </c>
+      <c r="F1535">
+        <v>0</v>
+      </c>
+      <c r="G1535">
+        <v>3784488.36</v>
+      </c>
+      <c r="H1535">
+        <v>3784488.36</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1536" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1536">
+        <v>0</v>
+      </c>
+      <c r="E1536">
+        <v>0</v>
+      </c>
+      <c r="F1536">
+        <v>0</v>
+      </c>
+      <c r="G1536">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1536">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1537" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1537">
+        <v>47874.94</v>
+      </c>
+      <c r="E1537">
+        <v>0</v>
+      </c>
+      <c r="F1537">
+        <v>47874.94</v>
+      </c>
+      <c r="G1537">
+        <v>2944680.7</v>
+      </c>
+      <c r="H1537">
+        <v>2992555.64</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1538" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1538">
+        <v>354006.26</v>
+      </c>
+      <c r="E1538">
+        <v>0</v>
+      </c>
+      <c r="F1538">
+        <v>354006.26</v>
+      </c>
+      <c r="G1538">
+        <v>0</v>
+      </c>
+      <c r="H1538">
+        <v>354006.26</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1539" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1539">
+        <v>0</v>
+      </c>
+      <c r="E1539">
+        <v>0</v>
+      </c>
+      <c r="F1539">
+        <v>0</v>
+      </c>
+      <c r="G1539">
+        <v>20897438.010000002</v>
+      </c>
+      <c r="H1539">
+        <v>20897438.010000002</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1540" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1540">
+        <v>0</v>
+      </c>
+      <c r="E1540">
+        <v>0</v>
+      </c>
+      <c r="F1540">
+        <v>0</v>
+      </c>
+      <c r="G1540">
+        <v>130510.51</v>
+      </c>
+      <c r="H1540">
+        <v>130510.51</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1541" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1541">
+        <v>0</v>
+      </c>
+      <c r="E1541">
+        <v>0</v>
+      </c>
+      <c r="F1541">
+        <v>0</v>
+      </c>
+      <c r="G1541">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1541">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1542" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1542">
+        <v>122875.55</v>
+      </c>
+      <c r="E1542">
+        <v>7875.72</v>
+      </c>
+      <c r="F1542">
+        <v>114999.83</v>
+      </c>
+      <c r="G1542">
+        <v>1863828.55</v>
+      </c>
+      <c r="H1542">
+        <v>1978828.3800000001</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1543" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1543">
+        <v>0</v>
+      </c>
+      <c r="E1543">
+        <v>0</v>
+      </c>
+      <c r="F1543">
+        <v>0</v>
+      </c>
+      <c r="G1543">
+        <v>35904.300000000003</v>
+      </c>
+      <c r="H1543">
+        <v>35904.300000000003</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1544" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1544">
+        <v>0</v>
+      </c>
+      <c r="E1544">
+        <v>0</v>
+      </c>
+      <c r="F1544">
+        <v>0</v>
+      </c>
+      <c r="G1544">
+        <v>42763186.259999998</v>
+      </c>
+      <c r="H1544">
+        <v>42763186.259999998</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1545" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1545">
+        <v>0</v>
+      </c>
+      <c r="E1545">
+        <v>0</v>
+      </c>
+      <c r="F1545">
+        <v>0</v>
+      </c>
+      <c r="G1545">
+        <v>367835.82</v>
+      </c>
+      <c r="H1545">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1546" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1546">
+        <v>0</v>
+      </c>
+      <c r="E1546">
+        <v>0</v>
+      </c>
+      <c r="F1546">
+        <v>0</v>
+      </c>
+      <c r="G1546">
+        <v>1149327.1499999999</v>
+      </c>
+      <c r="H1546">
+        <v>1149327.1499999999</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1547" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1547" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1547">
+        <v>177461.99</v>
+      </c>
+      <c r="E1547">
+        <v>0</v>
+      </c>
+      <c r="F1547">
+        <v>177461.99</v>
+      </c>
+      <c r="G1547">
+        <v>11483.27</v>
+      </c>
+      <c r="H1547">
+        <v>188945.25999999998</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1548" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1548">
+        <v>0</v>
+      </c>
+      <c r="E1548">
+        <v>0</v>
+      </c>
+      <c r="F1548">
+        <v>0</v>
+      </c>
+      <c r="G1548">
+        <v>3673545.67</v>
+      </c>
+      <c r="H1548">
+        <v>3673545.67</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1549" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1549">
+        <v>0</v>
+      </c>
+      <c r="E1549">
+        <v>0</v>
+      </c>
+      <c r="F1549">
+        <v>0</v>
+      </c>
+      <c r="G1549">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1549">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1550" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1550">
+        <v>42248.51</v>
+      </c>
+      <c r="E1550">
+        <v>139.91</v>
+      </c>
+      <c r="F1550">
+        <v>42108.6</v>
+      </c>
+      <c r="G1550">
+        <v>817993.85</v>
+      </c>
+      <c r="H1550">
+        <v>860102.45</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1551" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1551">
+        <v>181747.29</v>
+      </c>
+      <c r="E1551">
+        <v>0</v>
+      </c>
+      <c r="F1551">
+        <v>181747.29</v>
+      </c>
+      <c r="G1551">
+        <v>0</v>
+      </c>
+      <c r="H1551">
+        <v>181747.29</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1552" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1552">
+        <v>0</v>
+      </c>
+      <c r="E1552">
+        <v>0</v>
+      </c>
+      <c r="F1552">
+        <v>0</v>
+      </c>
+      <c r="G1552">
+        <v>23273887.09</v>
+      </c>
+      <c r="H1552">
+        <v>23273887.09</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1553" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1553">
+        <v>0</v>
+      </c>
+      <c r="E1553">
+        <v>0</v>
+      </c>
+      <c r="F1553">
+        <v>0</v>
+      </c>
+      <c r="G1553">
+        <v>527639.41</v>
+      </c>
+      <c r="H1553">
+        <v>527639.41</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1554" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1554">
+        <v>0</v>
+      </c>
+      <c r="E1554">
+        <v>0</v>
+      </c>
+      <c r="F1554">
+        <v>0</v>
+      </c>
+      <c r="G1554">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1554">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1555" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1555">
+        <v>35337.9</v>
+      </c>
+      <c r="E1555">
+        <v>7913.29</v>
+      </c>
+      <c r="F1555">
+        <v>27424.61</v>
+      </c>
+      <c r="G1555">
+        <v>887465.72</v>
+      </c>
+      <c r="H1555">
+        <v>914890.33</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1556" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1556">
+        <v>0</v>
+      </c>
+      <c r="E1556">
+        <v>0</v>
+      </c>
+      <c r="F1556">
+        <v>0</v>
+      </c>
+      <c r="G1556">
+        <v>11269.09</v>
+      </c>
+      <c r="H1556">
+        <v>11269.09</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1557" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1557">
+        <v>0</v>
+      </c>
+      <c r="E1557">
+        <v>0</v>
+      </c>
+      <c r="F1557">
+        <v>0</v>
+      </c>
+      <c r="G1557">
+        <v>44574800.289999999</v>
+      </c>
+      <c r="H1557">
+        <v>44574800.289999999</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1558" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1558">
+        <v>0</v>
+      </c>
+      <c r="E1558">
+        <v>0</v>
+      </c>
+      <c r="F1558">
+        <v>0</v>
+      </c>
+      <c r="G1558">
+        <v>367835.82</v>
+      </c>
+      <c r="H1558">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1559" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1559">
+        <v>0</v>
+      </c>
+      <c r="E1559">
+        <v>0</v>
+      </c>
+      <c r="F1559">
+        <v>0</v>
+      </c>
+      <c r="G1559">
+        <v>1150010.02</v>
+      </c>
+      <c r="H1559">
+        <v>1150010.02</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1560" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1560">
+        <v>10018.030000000001</v>
+      </c>
+      <c r="E1560">
+        <v>169293.16</v>
+      </c>
+      <c r="F1560">
+        <v>-159275.13</v>
+      </c>
+      <c r="G1560">
+        <v>56548.98</v>
+      </c>
+      <c r="H1560">
+        <v>-102726.15</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1561" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1561">
+        <v>0</v>
+      </c>
+      <c r="E1561">
+        <v>0</v>
+      </c>
+      <c r="F1561">
+        <v>0</v>
+      </c>
+      <c r="G1561">
+        <v>3972954.24</v>
+      </c>
+      <c r="H1561">
+        <v>3972954.24</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1562" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1562">
+        <v>0</v>
+      </c>
+      <c r="E1562">
+        <v>0</v>
+      </c>
+      <c r="F1562">
+        <v>0</v>
+      </c>
+      <c r="G1562">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1562">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1563" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1563">
+        <v>97773.95</v>
+      </c>
+      <c r="E1563">
+        <v>3234203.07</v>
+      </c>
+      <c r="F1563">
+        <v>-3136429.1199999996</v>
+      </c>
+      <c r="G1563">
+        <v>3136774.35</v>
+      </c>
+      <c r="H1563">
+        <v>345.23000000044703</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1564" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1564">
+        <v>760810.28</v>
+      </c>
+      <c r="E1564">
+        <v>0</v>
+      </c>
+      <c r="F1564">
+        <v>760810.28</v>
+      </c>
+      <c r="G1564">
+        <v>0</v>
+      </c>
+      <c r="H1564">
+        <v>760810.28</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1565" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1565">
+        <v>0</v>
+      </c>
+      <c r="E1565">
+        <v>0</v>
+      </c>
+      <c r="F1565">
+        <v>0</v>
+      </c>
+      <c r="G1565">
+        <v>23102617.789999999</v>
+      </c>
+      <c r="H1565">
+        <v>23102617.789999999</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1566" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1566">
+        <v>0</v>
+      </c>
+      <c r="E1566">
+        <v>0</v>
+      </c>
+      <c r="F1566">
+        <v>0</v>
+      </c>
+      <c r="G1566">
+        <v>1400389.89</v>
+      </c>
+      <c r="H1566">
+        <v>1400389.89</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1567" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1567">
+        <v>0</v>
+      </c>
+      <c r="E1567">
+        <v>0</v>
+      </c>
+      <c r="F1567">
+        <v>0</v>
+      </c>
+      <c r="G1567">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1567">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1568" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1568">
+        <v>754901.77</v>
+      </c>
+      <c r="E1568">
+        <v>305865.78999999998</v>
+      </c>
+      <c r="F1568">
+        <v>449035.98000000004</v>
+      </c>
+      <c r="G1568">
+        <v>539126.56999999995</v>
+      </c>
+      <c r="H1568">
+        <v>988162.55</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1569" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1569">
+        <v>0</v>
+      </c>
+      <c r="E1569">
+        <v>5201088.9400000004</v>
+      </c>
+      <c r="F1569">
+        <v>-5201088.9400000004</v>
+      </c>
+      <c r="G1569">
+        <v>3014141.8</v>
+      </c>
+      <c r="H1569">
+        <v>-2186947.1400000006</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1570" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1570">
+        <v>0</v>
+      </c>
+      <c r="E1570">
+        <v>0</v>
+      </c>
+      <c r="F1570">
+        <v>0</v>
+      </c>
+      <c r="G1570">
+        <v>42830321.890000001</v>
+      </c>
+      <c r="H1570">
+        <v>42830321.890000001</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1571" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1571">
+        <v>0</v>
+      </c>
+      <c r="E1571">
+        <v>0</v>
+      </c>
+      <c r="F1571">
+        <v>0</v>
+      </c>
+      <c r="G1571">
+        <v>367835.82</v>
+      </c>
+      <c r="H1571">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1572" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1572">
+        <v>0</v>
+      </c>
+      <c r="E1572">
+        <v>0</v>
+      </c>
+      <c r="F1572">
+        <v>0</v>
+      </c>
+      <c r="G1572">
+        <v>1151316.33</v>
+      </c>
+      <c r="H1572">
+        <v>1151316.33</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1573" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1573">
+        <v>31445.27</v>
+      </c>
+      <c r="E1573">
+        <v>273076.94</v>
+      </c>
+      <c r="F1573">
+        <v>-241631.67</v>
+      </c>
+      <c r="G1573">
+        <v>279005.25</v>
+      </c>
+      <c r="H1573">
+        <v>37373.579999999987</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1574" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1574">
+        <v>0</v>
+      </c>
+      <c r="E1574">
+        <v>0</v>
+      </c>
+      <c r="F1574">
+        <v>0</v>
+      </c>
+      <c r="G1574">
+        <v>3447140.24</v>
+      </c>
+      <c r="H1574">
+        <v>3447140.24</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1575" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1575">
+        <v>0</v>
+      </c>
+      <c r="E1575">
+        <v>0</v>
+      </c>
+      <c r="F1575">
+        <v>0</v>
+      </c>
+      <c r="G1575">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1575">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1576" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1576">
+        <v>11214.75</v>
+      </c>
+      <c r="E1576">
+        <v>3939502.65</v>
+      </c>
+      <c r="F1576">
+        <v>-3928287.9</v>
+      </c>
+      <c r="G1576">
+        <v>128299.39</v>
+      </c>
+      <c r="H1576">
+        <v>-3799988.51</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1577" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1577">
+        <v>1571351.14</v>
+      </c>
+      <c r="E1577">
+        <v>0</v>
+      </c>
+      <c r="F1577">
+        <v>1571351.14</v>
+      </c>
+      <c r="G1577">
+        <v>0</v>
+      </c>
+      <c r="H1577">
+        <v>1571351.14</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1578" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1578">
+        <v>0</v>
+      </c>
+      <c r="E1578">
+        <v>0</v>
+      </c>
+      <c r="F1578">
+        <v>0</v>
+      </c>
+      <c r="G1578">
+        <v>25594781.489999998</v>
+      </c>
+      <c r="H1578">
+        <v>25594781.489999998</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1579" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1579">
+        <v>0</v>
+      </c>
+      <c r="E1579">
+        <v>0</v>
+      </c>
+      <c r="F1579">
+        <v>0</v>
+      </c>
+      <c r="G1579">
+        <v>15297.95</v>
+      </c>
+      <c r="H1579">
+        <v>15297.95</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1580" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1580">
+        <v>0</v>
+      </c>
+      <c r="E1580">
+        <v>0</v>
+      </c>
+      <c r="F1580">
+        <v>0</v>
+      </c>
+      <c r="G1580">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1580">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1581" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1581">
+        <v>127835.03</v>
+      </c>
+      <c r="E1581">
+        <v>4034529.78</v>
+      </c>
+      <c r="F1581">
+        <v>-3906694.75</v>
+      </c>
+      <c r="G1581">
+        <v>381918.27</v>
+      </c>
+      <c r="H1581">
+        <v>-3524776.48</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1582" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1582">
+        <v>0</v>
+      </c>
+      <c r="E1582">
+        <v>13735.72</v>
+      </c>
+      <c r="F1582">
+        <v>-13735.72</v>
+      </c>
+      <c r="G1582">
+        <v>33052.86</v>
+      </c>
+      <c r="H1582">
+        <v>19317.14</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1583" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1583">
+        <v>0</v>
+      </c>
+      <c r="E1583">
+        <v>0</v>
+      </c>
+      <c r="F1583">
+        <v>0</v>
+      </c>
+      <c r="G1583">
+        <v>42856974.719999999</v>
+      </c>
+      <c r="H1583">
+        <v>42856974.719999999</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1584" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1584">
+        <v>0</v>
+      </c>
+      <c r="E1584">
+        <v>0</v>
+      </c>
+      <c r="F1584">
+        <v>0</v>
+      </c>
+      <c r="G1584">
+        <v>367835.82</v>
+      </c>
+      <c r="H1584">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1585" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1585">
+        <v>0</v>
+      </c>
+      <c r="E1585">
+        <v>0</v>
+      </c>
+      <c r="F1585">
+        <v>0</v>
+      </c>
+      <c r="G1585">
+        <v>1151316.33</v>
+      </c>
+      <c r="H1585">
+        <v>1151316.33</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1586" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1586">
+        <v>4438.6499999999996</v>
+      </c>
+      <c r="E1586">
+        <v>165120.20000000001</v>
+      </c>
+      <c r="F1586">
+        <v>-160681.55000000002</v>
+      </c>
+      <c r="G1586">
+        <v>40014.22</v>
+      </c>
+      <c r="H1586">
+        <v>-120667.33000000002</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1587" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1587">
+        <v>0</v>
+      </c>
+      <c r="E1587">
+        <v>0</v>
+      </c>
+      <c r="F1587">
+        <v>0</v>
+      </c>
+      <c r="G1587">
+        <v>3499194.42</v>
+      </c>
+      <c r="H1587">
+        <v>3499194.42</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1588" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1588">
+        <v>0</v>
+      </c>
+      <c r="E1588">
+        <v>0</v>
+      </c>
+      <c r="F1588">
+        <v>0</v>
+      </c>
+      <c r="G1588">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1588">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1589" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1589">
+        <v>69352.83</v>
+      </c>
+      <c r="E1589">
+        <v>41984.24</v>
+      </c>
+      <c r="F1589">
+        <v>27368.590000000004</v>
+      </c>
+      <c r="G1589">
+        <v>0</v>
+      </c>
+      <c r="H1589">
+        <v>27368.590000000004</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1590" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1590">
+        <v>51702.48</v>
+      </c>
+      <c r="E1590">
+        <v>0</v>
+      </c>
+      <c r="F1590">
+        <v>51702.48</v>
+      </c>
+      <c r="G1590">
+        <v>0</v>
+      </c>
+      <c r="H1590">
+        <v>51702.48</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1591" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1591">
+        <v>0</v>
+      </c>
+      <c r="E1591">
+        <v>0</v>
+      </c>
+      <c r="F1591">
+        <v>0</v>
+      </c>
+      <c r="G1591">
+        <v>23407432.920000002</v>
+      </c>
+      <c r="H1591">
+        <v>23407432.920000002</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1592" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1592">
+        <v>0</v>
+      </c>
+      <c r="E1592">
+        <v>0</v>
+      </c>
+      <c r="F1592">
+        <v>0</v>
+      </c>
+      <c r="G1592">
+        <v>318536.89</v>
+      </c>
+      <c r="H1592">
+        <v>318536.89</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1593" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1593">
+        <v>0</v>
+      </c>
+      <c r="E1593">
+        <v>0</v>
+      </c>
+      <c r="F1593">
+        <v>0</v>
+      </c>
+      <c r="G1593">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1593">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1594" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1594">
+        <v>1430077.62</v>
+      </c>
+      <c r="E1594">
+        <v>273857.5</v>
+      </c>
+      <c r="F1594">
+        <v>1156220.1200000001</v>
+      </c>
+      <c r="G1594">
+        <v>0</v>
+      </c>
+      <c r="H1594">
+        <v>1156220.1200000001</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1595" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1595">
+        <v>0</v>
+      </c>
+      <c r="E1595">
+        <v>0</v>
+      </c>
+      <c r="F1595">
+        <v>0</v>
+      </c>
+      <c r="G1595">
+        <v>19317.14</v>
+      </c>
+      <c r="H1595">
+        <v>19317.14</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1596" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1596">
+        <v>0</v>
+      </c>
+      <c r="E1596">
+        <v>0</v>
+      </c>
+      <c r="F1596">
+        <v>0</v>
+      </c>
+      <c r="G1596">
+        <v>42879543.469999999</v>
+      </c>
+      <c r="H1596">
+        <v>42879543.469999999</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1597" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1597">
+        <v>0</v>
+      </c>
+      <c r="E1597">
+        <v>0</v>
+      </c>
+      <c r="F1597">
+        <v>0</v>
+      </c>
+      <c r="G1597">
+        <v>367835.82</v>
+      </c>
+      <c r="H1597">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1598" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1598">
+        <v>0</v>
+      </c>
+      <c r="E1598">
+        <v>0</v>
+      </c>
+      <c r="F1598">
+        <v>0</v>
+      </c>
+      <c r="G1598">
+        <v>1151977.98</v>
+      </c>
+      <c r="H1598">
+        <v>1151977.98</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1599" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1599">
+        <v>7653.55</v>
+      </c>
+      <c r="E1599">
+        <v>1300</v>
+      </c>
+      <c r="F1599">
+        <v>6353.55</v>
+      </c>
+      <c r="G1599">
+        <v>0</v>
+      </c>
+      <c r="H1599">
+        <v>6353.55</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1600" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1600">
+        <v>0</v>
+      </c>
+      <c r="E1600">
+        <v>0</v>
+      </c>
+      <c r="F1600">
+        <v>0</v>
+      </c>
+      <c r="G1600">
+        <v>3466804.61</v>
+      </c>
+      <c r="H1600">
+        <v>3466804.61</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1601" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1601">
+        <v>0</v>
+      </c>
+      <c r="E1601">
+        <v>0</v>
+      </c>
+      <c r="F1601">
+        <v>0</v>
+      </c>
+      <c r="G1601">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1601">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1602" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1602">
+        <v>10003.56</v>
+      </c>
+      <c r="E1602">
+        <v>0</v>
+      </c>
+      <c r="F1602">
+        <v>10003.56</v>
+      </c>
+      <c r="G1602">
+        <v>63431.97</v>
+      </c>
+      <c r="H1602">
+        <v>73435.53</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1603" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1603">
+        <v>157823.94</v>
+      </c>
+      <c r="E1603">
+        <v>0</v>
+      </c>
+      <c r="F1603">
+        <v>157823.94</v>
+      </c>
+      <c r="G1603">
+        <v>0</v>
+      </c>
+      <c r="H1603">
+        <v>157823.94</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1604" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1604">
+        <v>0</v>
+      </c>
+      <c r="E1604">
+        <v>0</v>
+      </c>
+      <c r="F1604">
+        <v>0</v>
+      </c>
+      <c r="G1604">
+        <v>24200922.920000002</v>
+      </c>
+      <c r="H1604">
+        <v>24200922.920000002</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1605" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1605">
+        <v>0</v>
+      </c>
+      <c r="E1605">
+        <v>0</v>
+      </c>
+      <c r="F1605">
+        <v>0</v>
+      </c>
+      <c r="G1605">
+        <v>172867.86</v>
+      </c>
+      <c r="H1605">
+        <v>172867.86</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1606" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1606">
+        <v>0</v>
+      </c>
+      <c r="E1606">
+        <v>0</v>
+      </c>
+      <c r="F1606">
+        <v>0</v>
+      </c>
+      <c r="G1606">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1606">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1607" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1607">
+        <v>84311.24</v>
+      </c>
+      <c r="E1607">
+        <v>205442.13</v>
+      </c>
+      <c r="F1607">
+        <v>-121130.89</v>
+      </c>
+      <c r="G1607">
+        <v>472463.09</v>
+      </c>
+      <c r="H1607">
+        <v>351332.2</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1608" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1608">
+        <v>0</v>
+      </c>
+      <c r="E1608">
+        <v>1142.3900000000001</v>
+      </c>
+      <c r="F1608">
+        <v>-1142.3900000000001</v>
+      </c>
+      <c r="G1608">
+        <v>19317.14</v>
+      </c>
+      <c r="H1608">
+        <v>18174.75</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1609" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1609">
+        <v>0</v>
+      </c>
+      <c r="E1609">
+        <v>0</v>
+      </c>
+      <c r="F1609">
+        <v>0</v>
+      </c>
+      <c r="G1609">
+        <v>50417256.979999997</v>
+      </c>
+      <c r="H1609">
+        <v>50417256.979999997</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1610" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1610">
+        <v>0</v>
+      </c>
+      <c r="E1610">
+        <v>0</v>
+      </c>
+      <c r="F1610">
+        <v>0</v>
+      </c>
+      <c r="G1610">
+        <v>367835.82</v>
+      </c>
+      <c r="H1610">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1611" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1611">
+        <v>0</v>
+      </c>
+      <c r="E1611">
+        <v>0</v>
+      </c>
+      <c r="F1611">
+        <v>0</v>
+      </c>
+      <c r="G1611">
+        <v>1153361.8700000001</v>
+      </c>
+      <c r="H1611">
+        <v>1153361.8700000001</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1612" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1612">
+        <v>4100.45</v>
+      </c>
+      <c r="E1612">
+        <v>0</v>
+      </c>
+      <c r="F1612">
+        <v>4100.45</v>
+      </c>
+      <c r="G1612">
+        <v>20000</v>
+      </c>
+      <c r="H1612">
+        <v>24100.45</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1613" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1613">
+        <v>0</v>
+      </c>
+      <c r="E1613">
+        <v>0</v>
+      </c>
+      <c r="F1613">
+        <v>0</v>
+      </c>
+      <c r="G1613">
+        <v>3499663.17</v>
+      </c>
+      <c r="H1613">
+        <v>3499663.17</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1614" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1614">
+        <v>0</v>
+      </c>
+      <c r="E1614">
+        <v>0</v>
+      </c>
+      <c r="F1614">
+        <v>0</v>
+      </c>
+      <c r="G1614">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1614">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1615" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1615">
+        <v>10000.61</v>
+      </c>
+      <c r="E1615">
+        <v>370.16</v>
+      </c>
+      <c r="F1615">
+        <v>9630.4500000000007</v>
+      </c>
+      <c r="G1615">
+        <v>117240.49</v>
+      </c>
+      <c r="H1615">
+        <v>126870.94</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1616" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1616">
+        <v>48108.12</v>
+      </c>
+      <c r="E1616">
+        <v>0</v>
+      </c>
+      <c r="F1616">
+        <v>48108.12</v>
+      </c>
+      <c r="G1616">
+        <v>0</v>
+      </c>
+      <c r="H1616">
+        <v>48108.12</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1617" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1617">
+        <v>0</v>
+      </c>
+      <c r="E1617">
+        <v>0</v>
+      </c>
+      <c r="F1617">
+        <v>0</v>
+      </c>
+      <c r="G1617">
+        <v>24770074.359999999</v>
+      </c>
+      <c r="H1617">
+        <v>24770074.359999999</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1618" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1618">
+        <v>0</v>
+      </c>
+      <c r="E1618">
+        <v>0</v>
+      </c>
+      <c r="F1618">
+        <v>0</v>
+      </c>
+      <c r="G1618">
+        <v>727116.26</v>
+      </c>
+      <c r="H1618">
+        <v>727116.26</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1619" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1619">
+        <v>0</v>
+      </c>
+      <c r="E1619">
+        <v>0</v>
+      </c>
+      <c r="F1619">
+        <v>0</v>
+      </c>
+      <c r="G1619">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1619">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1620" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1620">
+        <v>741353.66</v>
+      </c>
+      <c r="E1620">
+        <v>108932.48</v>
+      </c>
+      <c r="F1620">
+        <v>632421.18000000005</v>
+      </c>
+      <c r="G1620">
+        <v>612634.56999999995</v>
+      </c>
+      <c r="H1620">
+        <v>1245055.75</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1621" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1621">
+        <v>0</v>
+      </c>
+      <c r="E1621">
+        <v>0</v>
+      </c>
+      <c r="F1621">
+        <v>0</v>
+      </c>
+      <c r="G1621">
+        <v>18174.75</v>
+      </c>
+      <c r="H1621">
+        <v>18174.75</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1622" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1622">
+        <v>0</v>
+      </c>
+      <c r="E1622">
+        <v>0</v>
+      </c>
+      <c r="F1622">
+        <v>0</v>
+      </c>
+      <c r="G1622">
+        <v>50445612.469999999</v>
+      </c>
+      <c r="H1622">
+        <v>50445612.469999999</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1623" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1623">
+        <v>0</v>
+      </c>
+      <c r="E1623">
+        <v>0</v>
+      </c>
+      <c r="F1623">
+        <v>0</v>
+      </c>
+      <c r="G1623">
+        <v>367835.82</v>
+      </c>
+      <c r="H1623">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1624" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1624">
+        <v>0</v>
+      </c>
+      <c r="E1624">
+        <v>0</v>
+      </c>
+      <c r="F1624">
+        <v>0</v>
+      </c>
+      <c r="G1624">
+        <v>1153880.31</v>
+      </c>
+      <c r="H1624">
+        <v>1153880.31</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1625" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1625">
+        <v>36672.65</v>
+      </c>
+      <c r="E1625">
+        <v>0</v>
+      </c>
+      <c r="F1625">
+        <v>36672.65</v>
+      </c>
+      <c r="G1625">
+        <v>54000.82</v>
+      </c>
+      <c r="H1625">
+        <v>90673.47</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1626" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1626">
+        <v>0</v>
+      </c>
+      <c r="E1626">
+        <v>0</v>
+      </c>
+      <c r="F1626">
+        <v>0</v>
+      </c>
+      <c r="G1626">
+        <v>3501175.91</v>
+      </c>
+      <c r="H1626">
+        <v>3501175.91</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1627" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1627">
+        <v>0</v>
+      </c>
+      <c r="E1627">
+        <v>0</v>
+      </c>
+      <c r="F1627">
+        <v>0</v>
+      </c>
+      <c r="G1627">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1627">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1628" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1628">
+        <v>9635.3700000000008</v>
+      </c>
+      <c r="E1628">
+        <v>2321149.88</v>
+      </c>
+      <c r="F1628">
+        <v>-2311514.5099999998</v>
+      </c>
+      <c r="G1628">
+        <v>164990.93</v>
+      </c>
+      <c r="H1628">
+        <v>-2146523.5799999996</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1629" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1629">
+        <v>221500.36</v>
+      </c>
+      <c r="E1629">
+        <v>0</v>
+      </c>
+      <c r="F1629">
+        <v>221500.36</v>
+      </c>
+      <c r="G1629">
+        <v>0</v>
+      </c>
+      <c r="H1629">
+        <v>221500.36</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1630" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1630">
+        <v>0</v>
+      </c>
+      <c r="E1630">
+        <v>0</v>
+      </c>
+      <c r="F1630">
+        <v>0</v>
+      </c>
+      <c r="G1630">
+        <v>25720082.129999999</v>
+      </c>
+      <c r="H1630">
+        <v>25720082.129999999</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1631" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1631">
+        <v>0</v>
+      </c>
+      <c r="E1631">
+        <v>0</v>
+      </c>
+      <c r="F1631">
+        <v>0</v>
+      </c>
+      <c r="G1631">
+        <v>25197.77</v>
+      </c>
+      <c r="H1631">
+        <v>25197.77</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1632" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1632">
+        <v>0</v>
+      </c>
+      <c r="E1632">
+        <v>0</v>
+      </c>
+      <c r="F1632">
+        <v>0</v>
+      </c>
+      <c r="G1632">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1632">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1633" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1633">
+        <v>69975.03</v>
+      </c>
+      <c r="E1633">
+        <v>4159816.89</v>
+      </c>
+      <c r="F1633">
+        <v>-4089841.8600000003</v>
+      </c>
+      <c r="G1633">
+        <v>1155072.77</v>
+      </c>
+      <c r="H1633">
+        <v>-2934769.0900000003</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1634" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1634">
+        <v>0</v>
+      </c>
+      <c r="E1634">
+        <v>27689.91</v>
+      </c>
+      <c r="F1634">
+        <v>-27689.91</v>
+      </c>
+      <c r="G1634">
+        <v>16833.650000000001</v>
+      </c>
+      <c r="H1634">
+        <v>-10856.259999999998</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1635" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1635">
+        <v>0</v>
+      </c>
+      <c r="E1635">
+        <v>0</v>
+      </c>
+      <c r="F1635">
+        <v>0</v>
+      </c>
+      <c r="G1635">
+        <v>51474942.780000001</v>
+      </c>
+      <c r="H1635">
+        <v>51474942.780000001</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1636" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1636">
+        <v>0</v>
+      </c>
+      <c r="E1636">
+        <v>0</v>
+      </c>
+      <c r="F1636">
+        <v>0</v>
+      </c>
+      <c r="G1636">
+        <v>367835.82</v>
+      </c>
+      <c r="H1636">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1637" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1637">
+        <v>0</v>
+      </c>
+      <c r="E1637">
+        <v>0</v>
+      </c>
+      <c r="F1637">
+        <v>0</v>
+      </c>
+      <c r="G1637">
+        <v>1153880.31</v>
+      </c>
+      <c r="H1637">
+        <v>1153880.31</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1638" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1638">
+        <v>5008.66</v>
+      </c>
+      <c r="E1638">
+        <v>84556.19</v>
+      </c>
+      <c r="F1638">
+        <v>-79547.53</v>
+      </c>
+      <c r="G1638">
+        <v>96076.49</v>
+      </c>
+      <c r="H1638">
+        <v>16528.960000000006</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1639" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1639">
+        <v>0</v>
+      </c>
+      <c r="E1639">
+        <v>0</v>
+      </c>
+      <c r="F1639">
+        <v>0</v>
+      </c>
+      <c r="G1639">
+        <v>3532295.24</v>
+      </c>
+      <c r="H1639">
+        <v>3532295.24</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1640" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1640">
+        <v>0</v>
+      </c>
+      <c r="E1640">
+        <v>0</v>
+      </c>
+      <c r="F1640">
+        <v>0</v>
+      </c>
+      <c r="G1640">
+        <v>986064.78</v>
+      </c>
+      <c r="H1640">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1641" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1641">
+        <v>227919.09</v>
+      </c>
+      <c r="E1641">
+        <v>981903.85</v>
+      </c>
+      <c r="F1641">
+        <v>-753984.76</v>
+      </c>
+      <c r="G1641">
+        <v>0</v>
+      </c>
+      <c r="H1641">
+        <v>-753984.76</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1642" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1642">
+        <v>59562.37</v>
+      </c>
+      <c r="E1642">
+        <v>0</v>
+      </c>
+      <c r="F1642">
+        <v>59562.37</v>
+      </c>
+      <c r="G1642">
+        <v>0</v>
+      </c>
+      <c r="H1642">
+        <v>59562.37</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1643" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1643">
+        <v>0</v>
+      </c>
+      <c r="E1643">
+        <v>0</v>
+      </c>
+      <c r="F1643">
+        <v>0</v>
+      </c>
+      <c r="G1643">
+        <v>24440761.289999999</v>
+      </c>
+      <c r="H1643">
+        <v>24440761.289999999</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1644" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1644">
+        <v>0</v>
+      </c>
+      <c r="E1644">
+        <v>0</v>
+      </c>
+      <c r="F1644">
+        <v>0</v>
+      </c>
+      <c r="G1644">
+        <v>1128778.51</v>
+      </c>
+      <c r="H1644">
+        <v>1128778.51</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1645" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1645">
+        <v>0</v>
+      </c>
+      <c r="E1645">
+        <v>0</v>
+      </c>
+      <c r="F1645">
+        <v>0</v>
+      </c>
+      <c r="G1645">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1645">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1646" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1646">
+        <v>322281.7</v>
+      </c>
+      <c r="E1646">
+        <v>37680.33</v>
+      </c>
+      <c r="F1646">
+        <v>284601.37</v>
+      </c>
+      <c r="G1646">
+        <v>0</v>
+      </c>
+      <c r="H1646">
+        <v>284601.37</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1647" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1647">
+        <v>0</v>
+      </c>
+      <c r="E1647">
+        <v>2019.59</v>
+      </c>
+      <c r="F1647">
+        <v>-2019.59</v>
+      </c>
+      <c r="G1647">
+        <v>89143.74</v>
+      </c>
+      <c r="H1647">
+        <v>87124.150000000009</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1648" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1648">
+        <v>0</v>
+      </c>
+      <c r="E1648">
+        <v>0</v>
+      </c>
+      <c r="F1648">
+        <v>0</v>
+      </c>
+      <c r="G1648">
+        <v>49204302.350000001</v>
+      </c>
+      <c r="H1648">
+        <v>49204302.350000001</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1649" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1649">
+        <v>0</v>
+      </c>
+      <c r="E1649">
+        <v>0</v>
+      </c>
+      <c r="F1649">
+        <v>0</v>
+      </c>
+      <c r="G1649">
+        <v>367835.82</v>
+      </c>
+      <c r="H1649">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1650" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1650">
+        <v>0</v>
+      </c>
+      <c r="E1650">
+        <v>0</v>
+      </c>
+      <c r="F1650">
+        <v>0</v>
+      </c>
+      <c r="G1650">
+        <v>1154959.6200000001</v>
+      </c>
+      <c r="H1650">
+        <v>1154959.6200000001</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1651" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1651">
+        <v>5006.9399999999996</v>
+      </c>
+      <c r="E1651">
+        <v>175026.09</v>
+      </c>
+      <c r="F1651">
+        <v>-170019.15</v>
+      </c>
+      <c r="G1651">
+        <v>57952</v>
+      </c>
+      <c r="H1651">
+        <v>-112067.15</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1652" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1652">
+        <v>0</v>
+      </c>
+      <c r="E1652">
+        <v>0</v>
+      </c>
+      <c r="F1652">
+        <v>0</v>
+      </c>
+      <c r="G1652">
+        <v>3535396.2</v>
+      </c>
+      <c r="H1652">
+        <v>3535396.2</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1653" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1653">
+        <v>0</v>
+      </c>
+      <c r="E1653">
+        <v>0</v>
+      </c>
+      <c r="F1653">
+        <v>0</v>
+      </c>
+      <c r="G1653">
+        <v>986064.78</v>
+      </c>
+      <c r="H1653">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1654" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1654">
+        <v>9997.5</v>
+      </c>
+      <c r="E1654">
+        <v>55269.5</v>
+      </c>
+      <c r="F1654">
+        <v>-45272</v>
+      </c>
+      <c r="G1654">
+        <v>166685.56</v>
+      </c>
+      <c r="H1654">
+        <v>121413.56</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1655" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1655">
+        <v>326956.53000000003</v>
+      </c>
+      <c r="E1655">
+        <v>0</v>
+      </c>
+      <c r="F1655">
+        <v>326956.53000000003</v>
+      </c>
+      <c r="G1655">
+        <v>0</v>
+      </c>
+      <c r="H1655">
+        <v>326956.53000000003</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1656" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1656">
+        <v>0</v>
+      </c>
+      <c r="E1656">
+        <v>0</v>
+      </c>
+      <c r="F1656">
+        <v>0</v>
+      </c>
+      <c r="G1656">
+        <v>25151109.100000001</v>
+      </c>
+      <c r="H1656">
+        <v>25151109.100000001</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1657" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1657">
+        <v>0</v>
+      </c>
+      <c r="E1657">
+        <v>0</v>
+      </c>
+      <c r="F1657">
+        <v>0</v>
+      </c>
+      <c r="G1657">
+        <v>20937.099999999999</v>
+      </c>
+      <c r="H1657">
+        <v>20937.099999999999</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1658" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1658">
+        <v>0</v>
+      </c>
+      <c r="E1658">
+        <v>0</v>
+      </c>
+      <c r="F1658">
+        <v>0</v>
+      </c>
+      <c r="G1658">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1658">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1659" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1659">
+        <v>54573</v>
+      </c>
+      <c r="E1659">
+        <v>6631.74</v>
+      </c>
+      <c r="F1659">
+        <v>47941.26</v>
+      </c>
+      <c r="G1659">
+        <v>273967.64</v>
+      </c>
+      <c r="H1659">
+        <v>321908.90000000002</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1660" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1660">
+        <v>0</v>
+      </c>
+      <c r="E1660">
+        <v>0</v>
+      </c>
+      <c r="F1660">
+        <v>0</v>
+      </c>
+      <c r="G1660">
+        <v>87124.15</v>
+      </c>
+      <c r="H1660">
+        <v>87124.15</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1661" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1661">
+        <v>0</v>
+      </c>
+      <c r="E1661">
+        <v>0</v>
+      </c>
+      <c r="F1661">
+        <v>0</v>
+      </c>
+      <c r="G1661">
+        <v>50638761.039999999</v>
+      </c>
+      <c r="H1661">
+        <v>50638761.039999999</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1662" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1662">
+        <v>0</v>
+      </c>
+      <c r="E1662">
+        <v>0</v>
+      </c>
+      <c r="F1662">
+        <v>0</v>
+      </c>
+      <c r="G1662">
+        <v>367835.82</v>
+      </c>
+      <c r="H1662">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1663" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1663">
+        <v>0</v>
+      </c>
+      <c r="E1663">
+        <v>0</v>
+      </c>
+      <c r="F1663">
+        <v>0</v>
+      </c>
+      <c r="G1663">
+        <v>1155774.7</v>
+      </c>
+      <c r="H1663">
+        <v>1155774.7</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1664" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1664">
+        <v>4746.87</v>
+      </c>
+      <c r="E1664">
+        <v>0</v>
+      </c>
+      <c r="F1664">
+        <v>4746.87</v>
+      </c>
+      <c r="G1664">
+        <v>86984.33</v>
+      </c>
+      <c r="H1664">
+        <v>91731.199999999997</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1665" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1665">
+        <v>0</v>
+      </c>
+      <c r="E1665">
+        <v>0</v>
+      </c>
+      <c r="F1665">
+        <v>0</v>
+      </c>
+      <c r="G1665">
+        <v>3487783.37</v>
+      </c>
+      <c r="H1665">
+        <v>3487783.37</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1666" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1666">
+        <v>0</v>
+      </c>
+      <c r="E1666">
+        <v>0</v>
+      </c>
+      <c r="F1666">
+        <v>0</v>
+      </c>
+      <c r="G1666">
+        <v>986064.78</v>
+      </c>
+      <c r="H1666">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1667" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1667">
+        <v>88064.75</v>
+      </c>
+      <c r="E1667">
+        <v>38656.14</v>
+      </c>
+      <c r="F1667">
+        <v>49408.61</v>
+      </c>
+      <c r="G1667">
+        <v>166685.56</v>
+      </c>
+      <c r="H1667">
+        <v>216094.16999999998</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1668" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1668">
+        <v>165384.32999999999</v>
+      </c>
+      <c r="E1668">
+        <v>0</v>
+      </c>
+      <c r="F1668">
+        <v>165384.32999999999</v>
+      </c>
+      <c r="G1668">
+        <v>0</v>
+      </c>
+      <c r="H1668">
+        <v>165384.32999999999</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1669" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1669">
+        <v>0</v>
+      </c>
+      <c r="E1669">
+        <v>0</v>
+      </c>
+      <c r="F1669">
+        <v>0</v>
+      </c>
+      <c r="G1669">
+        <v>26019854.890000001</v>
+      </c>
+      <c r="H1669">
+        <v>26019854.890000001</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1670" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1670">
+        <v>0</v>
+      </c>
+      <c r="E1670">
+        <v>0</v>
+      </c>
+      <c r="F1670">
+        <v>0</v>
+      </c>
+      <c r="G1670">
+        <v>21772.61</v>
+      </c>
+      <c r="H1670">
+        <v>21772.61</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1671" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1671">
+        <v>0</v>
+      </c>
+      <c r="E1671">
+        <v>0</v>
+      </c>
+      <c r="F1671">
+        <v>0</v>
+      </c>
+      <c r="G1671">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1671">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1672" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1672">
+        <v>819450.58</v>
+      </c>
+      <c r="E1672">
+        <v>0</v>
+      </c>
+      <c r="F1672">
+        <v>819450.58</v>
+      </c>
+      <c r="G1672">
+        <v>273967.64</v>
+      </c>
+      <c r="H1672">
+        <v>1093418.22</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1673" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1673">
+        <v>0</v>
+      </c>
+      <c r="E1673">
+        <v>27335.06</v>
+      </c>
+      <c r="F1673">
+        <v>-27335.06</v>
+      </c>
+      <c r="G1673">
+        <v>87124.15</v>
+      </c>
+      <c r="H1673">
+        <v>59789.09</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1674" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1674">
+        <v>0</v>
+      </c>
+      <c r="E1674">
+        <v>0</v>
+      </c>
+      <c r="F1674">
+        <v>0</v>
+      </c>
+      <c r="G1674">
+        <v>50668476.93</v>
+      </c>
+      <c r="H1674">
+        <v>50668476.93</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1675" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1675">
+        <v>0</v>
+      </c>
+      <c r="E1675">
+        <v>0</v>
+      </c>
+      <c r="F1675">
+        <v>0</v>
+      </c>
+      <c r="G1675">
+        <v>367835.82</v>
+      </c>
+      <c r="H1675">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1676" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1676">
+        <v>0</v>
+      </c>
+      <c r="E1676">
+        <v>0</v>
+      </c>
+      <c r="F1676">
+        <v>0</v>
+      </c>
+      <c r="G1676">
+        <v>1156230.29</v>
+      </c>
+      <c r="H1676">
+        <v>1156230.29</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1677" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1677">
+        <v>10235.09</v>
+      </c>
+      <c r="E1677">
+        <v>0</v>
+      </c>
+      <c r="F1677">
+        <v>10235.09</v>
+      </c>
+      <c r="G1677">
+        <v>87017.78</v>
+      </c>
+      <c r="H1677">
+        <v>97252.87</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1678" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1678">
+        <v>0</v>
+      </c>
+      <c r="E1678">
+        <v>0</v>
+      </c>
+      <c r="F1678">
+        <v>0</v>
+      </c>
+      <c r="G1678">
+        <v>3550197.16</v>
+      </c>
+      <c r="H1678">
+        <v>3550197.16</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1679" s="3"/>
+    </row>
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1680" s="3"/>
+    </row>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1681" s="3"/>
+    </row>
+    <row r="1682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1682" s="3"/>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1683" s="3"/>
+    </row>
+    <row r="1684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1684" s="3"/>
+    </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1685" s="3"/>
+    </row>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1686" s="3"/>
+    </row>
+    <row r="1687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1687" s="3"/>
+    </row>
+    <row r="1688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1688" s="3"/>
+    </row>
+    <row r="1689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1689" s="3"/>
+    </row>
+    <row r="1690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1690" s="3"/>
+    </row>
+    <row r="1691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1691" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AF50B-BB9E-428E-A1D3-72C8B4FE3A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9DE88-CD4F-4F8F-B44B-556D6C8CA2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$L$638</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$L$1691</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1691"/>
+  <dimension ref="A1:L1704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1642" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1647" sqref="F1647"/>
+      <pane ySplit="1" topLeftCell="A1668" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1668" sqref="C1668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42895,7 +42895,7 @@
         <v>16</v>
       </c>
       <c r="B1613" s="1">
-        <v>46030</v>
+        <v>46029</v>
       </c>
       <c r="C1613" t="s">
         <v>12</v>
@@ -44607,45 +44607,683 @@
       </c>
     </row>
     <row r="1679" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1679" s="3"/>
+      <c r="A1679" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1679">
+        <v>0</v>
+      </c>
+      <c r="E1679">
+        <v>0</v>
+      </c>
+      <c r="F1679">
+        <v>0</v>
+      </c>
+      <c r="G1679">
+        <v>986064.78</v>
+      </c>
+      <c r="H1679">
+        <v>986064.78</v>
+      </c>
     </row>
     <row r="1680" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1680" s="3"/>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1681" s="3"/>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1682" s="3"/>
-    </row>
-    <row r="1683" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1683" s="3"/>
-    </row>
-    <row r="1684" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1684" s="3"/>
-    </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1685" s="3"/>
-    </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1686" s="3"/>
-    </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1687" s="3"/>
-    </row>
-    <row r="1688" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1688" s="3"/>
-    </row>
-    <row r="1689" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1689" s="3"/>
-    </row>
-    <row r="1690" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1690" s="3"/>
-    </row>
-    <row r="1691" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1691" s="3"/>
+      <c r="A1680" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1680" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1680">
+        <v>12024.65</v>
+      </c>
+      <c r="E1680">
+        <v>703317.9</v>
+      </c>
+      <c r="F1680">
+        <v>-691293.25</v>
+      </c>
+      <c r="G1680">
+        <v>361478.95</v>
+      </c>
+      <c r="H1680">
+        <v>-329814.3</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1681" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1681" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1681">
+        <v>123214.12</v>
+      </c>
+      <c r="E1681">
+        <v>0</v>
+      </c>
+      <c r="F1681">
+        <v>123214.12</v>
+      </c>
+      <c r="G1681">
+        <v>0</v>
+      </c>
+      <c r="H1681">
+        <v>123214.12</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1682" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1682" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1682">
+        <v>0</v>
+      </c>
+      <c r="E1682">
+        <v>0</v>
+      </c>
+      <c r="F1682">
+        <v>0</v>
+      </c>
+      <c r="G1682">
+        <v>26407046.870000001</v>
+      </c>
+      <c r="H1682">
+        <v>26407046.870000001</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1683" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1683" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1683">
+        <v>0</v>
+      </c>
+      <c r="E1683">
+        <v>0</v>
+      </c>
+      <c r="F1683">
+        <v>0</v>
+      </c>
+      <c r="G1683">
+        <v>39081.78</v>
+      </c>
+      <c r="H1683">
+        <v>39081.78</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1684" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1684" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1684">
+        <v>0</v>
+      </c>
+      <c r="E1684">
+        <v>0</v>
+      </c>
+      <c r="F1684">
+        <v>0</v>
+      </c>
+      <c r="G1684">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1684">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1685" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1685" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1685">
+        <v>36975.699999999997</v>
+      </c>
+      <c r="E1685">
+        <v>1651982.9</v>
+      </c>
+      <c r="F1685">
+        <v>-1615007.2</v>
+      </c>
+      <c r="G1685">
+        <v>390053.52</v>
+      </c>
+      <c r="H1685">
+        <v>-1224953.68</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1686" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1686" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1686">
+        <v>0</v>
+      </c>
+      <c r="E1686">
+        <v>8052.91</v>
+      </c>
+      <c r="F1686">
+        <v>-8052.91</v>
+      </c>
+      <c r="G1686">
+        <v>59789.09</v>
+      </c>
+      <c r="H1686">
+        <v>51736.179999999993</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1687" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1687" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1687">
+        <v>0</v>
+      </c>
+      <c r="E1687">
+        <v>0</v>
+      </c>
+      <c r="F1687">
+        <v>0</v>
+      </c>
+      <c r="G1687">
+        <v>51575007.030000001</v>
+      </c>
+      <c r="H1687">
+        <v>51575007.030000001</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1688" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1688" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1688">
+        <v>0</v>
+      </c>
+      <c r="E1688">
+        <v>0</v>
+      </c>
+      <c r="F1688">
+        <v>0</v>
+      </c>
+      <c r="G1688">
+        <v>367835.82</v>
+      </c>
+      <c r="H1688">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1689" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1689" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1689">
+        <v>0</v>
+      </c>
+      <c r="E1689">
+        <v>0</v>
+      </c>
+      <c r="F1689">
+        <v>0</v>
+      </c>
+      <c r="G1689">
+        <v>1156411.93</v>
+      </c>
+      <c r="H1689">
+        <v>1156411.93</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1690" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1690">
+        <v>5551.24</v>
+      </c>
+      <c r="E1690">
+        <v>106410.11</v>
+      </c>
+      <c r="F1690">
+        <v>-100858.87</v>
+      </c>
+      <c r="G1690">
+        <v>87084.73</v>
+      </c>
+      <c r="H1690">
+        <v>-13774.14</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1691" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1691">
+        <v>0</v>
+      </c>
+      <c r="E1691">
+        <v>0</v>
+      </c>
+      <c r="F1691">
+        <v>0</v>
+      </c>
+      <c r="G1691">
+        <v>3591939.12</v>
+      </c>
+      <c r="H1691">
+        <v>3591939.12</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1692" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1692">
+        <v>0</v>
+      </c>
+      <c r="E1692">
+        <v>0</v>
+      </c>
+      <c r="F1692">
+        <v>0</v>
+      </c>
+      <c r="G1692">
+        <v>986064.78</v>
+      </c>
+      <c r="H1692">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1693" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1693">
+        <v>14664.12</v>
+      </c>
+      <c r="E1693">
+        <v>352969.64</v>
+      </c>
+      <c r="F1693">
+        <v>-338305.52</v>
+      </c>
+      <c r="G1693">
+        <v>108874.4</v>
+      </c>
+      <c r="H1693">
+        <v>-229431.12000000002</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1694" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1694">
+        <v>164.26</v>
+      </c>
+      <c r="E1694">
+        <v>0</v>
+      </c>
+      <c r="F1694">
+        <v>164.26</v>
+      </c>
+      <c r="G1694">
+        <v>0</v>
+      </c>
+      <c r="H1694">
+        <v>164.26</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1695" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1695">
+        <v>0</v>
+      </c>
+      <c r="E1695">
+        <v>0</v>
+      </c>
+      <c r="F1695">
+        <v>0</v>
+      </c>
+      <c r="G1695">
+        <v>26407046.870000001</v>
+      </c>
+      <c r="H1695">
+        <v>26407046.870000001</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1696" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1696">
+        <v>0</v>
+      </c>
+      <c r="E1696">
+        <v>0</v>
+      </c>
+      <c r="F1696">
+        <v>0</v>
+      </c>
+      <c r="G1696">
+        <v>31822.16</v>
+      </c>
+      <c r="H1696">
+        <v>31822.16</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1697" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1697">
+        <v>0</v>
+      </c>
+      <c r="E1697">
+        <v>0</v>
+      </c>
+      <c r="F1697">
+        <v>0</v>
+      </c>
+      <c r="G1697">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1697">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1698" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1698">
+        <v>92221.2</v>
+      </c>
+      <c r="E1698">
+        <v>0</v>
+      </c>
+      <c r="F1698">
+        <v>92221.2</v>
+      </c>
+      <c r="G1698">
+        <v>236832.48</v>
+      </c>
+      <c r="H1698">
+        <v>329053.68</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1699" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1699">
+        <v>0</v>
+      </c>
+      <c r="E1699">
+        <v>12999.51</v>
+      </c>
+      <c r="F1699">
+        <v>-12999.51</v>
+      </c>
+      <c r="G1699">
+        <v>51736.18</v>
+      </c>
+      <c r="H1699">
+        <v>38736.67</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1700" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1700">
+        <v>0</v>
+      </c>
+      <c r="E1700">
+        <v>0</v>
+      </c>
+      <c r="F1700">
+        <v>0</v>
+      </c>
+      <c r="G1700">
+        <v>51304899.509999998</v>
+      </c>
+      <c r="H1700">
+        <v>51304899.509999998</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1701" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1701">
+        <v>0</v>
+      </c>
+      <c r="E1701">
+        <v>0</v>
+      </c>
+      <c r="F1701">
+        <v>0</v>
+      </c>
+      <c r="G1701">
+        <v>367835.82</v>
+      </c>
+      <c r="H1701">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1702" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1702">
+        <v>0</v>
+      </c>
+      <c r="E1702">
+        <v>0</v>
+      </c>
+      <c r="F1702">
+        <v>0</v>
+      </c>
+      <c r="G1702">
+        <v>1158025.28</v>
+      </c>
+      <c r="H1702">
+        <v>1158025.28</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1703" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1703">
+        <v>3854.61</v>
+      </c>
+      <c r="E1703">
+        <v>0</v>
+      </c>
+      <c r="F1703">
+        <v>3854.61</v>
+      </c>
+      <c r="G1703">
+        <v>0</v>
+      </c>
+      <c r="H1703">
+        <v>3854.61</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1704" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1704">
+        <v>0</v>
+      </c>
+      <c r="E1704">
+        <v>0</v>
+      </c>
+      <c r="F1704">
+        <v>0</v>
+      </c>
+      <c r="G1704">
+        <v>3594093.95</v>
+      </c>
+      <c r="H1704">
+        <v>3594093.95</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9DE88-CD4F-4F8F-B44B-556D6C8CA2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D0DCD6-CF83-4591-AC67-BE40EDB2840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1704"/>
+  <dimension ref="A1:L1717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1668" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1668" sqref="C1668"/>
+      <pane ySplit="1" topLeftCell="A1696" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1713" sqref="B1713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45282,6 +45282,344 @@
         <v>3594093.95</v>
       </c>
     </row>
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1705" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1705">
+        <v>0</v>
+      </c>
+      <c r="E1705">
+        <v>0</v>
+      </c>
+      <c r="F1705">
+        <v>0</v>
+      </c>
+      <c r="G1705">
+        <v>986064.78</v>
+      </c>
+      <c r="H1705">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1706" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1706">
+        <v>7529.92</v>
+      </c>
+      <c r="E1706">
+        <v>20033.849999999999</v>
+      </c>
+      <c r="F1706">
+        <v>-12503.929999999998</v>
+      </c>
+      <c r="G1706">
+        <v>0</v>
+      </c>
+      <c r="H1706">
+        <v>-12503.929999999998</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1707" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1707">
+        <v>162000</v>
+      </c>
+      <c r="E1707">
+        <v>0</v>
+      </c>
+      <c r="F1707">
+        <v>162000</v>
+      </c>
+      <c r="G1707">
+        <v>0</v>
+      </c>
+      <c r="H1707">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1708" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1708">
+        <v>0</v>
+      </c>
+      <c r="E1708">
+        <v>0</v>
+      </c>
+      <c r="F1708">
+        <v>0</v>
+      </c>
+      <c r="G1708">
+        <v>26435810.989999998</v>
+      </c>
+      <c r="H1708">
+        <v>26435810.989999998</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1709" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1709">
+        <v>0</v>
+      </c>
+      <c r="E1709">
+        <v>0</v>
+      </c>
+      <c r="F1709">
+        <v>0</v>
+      </c>
+      <c r="G1709">
+        <v>247000</v>
+      </c>
+      <c r="H1709">
+        <v>247000</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1710" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1710">
+        <v>0</v>
+      </c>
+      <c r="E1710">
+        <v>0</v>
+      </c>
+      <c r="F1710">
+        <v>0</v>
+      </c>
+      <c r="G1710">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1710">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1711" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1711">
+        <v>47432.57</v>
+      </c>
+      <c r="E1711">
+        <v>30694.720000000001</v>
+      </c>
+      <c r="F1711">
+        <v>16737.849999999999</v>
+      </c>
+      <c r="G1711">
+        <v>389224.76</v>
+      </c>
+      <c r="H1711">
+        <v>405962.61</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1712" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1712">
+        <v>0</v>
+      </c>
+      <c r="E1712">
+        <v>0</v>
+      </c>
+      <c r="F1712">
+        <v>0</v>
+      </c>
+      <c r="G1712">
+        <v>38736.67</v>
+      </c>
+      <c r="H1712">
+        <v>38736.67</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1713" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1713">
+        <v>0</v>
+      </c>
+      <c r="E1713">
+        <v>0</v>
+      </c>
+      <c r="F1713">
+        <v>0</v>
+      </c>
+      <c r="G1713">
+        <v>52350029.009999998</v>
+      </c>
+      <c r="H1713">
+        <v>52350029.009999998</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1714" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1714">
+        <v>0</v>
+      </c>
+      <c r="E1714">
+        <v>0</v>
+      </c>
+      <c r="F1714">
+        <v>0</v>
+      </c>
+      <c r="G1714">
+        <v>367835.82</v>
+      </c>
+      <c r="H1714">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1715" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1715">
+        <v>0</v>
+      </c>
+      <c r="E1715">
+        <v>0</v>
+      </c>
+      <c r="F1715">
+        <v>0</v>
+      </c>
+      <c r="G1715">
+        <v>1158367.82</v>
+      </c>
+      <c r="H1715">
+        <v>1158367.82</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1716" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1716">
+        <v>15001.72</v>
+      </c>
+      <c r="E1716">
+        <v>112</v>
+      </c>
+      <c r="F1716">
+        <v>14889.72</v>
+      </c>
+      <c r="G1716">
+        <v>13342.36</v>
+      </c>
+      <c r="H1716">
+        <v>28232.080000000002</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1717" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1717">
+        <v>0</v>
+      </c>
+      <c r="E1717">
+        <v>0</v>
+      </c>
+      <c r="F1717">
+        <v>0</v>
+      </c>
+      <c r="G1717">
+        <v>3596186.65</v>
+      </c>
+      <c r="H1717">
+        <v>3596186.65</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D0DCD6-CF83-4591-AC67-BE40EDB2840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F3B8C-6CA3-4D78-B96B-FD694CEDF528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1717"/>
+  <dimension ref="A1:L1730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1713" sqref="B1713"/>
+      <selection pane="bottomLeft" activeCell="C1711" sqref="C1711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45620,6 +45620,344 @@
         <v>3596186.65</v>
       </c>
     </row>
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1718" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1718" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1718">
+        <v>0</v>
+      </c>
+      <c r="E1718">
+        <v>0</v>
+      </c>
+      <c r="F1718">
+        <v>0</v>
+      </c>
+      <c r="G1718">
+        <v>986064.78</v>
+      </c>
+      <c r="H1718">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1719" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1719" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1719">
+        <v>209816.54</v>
+      </c>
+      <c r="E1719">
+        <v>3921200.34</v>
+      </c>
+      <c r="F1719">
+        <v>-3711383.8</v>
+      </c>
+      <c r="G1719">
+        <v>0</v>
+      </c>
+      <c r="H1719">
+        <v>-3711383.8</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1720" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1720" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1720">
+        <v>258949.68</v>
+      </c>
+      <c r="E1720">
+        <v>0</v>
+      </c>
+      <c r="F1720">
+        <v>258949.68</v>
+      </c>
+      <c r="G1720">
+        <v>0</v>
+      </c>
+      <c r="H1720">
+        <v>258949.68</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1721" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1721" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1721">
+        <v>0</v>
+      </c>
+      <c r="E1721">
+        <v>0</v>
+      </c>
+      <c r="F1721">
+        <v>0</v>
+      </c>
+      <c r="G1721">
+        <v>26606389.809999999</v>
+      </c>
+      <c r="H1721">
+        <v>26606389.809999999</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1722" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1722" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1722">
+        <v>0</v>
+      </c>
+      <c r="E1722">
+        <v>0</v>
+      </c>
+      <c r="F1722">
+        <v>0</v>
+      </c>
+      <c r="G1722">
+        <v>496748.25</v>
+      </c>
+      <c r="H1722">
+        <v>496748.25</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1723" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1723" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1723">
+        <v>0</v>
+      </c>
+      <c r="E1723">
+        <v>0</v>
+      </c>
+      <c r="F1723">
+        <v>0</v>
+      </c>
+      <c r="G1723">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1723">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1724" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1724" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1724">
+        <v>451987.16</v>
+      </c>
+      <c r="E1724">
+        <v>7835842.3700000001</v>
+      </c>
+      <c r="F1724">
+        <v>-7383855.21</v>
+      </c>
+      <c r="G1724">
+        <v>389524.2</v>
+      </c>
+      <c r="H1724">
+        <v>-6994331.0099999998</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1725" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1725" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1725">
+        <v>0</v>
+      </c>
+      <c r="E1725">
+        <v>4279.99</v>
+      </c>
+      <c r="F1725">
+        <v>-4279.99</v>
+      </c>
+      <c r="G1725">
+        <v>38736.67</v>
+      </c>
+      <c r="H1725">
+        <v>34456.68</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1726" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1726" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1726">
+        <v>0</v>
+      </c>
+      <c r="E1726">
+        <v>0</v>
+      </c>
+      <c r="F1726">
+        <v>0</v>
+      </c>
+      <c r="G1726">
+        <v>52975388.109999999</v>
+      </c>
+      <c r="H1726">
+        <v>52975388.109999999</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1727" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1727" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1727">
+        <v>0</v>
+      </c>
+      <c r="E1727">
+        <v>0</v>
+      </c>
+      <c r="F1727">
+        <v>0</v>
+      </c>
+      <c r="G1727">
+        <v>367835.82</v>
+      </c>
+      <c r="H1727">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1728" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1728" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1728">
+        <v>0</v>
+      </c>
+      <c r="E1728">
+        <v>0</v>
+      </c>
+      <c r="F1728">
+        <v>0</v>
+      </c>
+      <c r="G1728">
+        <v>1159662.07</v>
+      </c>
+      <c r="H1728">
+        <v>1159662.07</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1729" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1729" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1729">
+        <v>17480.2</v>
+      </c>
+      <c r="E1729">
+        <v>289639.65999999997</v>
+      </c>
+      <c r="F1729">
+        <v>-272159.45999999996</v>
+      </c>
+      <c r="G1729">
+        <v>13352.62</v>
+      </c>
+      <c r="H1729">
+        <v>-258806.83999999997</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1730" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1730" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1730">
+        <v>0</v>
+      </c>
+      <c r="E1730">
+        <v>0</v>
+      </c>
+      <c r="F1730">
+        <v>0</v>
+      </c>
+      <c r="G1730">
+        <v>3668049.28</v>
+      </c>
+      <c r="H1730">
+        <v>3668049.28</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F3B8C-6CA3-4D78-B96B-FD694CEDF528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E65B75-9C94-416E-A7D6-19D2A1A06A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1730"/>
+  <dimension ref="A1:L1743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1711" sqref="C1711"/>
+      <pane ySplit="1" topLeftCell="A1707" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1722" sqref="B1722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45958,6 +45958,344 @@
         <v>3668049.28</v>
       </c>
     </row>
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1731" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1731" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1731">
+        <v>0</v>
+      </c>
+      <c r="E1731">
+        <v>0</v>
+      </c>
+      <c r="F1731">
+        <v>0</v>
+      </c>
+      <c r="G1731">
+        <v>986064.78</v>
+      </c>
+      <c r="H1731">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1732" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1732" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1732">
+        <v>35744.65</v>
+      </c>
+      <c r="E1732">
+        <v>381</v>
+      </c>
+      <c r="F1732">
+        <v>35363.65</v>
+      </c>
+      <c r="G1732">
+        <v>0</v>
+      </c>
+      <c r="H1732">
+        <v>35363.65</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1733" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1733" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1733">
+        <v>179871.78</v>
+      </c>
+      <c r="E1733">
+        <v>0</v>
+      </c>
+      <c r="F1733">
+        <v>179871.78</v>
+      </c>
+      <c r="G1733">
+        <v>0</v>
+      </c>
+      <c r="H1733">
+        <v>179871.78</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1734" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1734" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1734">
+        <v>0</v>
+      </c>
+      <c r="E1734">
+        <v>0</v>
+      </c>
+      <c r="F1734">
+        <v>0</v>
+      </c>
+      <c r="G1734">
+        <v>23175406.899999999</v>
+      </c>
+      <c r="H1734">
+        <v>23175406.899999999</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1735" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1735" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1735">
+        <v>0</v>
+      </c>
+      <c r="E1735">
+        <v>0</v>
+      </c>
+      <c r="F1735">
+        <v>0</v>
+      </c>
+      <c r="G1735">
+        <v>212368.81</v>
+      </c>
+      <c r="H1735">
+        <v>212368.81</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1736" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1736" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1736">
+        <v>0</v>
+      </c>
+      <c r="E1736">
+        <v>0</v>
+      </c>
+      <c r="F1736">
+        <v>0</v>
+      </c>
+      <c r="G1736">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1736">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1737" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1737" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1737">
+        <v>523658.42</v>
+      </c>
+      <c r="E1737">
+        <v>0</v>
+      </c>
+      <c r="F1737">
+        <v>523658.42</v>
+      </c>
+      <c r="G1737">
+        <v>0</v>
+      </c>
+      <c r="H1737">
+        <v>523658.42</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1738" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1738" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1738">
+        <v>0</v>
+      </c>
+      <c r="E1738">
+        <v>32332.01</v>
+      </c>
+      <c r="F1738">
+        <v>-32332.01</v>
+      </c>
+      <c r="G1738">
+        <v>34456.68</v>
+      </c>
+      <c r="H1738">
+        <v>2124.6700000000019</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1739" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1739" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1739">
+        <v>0</v>
+      </c>
+      <c r="E1739">
+        <v>0</v>
+      </c>
+      <c r="F1739">
+        <v>0</v>
+      </c>
+      <c r="G1739">
+        <v>46597997.280000001</v>
+      </c>
+      <c r="H1739">
+        <v>46597997.280000001</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1740" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1740" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1740">
+        <v>0</v>
+      </c>
+      <c r="E1740">
+        <v>0</v>
+      </c>
+      <c r="F1740">
+        <v>0</v>
+      </c>
+      <c r="G1740">
+        <v>367835.82</v>
+      </c>
+      <c r="H1740">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1741" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1741" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1741">
+        <v>0</v>
+      </c>
+      <c r="E1741">
+        <v>0</v>
+      </c>
+      <c r="F1741">
+        <v>0</v>
+      </c>
+      <c r="G1741">
+        <v>1159662.07</v>
+      </c>
+      <c r="H1741">
+        <v>1159662.07</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1742" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1742" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1742">
+        <v>2314.9699999999998</v>
+      </c>
+      <c r="E1742">
+        <v>0</v>
+      </c>
+      <c r="F1742">
+        <v>2314.9699999999998</v>
+      </c>
+      <c r="G1742">
+        <v>0</v>
+      </c>
+      <c r="H1742">
+        <v>2314.9699999999998</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1743" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1743" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1743">
+        <v>0</v>
+      </c>
+      <c r="E1743">
+        <v>0</v>
+      </c>
+      <c r="F1743">
+        <v>0</v>
+      </c>
+      <c r="G1743">
+        <v>3459891.23</v>
+      </c>
+      <c r="H1743">
+        <v>3459891.23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E65B75-9C94-416E-A7D6-19D2A1A06A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A33902B-D14E-4D18-8A35-17AFC7529C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1743"/>
+  <dimension ref="A1:L1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1707" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1722" sqref="B1722"/>
+      <pane ySplit="1" topLeftCell="A1739" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1757" sqref="A1757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46296,6 +46296,682 @@
         <v>3459891.23</v>
       </c>
     </row>
+    <row r="1744" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1744" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1744" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1744">
+        <v>0</v>
+      </c>
+      <c r="E1744">
+        <v>0</v>
+      </c>
+      <c r="F1744">
+        <v>0</v>
+      </c>
+      <c r="G1744">
+        <v>986064.78</v>
+      </c>
+      <c r="H1744">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1745" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1745" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1745">
+        <v>128859.39</v>
+      </c>
+      <c r="E1745">
+        <v>39461.089999999997</v>
+      </c>
+      <c r="F1745">
+        <v>89398.3</v>
+      </c>
+      <c r="G1745">
+        <v>0</v>
+      </c>
+      <c r="H1745">
+        <v>89398.3</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1746" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1746" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1746">
+        <v>171854.73</v>
+      </c>
+      <c r="E1746">
+        <v>0</v>
+      </c>
+      <c r="F1746">
+        <v>171854.73</v>
+      </c>
+      <c r="G1746">
+        <v>0</v>
+      </c>
+      <c r="H1746">
+        <v>171854.73</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1747" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1747" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1747">
+        <v>0</v>
+      </c>
+      <c r="E1747">
+        <v>0</v>
+      </c>
+      <c r="F1747">
+        <v>0</v>
+      </c>
+      <c r="G1747">
+        <v>23363964.300000001</v>
+      </c>
+      <c r="H1747">
+        <v>23363964.300000001</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1748" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1748" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1748">
+        <v>0</v>
+      </c>
+      <c r="E1748">
+        <v>0</v>
+      </c>
+      <c r="F1748">
+        <v>0</v>
+      </c>
+      <c r="G1748">
+        <v>191147.12</v>
+      </c>
+      <c r="H1748">
+        <v>191147.12</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1749" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1749" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1749">
+        <v>0</v>
+      </c>
+      <c r="E1749">
+        <v>0</v>
+      </c>
+      <c r="F1749">
+        <v>0</v>
+      </c>
+      <c r="G1749">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1750" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1750" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1750">
+        <v>209073.65</v>
+      </c>
+      <c r="E1750">
+        <v>90526.59</v>
+      </c>
+      <c r="F1750">
+        <v>118547.06</v>
+      </c>
+      <c r="G1750">
+        <v>0</v>
+      </c>
+      <c r="H1750">
+        <v>118547.06</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1751" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1751" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1751">
+        <v>0</v>
+      </c>
+      <c r="E1751">
+        <v>0</v>
+      </c>
+      <c r="F1751">
+        <v>0</v>
+      </c>
+      <c r="G1751">
+        <v>102124.67</v>
+      </c>
+      <c r="H1751">
+        <v>102124.67</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1752" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1752" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1752">
+        <v>0</v>
+      </c>
+      <c r="E1752">
+        <v>0</v>
+      </c>
+      <c r="F1752">
+        <v>0</v>
+      </c>
+      <c r="G1752">
+        <v>48036396.869999997</v>
+      </c>
+      <c r="H1752">
+        <v>48036396.869999997</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1753" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1753" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1753">
+        <v>0</v>
+      </c>
+      <c r="E1753">
+        <v>0</v>
+      </c>
+      <c r="F1753">
+        <v>0</v>
+      </c>
+      <c r="G1753">
+        <v>367835.82</v>
+      </c>
+      <c r="H1753">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1754" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1754" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1754">
+        <v>0</v>
+      </c>
+      <c r="E1754">
+        <v>0</v>
+      </c>
+      <c r="F1754">
+        <v>0</v>
+      </c>
+      <c r="G1754">
+        <v>1160292.8600000001</v>
+      </c>
+      <c r="H1754">
+        <v>1160292.8600000001</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1755" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1755" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1755">
+        <v>24437.34</v>
+      </c>
+      <c r="E1755">
+        <v>1207.18</v>
+      </c>
+      <c r="F1755">
+        <v>23230.16</v>
+      </c>
+      <c r="G1755">
+        <v>0</v>
+      </c>
+      <c r="H1755">
+        <v>23230.16</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1756" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1756" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1756">
+        <v>0</v>
+      </c>
+      <c r="E1756">
+        <v>0</v>
+      </c>
+      <c r="F1756">
+        <v>0</v>
+      </c>
+      <c r="G1756">
+        <v>3215124.142</v>
+      </c>
+      <c r="H1756">
+        <v>3215124.142</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1757" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1757" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1757">
+        <v>0</v>
+      </c>
+      <c r="E1757">
+        <v>0</v>
+      </c>
+      <c r="F1757">
+        <v>0</v>
+      </c>
+      <c r="G1757">
+        <v>986064.78</v>
+      </c>
+      <c r="H1757">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1758" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1758" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1758">
+        <v>58953.58</v>
+      </c>
+      <c r="E1758">
+        <v>2327285.63</v>
+      </c>
+      <c r="F1758">
+        <v>-2268332.0499999998</v>
+      </c>
+      <c r="G1758">
+        <v>0</v>
+      </c>
+      <c r="H1758">
+        <v>-2268332.0499999998</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1759" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1759" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1759">
+        <v>375108.85</v>
+      </c>
+      <c r="E1759">
+        <v>0</v>
+      </c>
+      <c r="F1759">
+        <v>375108.85</v>
+      </c>
+      <c r="G1759">
+        <v>0</v>
+      </c>
+      <c r="H1759">
+        <v>375108.85</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1760" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1760" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1760">
+        <v>0</v>
+      </c>
+      <c r="E1760">
+        <v>0</v>
+      </c>
+      <c r="F1760">
+        <v>0</v>
+      </c>
+      <c r="G1760">
+        <v>23657899.07</v>
+      </c>
+      <c r="H1760">
+        <v>23657899.07</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1761" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1761" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1761">
+        <v>0</v>
+      </c>
+      <c r="E1761">
+        <v>0</v>
+      </c>
+      <c r="F1761">
+        <v>0</v>
+      </c>
+      <c r="G1761">
+        <v>198543</v>
+      </c>
+      <c r="H1761">
+        <v>198543</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1762" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1762" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1762">
+        <v>0</v>
+      </c>
+      <c r="E1762">
+        <v>0</v>
+      </c>
+      <c r="F1762">
+        <v>0</v>
+      </c>
+      <c r="G1762">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1763" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1763" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1763">
+        <v>94899.02</v>
+      </c>
+      <c r="E1763">
+        <v>1979858.0399999996</v>
+      </c>
+      <c r="F1763">
+        <v>-1884959.0199999996</v>
+      </c>
+      <c r="G1763">
+        <v>0</v>
+      </c>
+      <c r="H1763">
+        <v>-1884959.0199999996</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1764" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1764" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1764">
+        <v>0</v>
+      </c>
+      <c r="E1764">
+        <v>5255.44</v>
+      </c>
+      <c r="F1764">
+        <v>-5255.44</v>
+      </c>
+      <c r="G1764">
+        <v>101109.42</v>
+      </c>
+      <c r="H1764">
+        <v>95853.98</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1765" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1765" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1765">
+        <v>0</v>
+      </c>
+      <c r="E1765">
+        <v>0</v>
+      </c>
+      <c r="F1765">
+        <v>0</v>
+      </c>
+      <c r="G1765">
+        <v>48568132.030000001</v>
+      </c>
+      <c r="H1765">
+        <v>48568132.030000001</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1766" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1766" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1766">
+        <v>0</v>
+      </c>
+      <c r="E1766">
+        <v>0</v>
+      </c>
+      <c r="F1766">
+        <v>0</v>
+      </c>
+      <c r="G1766">
+        <v>367835.82</v>
+      </c>
+      <c r="H1766">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1767" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1767" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1767">
+        <v>0</v>
+      </c>
+      <c r="E1767">
+        <v>0</v>
+      </c>
+      <c r="F1767">
+        <v>0</v>
+      </c>
+      <c r="G1767">
+        <v>1160643.99</v>
+      </c>
+      <c r="H1767">
+        <v>1160643.99</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1768" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1768" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1768">
+        <v>13243.56</v>
+      </c>
+      <c r="E1768">
+        <v>67983.929999999993</v>
+      </c>
+      <c r="F1768">
+        <v>-54740.369999999995</v>
+      </c>
+      <c r="G1768">
+        <v>0</v>
+      </c>
+      <c r="H1768">
+        <v>-54740.369999999995</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1769" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1769" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1769">
+        <v>0</v>
+      </c>
+      <c r="E1769">
+        <v>0</v>
+      </c>
+      <c r="F1769">
+        <v>0</v>
+      </c>
+      <c r="G1769">
+        <v>3496309.14</v>
+      </c>
+      <c r="H1769">
+        <v>3496309.14</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A33902B-D14E-4D18-8A35-17AFC7529C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFC950-842E-4539-9E1F-68E2CCFB0409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1769"/>
+  <dimension ref="A1:L1782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1739" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1757" sqref="A1757"/>
+      <pane ySplit="1" topLeftCell="A1750" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1759" sqref="C1759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46972,6 +46972,344 @@
         <v>3496309.14</v>
       </c>
     </row>
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1770" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1770" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1770">
+        <v>0</v>
+      </c>
+      <c r="E1770">
+        <v>0</v>
+      </c>
+      <c r="F1770">
+        <v>0</v>
+      </c>
+      <c r="G1770">
+        <v>986064.78</v>
+      </c>
+      <c r="H1770">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1771" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1771" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1771">
+        <v>485993.33</v>
+      </c>
+      <c r="E1771">
+        <v>43848.63</v>
+      </c>
+      <c r="F1771">
+        <v>442144.7</v>
+      </c>
+      <c r="G1771">
+        <v>0</v>
+      </c>
+      <c r="H1771">
+        <v>442144.7</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1772" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1772" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1772">
+        <v>126358.29</v>
+      </c>
+      <c r="E1772">
+        <v>0</v>
+      </c>
+      <c r="F1772">
+        <v>126358.29</v>
+      </c>
+      <c r="G1772">
+        <v>0</v>
+      </c>
+      <c r="H1772">
+        <v>126358.29</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1773" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1773" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1773">
+        <v>0</v>
+      </c>
+      <c r="E1773">
+        <v>0</v>
+      </c>
+      <c r="F1773">
+        <v>0</v>
+      </c>
+      <c r="G1773">
+        <v>21430042.850000001</v>
+      </c>
+      <c r="H1773">
+        <v>21430042.850000001</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1774" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1774" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1774">
+        <v>0</v>
+      </c>
+      <c r="E1774">
+        <v>0</v>
+      </c>
+      <c r="F1774">
+        <v>0</v>
+      </c>
+      <c r="G1774">
+        <v>247392.91</v>
+      </c>
+      <c r="H1774">
+        <v>247392.91</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1775" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1775" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1775">
+        <v>0</v>
+      </c>
+      <c r="E1775">
+        <v>0</v>
+      </c>
+      <c r="F1775">
+        <v>0</v>
+      </c>
+      <c r="G1775">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1776" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1776" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1776">
+        <v>304298.94</v>
+      </c>
+      <c r="E1776">
+        <v>750</v>
+      </c>
+      <c r="F1776">
+        <v>303548.94</v>
+      </c>
+      <c r="G1776">
+        <v>0</v>
+      </c>
+      <c r="H1776">
+        <v>303548.94</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1777" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1777" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1777">
+        <v>0</v>
+      </c>
+      <c r="E1777">
+        <v>0</v>
+      </c>
+      <c r="F1777">
+        <v>0</v>
+      </c>
+      <c r="G1777">
+        <v>95853.98</v>
+      </c>
+      <c r="H1777">
+        <v>95853.98</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1778" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1778" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1778">
+        <v>0</v>
+      </c>
+      <c r="E1778">
+        <v>0</v>
+      </c>
+      <c r="F1778">
+        <v>0</v>
+      </c>
+      <c r="G1778">
+        <v>46591675.68</v>
+      </c>
+      <c r="H1778">
+        <v>46591675.68</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1779" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1779" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1779">
+        <v>0</v>
+      </c>
+      <c r="E1779">
+        <v>0</v>
+      </c>
+      <c r="F1779">
+        <v>0</v>
+      </c>
+      <c r="G1779">
+        <v>367835.82</v>
+      </c>
+      <c r="H1779">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1780" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1780" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1780">
+        <v>0</v>
+      </c>
+      <c r="E1780">
+        <v>0</v>
+      </c>
+      <c r="F1780">
+        <v>0</v>
+      </c>
+      <c r="G1780">
+        <v>1161699.77</v>
+      </c>
+      <c r="H1780">
+        <v>1161699.77</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1781" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1781" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1781">
+        <v>4006.03</v>
+      </c>
+      <c r="E1781">
+        <v>0</v>
+      </c>
+      <c r="F1781">
+        <v>4006.03</v>
+      </c>
+      <c r="G1781">
+        <v>0</v>
+      </c>
+      <c r="H1781">
+        <v>4006.03</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1782" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1782" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1782">
+        <v>0</v>
+      </c>
+      <c r="E1782">
+        <v>0</v>
+      </c>
+      <c r="F1782">
+        <v>0</v>
+      </c>
+      <c r="G1782">
+        <v>3467993.49</v>
+      </c>
+      <c r="H1782">
+        <v>3467993.49</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFC950-842E-4539-9E1F-68E2CCFB0409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BAFD32-7945-4098-87C5-D7E42DDB4281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1782"/>
+  <dimension ref="A1:L1795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1750" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1759" sqref="C1759"/>
+      <pane ySplit="1" topLeftCell="A1759" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1766" sqref="B1766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47310,6 +47310,344 @@
         <v>3467993.49</v>
       </c>
     </row>
+    <row r="1783" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1783" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1783" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1783">
+        <v>0</v>
+      </c>
+      <c r="E1783">
+        <v>0</v>
+      </c>
+      <c r="F1783">
+        <v>0</v>
+      </c>
+      <c r="G1783">
+        <v>986064.78</v>
+      </c>
+      <c r="H1783">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1784" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1784" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1784">
+        <v>108782.53</v>
+      </c>
+      <c r="E1784">
+        <v>0</v>
+      </c>
+      <c r="F1784">
+        <v>108782.53</v>
+      </c>
+      <c r="G1784">
+        <v>0</v>
+      </c>
+      <c r="H1784">
+        <v>108782.53</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1785" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1785" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1785">
+        <v>225896.51</v>
+      </c>
+      <c r="E1785">
+        <v>0</v>
+      </c>
+      <c r="F1785">
+        <v>225896.51</v>
+      </c>
+      <c r="G1785">
+        <v>0</v>
+      </c>
+      <c r="H1785">
+        <v>225896.51</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1786" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1786" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1786">
+        <v>0</v>
+      </c>
+      <c r="E1786">
+        <v>0</v>
+      </c>
+      <c r="F1786">
+        <v>0</v>
+      </c>
+      <c r="G1786">
+        <v>22038125.079999998</v>
+      </c>
+      <c r="H1786">
+        <v>22038125.079999998</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1787" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1787" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1787">
+        <v>0</v>
+      </c>
+      <c r="E1787">
+        <v>0</v>
+      </c>
+      <c r="F1787">
+        <v>0</v>
+      </c>
+      <c r="G1787">
+        <v>424215.29</v>
+      </c>
+      <c r="H1787">
+        <v>424215.29</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1788" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1788" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1788">
+        <v>0</v>
+      </c>
+      <c r="E1788">
+        <v>0</v>
+      </c>
+      <c r="F1788">
+        <v>0</v>
+      </c>
+      <c r="G1788">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1789" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1789" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1789">
+        <v>180219.29</v>
+      </c>
+      <c r="E1789">
+        <v>0</v>
+      </c>
+      <c r="F1789">
+        <v>180219.29</v>
+      </c>
+      <c r="G1789">
+        <v>0</v>
+      </c>
+      <c r="H1789">
+        <v>180219.29</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1790" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1790" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1790">
+        <v>0</v>
+      </c>
+      <c r="E1790">
+        <v>0</v>
+      </c>
+      <c r="F1790">
+        <v>0</v>
+      </c>
+      <c r="G1790">
+        <v>95853.98</v>
+      </c>
+      <c r="H1790">
+        <v>95853.98</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1791" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1791" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1791">
+        <v>0</v>
+      </c>
+      <c r="E1791">
+        <v>0</v>
+      </c>
+      <c r="F1791">
+        <v>0</v>
+      </c>
+      <c r="G1791">
+        <v>47619911.039999999</v>
+      </c>
+      <c r="H1791">
+        <v>47619911.039999999</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1792" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1792" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1792">
+        <v>0</v>
+      </c>
+      <c r="E1792">
+        <v>0</v>
+      </c>
+      <c r="F1792">
+        <v>0</v>
+      </c>
+      <c r="G1792">
+        <v>367835.82</v>
+      </c>
+      <c r="H1792">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1793" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1793" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1793">
+        <v>0</v>
+      </c>
+      <c r="E1793">
+        <v>0</v>
+      </c>
+      <c r="F1793">
+        <v>0</v>
+      </c>
+      <c r="G1793">
+        <v>1162681.3600000001</v>
+      </c>
+      <c r="H1793">
+        <v>1162681.3600000001</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1794" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1794" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1794">
+        <v>17750.689999999999</v>
+      </c>
+      <c r="E1794">
+        <v>0</v>
+      </c>
+      <c r="F1794">
+        <v>17750.689999999999</v>
+      </c>
+      <c r="G1794">
+        <v>0</v>
+      </c>
+      <c r="H1794">
+        <v>17750.689999999999</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1795" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1795" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1795">
+        <v>0</v>
+      </c>
+      <c r="E1795">
+        <v>0</v>
+      </c>
+      <c r="F1795">
+        <v>0</v>
+      </c>
+      <c r="G1795">
+        <v>3570021.62</v>
+      </c>
+      <c r="H1795">
+        <v>3570021.62</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BAFD32-7945-4098-87C5-D7E42DDB4281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B28E30-A8A4-401F-B99F-2FB2B6C3E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1795"/>
+  <dimension ref="A1:L1808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1759" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1766" sqref="B1766"/>
+      <pane ySplit="1" topLeftCell="A1781" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1795" sqref="D1795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47648,6 +47648,344 @@
         <v>3570021.62</v>
       </c>
     </row>
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1796" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1796" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1796">
+        <v>0</v>
+      </c>
+      <c r="E1796">
+        <v>0</v>
+      </c>
+      <c r="F1796">
+        <v>0</v>
+      </c>
+      <c r="G1796">
+        <v>986064.78</v>
+      </c>
+      <c r="H1796">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1797" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1797" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1797">
+        <v>192515.53</v>
+      </c>
+      <c r="E1797">
+        <v>157883.97</v>
+      </c>
+      <c r="F1797">
+        <v>34631.56</v>
+      </c>
+      <c r="G1797">
+        <v>0</v>
+      </c>
+      <c r="H1797">
+        <v>34631.56</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1798" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1798" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1798">
+        <v>887910.06</v>
+      </c>
+      <c r="E1798">
+        <v>0</v>
+      </c>
+      <c r="F1798">
+        <v>887910.06</v>
+      </c>
+      <c r="G1798">
+        <v>0</v>
+      </c>
+      <c r="H1798">
+        <v>887910.06</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1799" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1799" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1799">
+        <v>0</v>
+      </c>
+      <c r="E1799">
+        <v>0</v>
+      </c>
+      <c r="F1799">
+        <v>0</v>
+      </c>
+      <c r="G1799">
+        <v>22057024.530000001</v>
+      </c>
+      <c r="H1799">
+        <v>22057024.530000001</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1800" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1800" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1800">
+        <v>0</v>
+      </c>
+      <c r="E1800">
+        <v>0</v>
+      </c>
+      <c r="F1800">
+        <v>0</v>
+      </c>
+      <c r="G1800">
+        <v>371402.18</v>
+      </c>
+      <c r="H1800">
+        <v>371402.18</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1801" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1801" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1801">
+        <v>0</v>
+      </c>
+      <c r="E1801">
+        <v>0</v>
+      </c>
+      <c r="F1801">
+        <v>0</v>
+      </c>
+      <c r="G1801">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1802" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1802" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1802">
+        <v>217824.56</v>
+      </c>
+      <c r="E1802">
+        <v>10894.97</v>
+      </c>
+      <c r="F1802">
+        <v>206929.59</v>
+      </c>
+      <c r="G1802">
+        <v>0</v>
+      </c>
+      <c r="H1802">
+        <v>206929.59</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1803" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1803" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1803">
+        <v>0</v>
+      </c>
+      <c r="E1803">
+        <v>42647.63</v>
+      </c>
+      <c r="F1803">
+        <v>-42647.63</v>
+      </c>
+      <c r="G1803">
+        <v>95853.98</v>
+      </c>
+      <c r="H1803">
+        <v>53206.35</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1804" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1804" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1804">
+        <v>0</v>
+      </c>
+      <c r="E1804">
+        <v>0</v>
+      </c>
+      <c r="F1804">
+        <v>0</v>
+      </c>
+      <c r="G1804">
+        <v>48392385.880000003</v>
+      </c>
+      <c r="H1804">
+        <v>48392385.880000003</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1805" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1805" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1805">
+        <v>0</v>
+      </c>
+      <c r="E1805">
+        <v>0</v>
+      </c>
+      <c r="F1805">
+        <v>0</v>
+      </c>
+      <c r="G1805">
+        <v>367835.82</v>
+      </c>
+      <c r="H1805">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1806" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1806" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1806">
+        <v>0</v>
+      </c>
+      <c r="E1806">
+        <v>0</v>
+      </c>
+      <c r="F1806">
+        <v>0</v>
+      </c>
+      <c r="G1806">
+        <v>1057734.04</v>
+      </c>
+      <c r="H1806">
+        <v>1057734.04</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1807" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1807" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1807">
+        <v>54894.27</v>
+      </c>
+      <c r="E1807">
+        <v>0</v>
+      </c>
+      <c r="F1807">
+        <v>54894.27</v>
+      </c>
+      <c r="G1807">
+        <v>0</v>
+      </c>
+      <c r="H1807">
+        <v>54894.27</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1808" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1808" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1808">
+        <v>0</v>
+      </c>
+      <c r="E1808">
+        <v>0</v>
+      </c>
+      <c r="F1808">
+        <v>0</v>
+      </c>
+      <c r="G1808">
+        <v>3572431.08</v>
+      </c>
+      <c r="H1808">
+        <v>3572431.08</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B28E30-A8A4-401F-B99F-2FB2B6C3E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9478702-971E-40F1-B562-45F3AD4A2604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1808"/>
+  <dimension ref="A1:L1821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1781" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1795" sqref="D1795"/>
+      <pane ySplit="1" topLeftCell="A1802" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1827" sqref="C1827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47986,6 +47986,344 @@
         <v>3572431.08</v>
       </c>
     </row>
+    <row r="1809" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1809" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1809" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1809">
+        <v>0</v>
+      </c>
+      <c r="E1809">
+        <v>0</v>
+      </c>
+      <c r="F1809">
+        <v>0</v>
+      </c>
+      <c r="G1809">
+        <v>986064.78</v>
+      </c>
+      <c r="H1809">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1810" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1810" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1810">
+        <v>128116.85</v>
+      </c>
+      <c r="E1810">
+        <v>0</v>
+      </c>
+      <c r="F1810">
+        <v>128116.85</v>
+      </c>
+      <c r="G1810">
+        <v>0</v>
+      </c>
+      <c r="H1810">
+        <v>128116.85</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1811" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1811" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1811">
+        <v>1157331.2</v>
+      </c>
+      <c r="E1811">
+        <v>0</v>
+      </c>
+      <c r="F1811">
+        <v>1157331.2</v>
+      </c>
+      <c r="G1811">
+        <v>0</v>
+      </c>
+      <c r="H1811">
+        <v>1157331.2</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1812" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1812" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1812">
+        <v>0</v>
+      </c>
+      <c r="E1812">
+        <v>0</v>
+      </c>
+      <c r="F1812">
+        <v>0</v>
+      </c>
+      <c r="G1812">
+        <v>22367991.579999998</v>
+      </c>
+      <c r="H1812">
+        <v>22367991.579999998</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1813" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1813" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1813">
+        <v>0</v>
+      </c>
+      <c r="E1813">
+        <v>0</v>
+      </c>
+      <c r="F1813">
+        <v>0</v>
+      </c>
+      <c r="G1813">
+        <v>43005.7</v>
+      </c>
+      <c r="H1813">
+        <v>43005.7</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1814" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1814" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1814">
+        <v>0</v>
+      </c>
+      <c r="E1814">
+        <v>0</v>
+      </c>
+      <c r="F1814">
+        <v>0</v>
+      </c>
+      <c r="G1814">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1815" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1815" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1815">
+        <v>226824.1</v>
+      </c>
+      <c r="E1815">
+        <v>11747.02</v>
+      </c>
+      <c r="F1815">
+        <v>215077.08000000002</v>
+      </c>
+      <c r="G1815">
+        <v>0</v>
+      </c>
+      <c r="H1815">
+        <v>215077.08000000002</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1816" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1816" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1816">
+        <v>0</v>
+      </c>
+      <c r="E1816">
+        <v>7990.18</v>
+      </c>
+      <c r="F1816">
+        <v>-7990.18</v>
+      </c>
+      <c r="G1816">
+        <v>53206.35</v>
+      </c>
+      <c r="H1816">
+        <v>45216.17</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1817" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1817" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1817">
+        <v>0</v>
+      </c>
+      <c r="E1817">
+        <v>0</v>
+      </c>
+      <c r="F1817">
+        <v>0</v>
+      </c>
+      <c r="G1817">
+        <v>49111757.079999998</v>
+      </c>
+      <c r="H1817">
+        <v>49111757.079999998</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1818" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1818" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1818">
+        <v>0</v>
+      </c>
+      <c r="E1818">
+        <v>0</v>
+      </c>
+      <c r="F1818">
+        <v>0</v>
+      </c>
+      <c r="G1818">
+        <v>367835.82</v>
+      </c>
+      <c r="H1818">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1819" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1819" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1819">
+        <v>0</v>
+      </c>
+      <c r="E1819">
+        <v>0</v>
+      </c>
+      <c r="F1819">
+        <v>0</v>
+      </c>
+      <c r="G1819">
+        <v>1057972.3899999999</v>
+      </c>
+      <c r="H1819">
+        <v>1057972.3899999999</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1820" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1820" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1820">
+        <v>16856.689999999999</v>
+      </c>
+      <c r="E1820">
+        <v>0</v>
+      </c>
+      <c r="F1820">
+        <v>16856.689999999999</v>
+      </c>
+      <c r="G1820">
+        <v>0</v>
+      </c>
+      <c r="H1820">
+        <v>16856.689999999999</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1821" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1821" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1821">
+        <v>0</v>
+      </c>
+      <c r="E1821">
+        <v>0</v>
+      </c>
+      <c r="F1821">
+        <v>0</v>
+      </c>
+      <c r="G1821">
+        <v>3674648.68</v>
+      </c>
+      <c r="H1821">
+        <v>3674648.68</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9478702-971E-40F1-B562-45F3AD4A2604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F576DDF-B9C6-4E2D-B1AB-43C19434C2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1821"/>
+  <dimension ref="A1:L1834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1827" sqref="C1827"/>
+      <selection pane="bottomLeft" activeCell="C1833" sqref="C1833:H1834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48324,6 +48324,344 @@
         <v>3674648.68</v>
       </c>
     </row>
+    <row r="1822" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1822" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1822" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1822">
+        <v>0</v>
+      </c>
+      <c r="E1822">
+        <v>0</v>
+      </c>
+      <c r="F1822">
+        <v>0</v>
+      </c>
+      <c r="G1822">
+        <v>986064.78</v>
+      </c>
+      <c r="H1822">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1823" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1823" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1823">
+        <v>4041008.35</v>
+      </c>
+      <c r="E1823">
+        <v>3549359.09</v>
+      </c>
+      <c r="F1823">
+        <v>491649.26000000024</v>
+      </c>
+      <c r="G1823">
+        <v>0</v>
+      </c>
+      <c r="H1823">
+        <v>491649.26000000024</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1824" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1824" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1824">
+        <v>458695.84</v>
+      </c>
+      <c r="E1824">
+        <v>0</v>
+      </c>
+      <c r="F1824">
+        <v>458695.84</v>
+      </c>
+      <c r="G1824">
+        <v>0</v>
+      </c>
+      <c r="H1824">
+        <v>458695.84</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1825" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1825" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1825">
+        <v>0</v>
+      </c>
+      <c r="E1825">
+        <v>0</v>
+      </c>
+      <c r="F1825">
+        <v>0</v>
+      </c>
+      <c r="G1825">
+        <v>22383383.760000002</v>
+      </c>
+      <c r="H1825">
+        <v>22383383.760000002</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1826" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1826" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1826">
+        <v>0</v>
+      </c>
+      <c r="E1826">
+        <v>0</v>
+      </c>
+      <c r="F1826">
+        <v>0</v>
+      </c>
+      <c r="G1826">
+        <v>380764.55</v>
+      </c>
+      <c r="H1826">
+        <v>380764.55</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1827" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1827" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1827">
+        <v>0</v>
+      </c>
+      <c r="E1827">
+        <v>0</v>
+      </c>
+      <c r="F1827">
+        <v>0</v>
+      </c>
+      <c r="G1827">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1828" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1828" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1828">
+        <v>824676.83</v>
+      </c>
+      <c r="E1828">
+        <v>1464258.53</v>
+      </c>
+      <c r="F1828">
+        <v>-639581.70000000007</v>
+      </c>
+      <c r="G1828">
+        <v>0</v>
+      </c>
+      <c r="H1828">
+        <v>-639581.70000000007</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1829" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1829" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1829">
+        <v>0</v>
+      </c>
+      <c r="E1829">
+        <v>61418.51</v>
+      </c>
+      <c r="F1829">
+        <v>-61418.51</v>
+      </c>
+      <c r="G1829">
+        <v>45216.17</v>
+      </c>
+      <c r="H1829">
+        <v>-16202.340000000004</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1830" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1830" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1830">
+        <v>0</v>
+      </c>
+      <c r="E1830">
+        <v>0</v>
+      </c>
+      <c r="F1830">
+        <v>0</v>
+      </c>
+      <c r="G1830">
+        <v>49151308.770000003</v>
+      </c>
+      <c r="H1830">
+        <v>49151308.770000003</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1831" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1831" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1831">
+        <v>0</v>
+      </c>
+      <c r="E1831">
+        <v>0</v>
+      </c>
+      <c r="F1831">
+        <v>0</v>
+      </c>
+      <c r="G1831">
+        <v>367835.82</v>
+      </c>
+      <c r="H1831">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1832" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1832" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1832">
+        <v>0</v>
+      </c>
+      <c r="E1832">
+        <v>0</v>
+      </c>
+      <c r="F1832">
+        <v>0</v>
+      </c>
+      <c r="G1832">
+        <v>1058334.26</v>
+      </c>
+      <c r="H1832">
+        <v>1058334.26</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1833" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1833" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1833">
+        <v>71941.53</v>
+      </c>
+      <c r="E1833">
+        <v>498773.6</v>
+      </c>
+      <c r="F1833">
+        <v>-426832.06999999995</v>
+      </c>
+      <c r="G1833">
+        <v>0</v>
+      </c>
+      <c r="H1833">
+        <v>-426832.06999999995</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1834" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1834" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1834">
+        <v>0</v>
+      </c>
+      <c r="E1834">
+        <v>0</v>
+      </c>
+      <c r="F1834">
+        <v>0</v>
+      </c>
+      <c r="G1834">
+        <v>3675273.25</v>
+      </c>
+      <c r="H1834">
+        <v>3675273.25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F576DDF-B9C6-4E2D-B1AB-43C19434C2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6181E7-3602-48E1-9F6B-EE1B8F74BC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1834"/>
+  <dimension ref="A1:L1847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1833" sqref="C1833:H1834"/>
+      <pane ySplit="1" topLeftCell="A1838" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1847" sqref="C1847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48662,6 +48662,344 @@
         <v>3675273.25</v>
       </c>
     </row>
+    <row r="1835" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1835" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1835" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1835">
+        <v>0</v>
+      </c>
+      <c r="E1835">
+        <v>0</v>
+      </c>
+      <c r="F1835">
+        <v>0</v>
+      </c>
+      <c r="G1835">
+        <v>986064.78</v>
+      </c>
+      <c r="H1835">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1836" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1836" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1836">
+        <v>92250.3</v>
+      </c>
+      <c r="E1836">
+        <v>4496680.16</v>
+      </c>
+      <c r="F1836">
+        <v>-4404429.8600000003</v>
+      </c>
+      <c r="G1836">
+        <v>0</v>
+      </c>
+      <c r="H1836">
+        <v>-4404429.8600000003</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1837" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1837" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1837">
+        <v>412499.03</v>
+      </c>
+      <c r="E1837">
+        <v>0</v>
+      </c>
+      <c r="F1837">
+        <v>412499.03</v>
+      </c>
+      <c r="G1837">
+        <v>0</v>
+      </c>
+      <c r="H1837">
+        <v>412499.03</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1838" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1838" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1838">
+        <v>0</v>
+      </c>
+      <c r="E1838">
+        <v>0</v>
+      </c>
+      <c r="F1838">
+        <v>0</v>
+      </c>
+      <c r="G1838">
+        <v>18785284.309999999</v>
+      </c>
+      <c r="H1838">
+        <v>18785284.309999999</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1839" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1839" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1839">
+        <v>0</v>
+      </c>
+      <c r="E1839">
+        <v>0</v>
+      </c>
+      <c r="F1839">
+        <v>0</v>
+      </c>
+      <c r="G1839">
+        <v>180925.67</v>
+      </c>
+      <c r="H1839">
+        <v>180925.67</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1840" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1840" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1840">
+        <v>0</v>
+      </c>
+      <c r="E1840">
+        <v>0</v>
+      </c>
+      <c r="F1840">
+        <v>0</v>
+      </c>
+      <c r="G1840">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1841" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1841" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1841">
+        <v>127443.51</v>
+      </c>
+      <c r="E1841">
+        <v>132215.82</v>
+      </c>
+      <c r="F1841">
+        <v>-4772.3100000000122</v>
+      </c>
+      <c r="G1841">
+        <v>0</v>
+      </c>
+      <c r="H1841">
+        <v>-4772.3100000000122</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1842" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1842" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1842">
+        <v>0</v>
+      </c>
+      <c r="E1842">
+        <v>6293787.1600000001</v>
+      </c>
+      <c r="F1842">
+        <v>-6293787.1600000001</v>
+      </c>
+      <c r="G1842">
+        <v>5014068.04</v>
+      </c>
+      <c r="H1842">
+        <v>-1279719.1200000001</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1843" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1843" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1843">
+        <v>0</v>
+      </c>
+      <c r="E1843">
+        <v>0</v>
+      </c>
+      <c r="F1843">
+        <v>0</v>
+      </c>
+      <c r="G1843">
+        <v>45545150.850000001</v>
+      </c>
+      <c r="H1843">
+        <v>45545150.850000001</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1844" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1844" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1844">
+        <v>0</v>
+      </c>
+      <c r="E1844">
+        <v>0</v>
+      </c>
+      <c r="F1844">
+        <v>0</v>
+      </c>
+      <c r="G1844">
+        <v>367835.82</v>
+      </c>
+      <c r="H1844">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1845" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1845" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1845">
+        <v>0</v>
+      </c>
+      <c r="E1845">
+        <v>0</v>
+      </c>
+      <c r="F1845">
+        <v>0</v>
+      </c>
+      <c r="G1845">
+        <v>1059395.6100000001</v>
+      </c>
+      <c r="H1845">
+        <v>1059395.6100000001</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1846" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1846" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1846">
+        <v>4852.0600000000004</v>
+      </c>
+      <c r="E1846">
+        <v>249631.66</v>
+      </c>
+      <c r="F1846">
+        <v>-244779.6</v>
+      </c>
+      <c r="G1846">
+        <v>0</v>
+      </c>
+      <c r="H1846">
+        <v>-244779.6</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1847" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1847" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1847">
+        <v>0</v>
+      </c>
+      <c r="E1847">
+        <v>0</v>
+      </c>
+      <c r="F1847">
+        <v>0</v>
+      </c>
+      <c r="G1847">
+        <v>3047531.25</v>
+      </c>
+      <c r="H1847">
+        <v>3047531.25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6181E7-3602-48E1-9F6B-EE1B8F74BC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA88CE0-43FA-4C5F-9988-8E8B808F14BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1847"/>
+  <dimension ref="A1:L1860"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1838" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1847" sqref="C1847"/>
+      <pane ySplit="1" topLeftCell="A1830" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1853" sqref="C1853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49000,6 +49000,344 @@
         <v>3047531.25</v>
       </c>
     </row>
+    <row r="1848" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1848" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1848" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1848">
+        <v>0</v>
+      </c>
+      <c r="E1848">
+        <v>0</v>
+      </c>
+      <c r="F1848">
+        <v>0</v>
+      </c>
+      <c r="G1848">
+        <v>986064.78</v>
+      </c>
+      <c r="H1848">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1849" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1849" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1849">
+        <v>19873.02</v>
+      </c>
+      <c r="E1849">
+        <v>0</v>
+      </c>
+      <c r="F1849">
+        <v>19873.02</v>
+      </c>
+      <c r="G1849">
+        <v>340528</v>
+      </c>
+      <c r="H1849">
+        <v>360401.02</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1850" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1850" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1850">
+        <v>1065301.06</v>
+      </c>
+      <c r="E1850">
+        <v>0</v>
+      </c>
+      <c r="F1850">
+        <v>1065301.06</v>
+      </c>
+      <c r="G1850">
+        <v>0</v>
+      </c>
+      <c r="H1850">
+        <v>1065301.06</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1851" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1851" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1851">
+        <v>0</v>
+      </c>
+      <c r="E1851">
+        <v>0</v>
+      </c>
+      <c r="F1851">
+        <v>0</v>
+      </c>
+      <c r="G1851">
+        <v>18801051.010000002</v>
+      </c>
+      <c r="H1851">
+        <v>18801051.010000002</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1852" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1852" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1852">
+        <v>0</v>
+      </c>
+      <c r="E1852">
+        <v>0</v>
+      </c>
+      <c r="F1852">
+        <v>0</v>
+      </c>
+      <c r="G1852">
+        <v>1031809.63</v>
+      </c>
+      <c r="H1852">
+        <v>1031809.63</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1853" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1853" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1853">
+        <v>0</v>
+      </c>
+      <c r="E1853">
+        <v>0</v>
+      </c>
+      <c r="F1853">
+        <v>0</v>
+      </c>
+      <c r="G1853">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1854" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1854" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1854">
+        <v>185294.43</v>
+      </c>
+      <c r="E1854">
+        <v>7868.4</v>
+      </c>
+      <c r="F1854">
+        <v>177426.03</v>
+      </c>
+      <c r="G1854">
+        <v>3615848.88</v>
+      </c>
+      <c r="H1854">
+        <v>3793274.9099999997</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1855" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1855" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1855">
+        <v>0</v>
+      </c>
+      <c r="E1855">
+        <v>1419.1</v>
+      </c>
+      <c r="F1855">
+        <v>-1419.1</v>
+      </c>
+      <c r="G1855">
+        <v>218519.76</v>
+      </c>
+      <c r="H1855">
+        <v>217100.66</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1856" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1856" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1856">
+        <v>0</v>
+      </c>
+      <c r="E1856">
+        <v>0</v>
+      </c>
+      <c r="F1856">
+        <v>0</v>
+      </c>
+      <c r="G1856">
+        <v>45516563.259999998</v>
+      </c>
+      <c r="H1856">
+        <v>45516563.259999998</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1857" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1857" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1857">
+        <v>0</v>
+      </c>
+      <c r="E1857">
+        <v>0</v>
+      </c>
+      <c r="F1857">
+        <v>0</v>
+      </c>
+      <c r="G1857">
+        <v>372589.07</v>
+      </c>
+      <c r="H1857">
+        <v>372589.07</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1858" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1858" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1858">
+        <v>0</v>
+      </c>
+      <c r="E1858">
+        <v>0</v>
+      </c>
+      <c r="F1858">
+        <v>0</v>
+      </c>
+      <c r="G1858">
+        <v>1060571.68</v>
+      </c>
+      <c r="H1858">
+        <v>1060571.68</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1859" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1859" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1859">
+        <v>9902.6299999999992</v>
+      </c>
+      <c r="E1859">
+        <v>0</v>
+      </c>
+      <c r="F1859">
+        <v>9902.6299999999992</v>
+      </c>
+      <c r="G1859">
+        <v>113071.18</v>
+      </c>
+      <c r="H1859">
+        <v>122973.81</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1860" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1860" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1860">
+        <v>0</v>
+      </c>
+      <c r="E1860">
+        <v>0</v>
+      </c>
+      <c r="F1860">
+        <v>0</v>
+      </c>
+      <c r="G1860">
+        <v>3051413.11</v>
+      </c>
+      <c r="H1860">
+        <v>3051413.11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA88CE0-43FA-4C5F-9988-8E8B808F14BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59576F-C047-4AD7-B4D8-EA0672C40BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1860"/>
+  <dimension ref="A1:L1886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1830" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1853" sqref="C1853"/>
+      <pane ySplit="1" topLeftCell="A1873" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1879" sqref="B1879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49338,6 +49338,682 @@
         <v>3051413.11</v>
       </c>
     </row>
+    <row r="1861" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1861" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1861" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1861">
+        <v>0</v>
+      </c>
+      <c r="E1861">
+        <v>0</v>
+      </c>
+      <c r="F1861">
+        <v>0</v>
+      </c>
+      <c r="G1861">
+        <v>986064.78</v>
+      </c>
+      <c r="H1861">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1862" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1862" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1862">
+        <v>10496.96</v>
+      </c>
+      <c r="E1862">
+        <v>2220571.25</v>
+      </c>
+      <c r="F1862">
+        <v>-2210074.29</v>
+      </c>
+      <c r="G1862">
+        <v>410656.76</v>
+      </c>
+      <c r="H1862">
+        <v>-1799417.53</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1863" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1863" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1863">
+        <v>1096363.3899999999</v>
+      </c>
+      <c r="E1863">
+        <v>0</v>
+      </c>
+      <c r="F1863">
+        <v>1096363.3899999999</v>
+      </c>
+      <c r="G1863">
+        <v>0</v>
+      </c>
+      <c r="H1863">
+        <v>1096363.3899999999</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1864" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1864" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1864">
+        <v>0</v>
+      </c>
+      <c r="E1864">
+        <v>0</v>
+      </c>
+      <c r="F1864">
+        <v>0</v>
+      </c>
+      <c r="G1864">
+        <v>18827014.07</v>
+      </c>
+      <c r="H1864">
+        <v>18827014.07</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1865" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1865" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1865">
+        <v>0</v>
+      </c>
+      <c r="E1865">
+        <v>0</v>
+      </c>
+      <c r="F1865">
+        <v>0</v>
+      </c>
+      <c r="G1865">
+        <v>1288459.6200000001</v>
+      </c>
+      <c r="H1865">
+        <v>1288459.6200000001</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1866" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1866" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1866">
+        <v>0</v>
+      </c>
+      <c r="E1866">
+        <v>0</v>
+      </c>
+      <c r="F1866">
+        <v>0</v>
+      </c>
+      <c r="G1866">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1867" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1867" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1867">
+        <v>265917.06</v>
+      </c>
+      <c r="E1867">
+        <v>2855061.7</v>
+      </c>
+      <c r="F1867">
+        <v>-2589144.64</v>
+      </c>
+      <c r="G1867">
+        <v>5956017.2699999996</v>
+      </c>
+      <c r="H1867">
+        <v>3366872.6299999994</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1868" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1868" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1868">
+        <v>0</v>
+      </c>
+      <c r="E1868">
+        <v>0</v>
+      </c>
+      <c r="F1868">
+        <v>0</v>
+      </c>
+      <c r="G1868">
+        <v>217100.66</v>
+      </c>
+      <c r="H1868">
+        <v>217100.66</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1869" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1869" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1869">
+        <v>0</v>
+      </c>
+      <c r="E1869">
+        <v>0</v>
+      </c>
+      <c r="F1869">
+        <v>0</v>
+      </c>
+      <c r="G1869">
+        <v>45535833.049999997</v>
+      </c>
+      <c r="H1869">
+        <v>45535833.049999997</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1870" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1870" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1870">
+        <v>0</v>
+      </c>
+      <c r="E1870">
+        <v>0</v>
+      </c>
+      <c r="F1870">
+        <v>0</v>
+      </c>
+      <c r="G1870">
+        <v>372589.07</v>
+      </c>
+      <c r="H1870">
+        <v>372589.07</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1871" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1871" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1871">
+        <v>0</v>
+      </c>
+      <c r="E1871">
+        <v>0</v>
+      </c>
+      <c r="F1871">
+        <v>0</v>
+      </c>
+      <c r="G1871">
+        <v>1060905.79</v>
+      </c>
+      <c r="H1871">
+        <v>1060905.79</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1872" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1872" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1872">
+        <v>10371.540000000001</v>
+      </c>
+      <c r="E1872">
+        <v>114593.93</v>
+      </c>
+      <c r="F1872">
+        <v>-104222.38999999998</v>
+      </c>
+      <c r="G1872">
+        <v>177099.41</v>
+      </c>
+      <c r="H1872">
+        <v>72877.020000000019</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1873" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1873" s="1">
+        <v>46058</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1873">
+        <v>0</v>
+      </c>
+      <c r="E1873">
+        <v>0</v>
+      </c>
+      <c r="F1873">
+        <v>0</v>
+      </c>
+      <c r="G1873">
+        <v>3053141.28</v>
+      </c>
+      <c r="H1873">
+        <v>3053141.28</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1874" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1874" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1874">
+        <v>0</v>
+      </c>
+      <c r="E1874">
+        <v>0</v>
+      </c>
+      <c r="F1874">
+        <v>0</v>
+      </c>
+      <c r="G1874">
+        <v>986064.78</v>
+      </c>
+      <c r="H1874">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1875" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1875" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1875">
+        <v>153205.51</v>
+      </c>
+      <c r="E1875">
+        <v>55941.43</v>
+      </c>
+      <c r="F1875">
+        <v>97264.080000000016</v>
+      </c>
+      <c r="G1875">
+        <v>0</v>
+      </c>
+      <c r="H1875">
+        <v>97264.080000000016</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1876" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1876" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1876">
+        <v>154817.79999999999</v>
+      </c>
+      <c r="E1876">
+        <v>0</v>
+      </c>
+      <c r="F1876">
+        <v>154817.79999999999</v>
+      </c>
+      <c r="G1876">
+        <v>0</v>
+      </c>
+      <c r="H1876">
+        <v>154817.79999999999</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1877" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1877" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1877">
+        <v>0</v>
+      </c>
+      <c r="E1877">
+        <v>0</v>
+      </c>
+      <c r="F1877">
+        <v>0</v>
+      </c>
+      <c r="G1877">
+        <v>18544105.670000002</v>
+      </c>
+      <c r="H1877">
+        <v>18544105.670000002</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1878" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1878" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1878">
+        <v>0</v>
+      </c>
+      <c r="E1878">
+        <v>0</v>
+      </c>
+      <c r="F1878">
+        <v>0</v>
+      </c>
+      <c r="G1878">
+        <v>1488079.32</v>
+      </c>
+      <c r="H1878">
+        <v>1488079.32</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1879" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1879" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1879">
+        <v>0</v>
+      </c>
+      <c r="E1879">
+        <v>0</v>
+      </c>
+      <c r="F1879">
+        <v>0</v>
+      </c>
+      <c r="G1879">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1880" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1880" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1880">
+        <v>2055979.43</v>
+      </c>
+      <c r="E1880">
+        <v>818.65</v>
+      </c>
+      <c r="F1880">
+        <v>2055160.78</v>
+      </c>
+      <c r="G1880">
+        <v>0</v>
+      </c>
+      <c r="H1880">
+        <v>2055160.78</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1881" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1881" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1881">
+        <v>0</v>
+      </c>
+      <c r="E1881">
+        <v>0</v>
+      </c>
+      <c r="F1881">
+        <v>0</v>
+      </c>
+      <c r="G1881">
+        <v>217100.66</v>
+      </c>
+      <c r="H1881">
+        <v>217100.66</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1882" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1882" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1882">
+        <v>0</v>
+      </c>
+      <c r="E1882">
+        <v>0</v>
+      </c>
+      <c r="F1882">
+        <v>0</v>
+      </c>
+      <c r="G1882">
+        <v>51572567.899999999</v>
+      </c>
+      <c r="H1882">
+        <v>51572567.899999999</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1883" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1883" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1883">
+        <v>0</v>
+      </c>
+      <c r="E1883">
+        <v>0</v>
+      </c>
+      <c r="F1883">
+        <v>0</v>
+      </c>
+      <c r="G1883">
+        <v>372589.07</v>
+      </c>
+      <c r="H1883">
+        <v>372589.07</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1884" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1884" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1884">
+        <v>0</v>
+      </c>
+      <c r="E1884">
+        <v>0</v>
+      </c>
+      <c r="F1884">
+        <v>0</v>
+      </c>
+      <c r="G1884">
+        <v>1062089.92</v>
+      </c>
+      <c r="H1884">
+        <v>1062089.92</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1885" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1885" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1885">
+        <v>29869.759999999998</v>
+      </c>
+      <c r="E1885">
+        <v>3360.38</v>
+      </c>
+      <c r="F1885">
+        <v>26509.379999999997</v>
+      </c>
+      <c r="G1885">
+        <v>0</v>
+      </c>
+      <c r="H1885">
+        <v>26509.379999999997</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1886" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1886" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1886">
+        <v>0</v>
+      </c>
+      <c r="E1886">
+        <v>0</v>
+      </c>
+      <c r="F1886">
+        <v>0</v>
+      </c>
+      <c r="G1886">
+        <v>3124840.69</v>
+      </c>
+      <c r="H1886">
+        <v>3124840.69</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59576F-C047-4AD7-B4D8-EA0672C40BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2091EAC-AEB4-48CC-A7FF-252EC595EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1886"/>
+  <dimension ref="A1:L1899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1873" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1879" sqref="B1879"/>
+      <selection pane="bottomLeft" activeCell="D1879" sqref="D1879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50014,6 +50014,344 @@
         <v>3124840.69</v>
       </c>
     </row>
+    <row r="1887" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1887" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1887" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1887">
+        <v>0</v>
+      </c>
+      <c r="E1887">
+        <v>0</v>
+      </c>
+      <c r="F1887">
+        <v>0</v>
+      </c>
+      <c r="G1887">
+        <v>986064.78</v>
+      </c>
+      <c r="H1887">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1888" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1888" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1888">
+        <v>5314.92</v>
+      </c>
+      <c r="E1888">
+        <v>39805.99</v>
+      </c>
+      <c r="F1888">
+        <v>-34491.07</v>
+      </c>
+      <c r="G1888">
+        <v>604977.59</v>
+      </c>
+      <c r="H1888">
+        <v>570486.52</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1889" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1889" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1889">
+        <v>154817.79999999999</v>
+      </c>
+      <c r="E1889">
+        <v>0</v>
+      </c>
+      <c r="F1889">
+        <v>154817.79999999999</v>
+      </c>
+      <c r="G1889">
+        <v>0</v>
+      </c>
+      <c r="H1889">
+        <v>154817.79999999999</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1890" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1890" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1890">
+        <v>0</v>
+      </c>
+      <c r="E1890">
+        <v>0</v>
+      </c>
+      <c r="F1890">
+        <v>0</v>
+      </c>
+      <c r="G1890">
+        <v>18554746.870000001</v>
+      </c>
+      <c r="H1890">
+        <v>18554746.870000001</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1891" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1891" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1891">
+        <v>0</v>
+      </c>
+      <c r="E1891">
+        <v>0</v>
+      </c>
+      <c r="F1891">
+        <v>0</v>
+      </c>
+      <c r="G1891">
+        <v>2615966.27</v>
+      </c>
+      <c r="H1891">
+        <v>2615966.27</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1892" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1892" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1892">
+        <v>0</v>
+      </c>
+      <c r="E1892">
+        <v>0</v>
+      </c>
+      <c r="F1892">
+        <v>0</v>
+      </c>
+      <c r="G1892">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1893" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1893" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1893">
+        <v>128836.48</v>
+      </c>
+      <c r="E1893">
+        <v>10490.64</v>
+      </c>
+      <c r="F1893">
+        <v>118345.84</v>
+      </c>
+      <c r="G1893">
+        <v>8250070.1799999997</v>
+      </c>
+      <c r="H1893">
+        <v>8368416.0199999996</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1894" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1894" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1894">
+        <v>0</v>
+      </c>
+      <c r="E1894">
+        <v>0</v>
+      </c>
+      <c r="F1894">
+        <v>0</v>
+      </c>
+      <c r="G1894">
+        <v>217100.66</v>
+      </c>
+      <c r="H1894">
+        <v>217100.66</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1895" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1895" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1895">
+        <v>0</v>
+      </c>
+      <c r="E1895">
+        <v>0</v>
+      </c>
+      <c r="F1895">
+        <v>0</v>
+      </c>
+      <c r="G1895">
+        <v>51592179.729999997</v>
+      </c>
+      <c r="H1895">
+        <v>51592179.729999997</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1896" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1896" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1896">
+        <v>0</v>
+      </c>
+      <c r="E1896">
+        <v>0</v>
+      </c>
+      <c r="F1896">
+        <v>0</v>
+      </c>
+      <c r="G1896">
+        <v>372589.07</v>
+      </c>
+      <c r="H1896">
+        <v>372589.07</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1897" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1897" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1897">
+        <v>0</v>
+      </c>
+      <c r="E1897">
+        <v>0</v>
+      </c>
+      <c r="F1897">
+        <v>0</v>
+      </c>
+      <c r="G1897">
+        <v>1062443.17</v>
+      </c>
+      <c r="H1897">
+        <v>1062443.17</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1898" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1898" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1898">
+        <v>5006.9399999999996</v>
+      </c>
+      <c r="E1898">
+        <v>0</v>
+      </c>
+      <c r="F1898">
+        <v>5006.9399999999996</v>
+      </c>
+      <c r="G1898">
+        <v>47339.75</v>
+      </c>
+      <c r="H1898">
+        <v>52346.69</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1899" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1899" s="1">
+        <v>46062</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1899">
+        <v>0</v>
+      </c>
+      <c r="E1899">
+        <v>0</v>
+      </c>
+      <c r="F1899">
+        <v>0</v>
+      </c>
+      <c r="G1899">
+        <v>3126069.51</v>
+      </c>
+      <c r="H1899">
+        <v>3126069.51</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2091EAC-AEB4-48CC-A7FF-252EC595EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F804AF-9900-4684-B720-B0CCCA027CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1899"/>
+  <dimension ref="A1:L1912"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1873" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1879" sqref="D1879"/>
+      <pane ySplit="1" topLeftCell="A1883" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1897" sqref="B1897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50352,6 +50352,344 @@
         <v>3126069.51</v>
       </c>
     </row>
+    <row r="1900" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1900" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1900" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1900">
+        <v>0</v>
+      </c>
+      <c r="E1900">
+        <v>0</v>
+      </c>
+      <c r="F1900">
+        <v>0</v>
+      </c>
+      <c r="G1900">
+        <v>986064.78</v>
+      </c>
+      <c r="H1900">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1901" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1901" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1901">
+        <v>9639.68</v>
+      </c>
+      <c r="E1901">
+        <v>2148234.23</v>
+      </c>
+      <c r="F1901">
+        <v>-2138594.5499999998</v>
+      </c>
+      <c r="G1901">
+        <v>3161131.64</v>
+      </c>
+      <c r="H1901">
+        <v>1022537.0900000003</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1902" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1902" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1902">
+        <v>251771.93</v>
+      </c>
+      <c r="E1902">
+        <v>0</v>
+      </c>
+      <c r="F1902">
+        <v>251771.93</v>
+      </c>
+      <c r="G1902">
+        <v>0</v>
+      </c>
+      <c r="H1902">
+        <v>251771.93</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1903" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1903" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1903">
+        <v>0</v>
+      </c>
+      <c r="E1903">
+        <v>0</v>
+      </c>
+      <c r="F1903">
+        <v>0</v>
+      </c>
+      <c r="G1903">
+        <v>18568341.129999999</v>
+      </c>
+      <c r="H1903">
+        <v>18568341.129999999</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1904" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1904" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1904">
+        <v>0</v>
+      </c>
+      <c r="E1904">
+        <v>0</v>
+      </c>
+      <c r="F1904">
+        <v>0</v>
+      </c>
+      <c r="G1904">
+        <v>1548315</v>
+      </c>
+      <c r="H1904">
+        <v>1548315</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1905" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1905" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1905">
+        <v>0</v>
+      </c>
+      <c r="E1905">
+        <v>0</v>
+      </c>
+      <c r="F1905">
+        <v>0</v>
+      </c>
+      <c r="G1905">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1906" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1906" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1906">
+        <v>115822.7</v>
+      </c>
+      <c r="E1906">
+        <v>4116232.54</v>
+      </c>
+      <c r="F1906">
+        <v>-4000409.84</v>
+      </c>
+      <c r="G1906">
+        <v>9937817.3200000003</v>
+      </c>
+      <c r="H1906">
+        <v>5937407.4800000004</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1907" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1907" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1907">
+        <v>0</v>
+      </c>
+      <c r="E1907">
+        <v>0</v>
+      </c>
+      <c r="F1907">
+        <v>0</v>
+      </c>
+      <c r="G1907">
+        <v>217100.66</v>
+      </c>
+      <c r="H1907">
+        <v>217100.66</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1908" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1908" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1908">
+        <v>0</v>
+      </c>
+      <c r="E1908">
+        <v>0</v>
+      </c>
+      <c r="F1908">
+        <v>0</v>
+      </c>
+      <c r="G1908">
+        <v>51630491.149999999</v>
+      </c>
+      <c r="H1908">
+        <v>51630491.149999999</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1909" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1909" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1909">
+        <v>0</v>
+      </c>
+      <c r="E1909">
+        <v>0</v>
+      </c>
+      <c r="F1909">
+        <v>0</v>
+      </c>
+      <c r="G1909">
+        <v>372589.07</v>
+      </c>
+      <c r="H1909">
+        <v>372589.07</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1910" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1910" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1910">
+        <v>0</v>
+      </c>
+      <c r="E1910">
+        <v>0</v>
+      </c>
+      <c r="F1910">
+        <v>0</v>
+      </c>
+      <c r="G1910">
+        <v>1063483.47</v>
+      </c>
+      <c r="H1910">
+        <v>1063483.47</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1911" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1911" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1911">
+        <v>5023.38</v>
+      </c>
+      <c r="E1911">
+        <v>201642.47</v>
+      </c>
+      <c r="F1911">
+        <v>-196619.09</v>
+      </c>
+      <c r="G1911">
+        <v>140040.93</v>
+      </c>
+      <c r="H1911">
+        <v>-56578.16</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1912" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1912" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1912">
+        <v>0</v>
+      </c>
+      <c r="E1912">
+        <v>0</v>
+      </c>
+      <c r="F1912">
+        <v>0</v>
+      </c>
+      <c r="G1912">
+        <v>3128798.82</v>
+      </c>
+      <c r="H1912">
+        <v>3128798.82</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F804AF-9900-4684-B720-B0CCCA027CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA6922B-3BC2-4761-A331-642D981DCADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1912"/>
+  <dimension ref="A1:L1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1883" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1897" sqref="B1897"/>
+      <pane ySplit="1" topLeftCell="A1889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1924" sqref="C1924:H1925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50690,6 +50690,344 @@
         <v>3128798.82</v>
       </c>
     </row>
+    <row r="1913" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1913" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1913" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1913">
+        <v>0</v>
+      </c>
+      <c r="E1913">
+        <v>0</v>
+      </c>
+      <c r="F1913">
+        <v>0</v>
+      </c>
+      <c r="G1913">
+        <v>986064.78</v>
+      </c>
+      <c r="H1913">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1914" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1914" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1914">
+        <v>9941.36</v>
+      </c>
+      <c r="E1914">
+        <v>0</v>
+      </c>
+      <c r="F1914">
+        <v>9941.36</v>
+      </c>
+      <c r="G1914">
+        <v>6973114.25</v>
+      </c>
+      <c r="H1914">
+        <v>6983055.6100000003</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1915" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1915" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1915">
+        <v>82198.05</v>
+      </c>
+      <c r="E1915">
+        <v>0</v>
+      </c>
+      <c r="F1915">
+        <v>82198.05</v>
+      </c>
+      <c r="G1915">
+        <v>0</v>
+      </c>
+      <c r="H1915">
+        <v>82198.05</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1916" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1916" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1916">
+        <v>0</v>
+      </c>
+      <c r="E1916">
+        <v>0</v>
+      </c>
+      <c r="F1916">
+        <v>0</v>
+      </c>
+      <c r="G1916">
+        <v>14628416.92</v>
+      </c>
+      <c r="H1916">
+        <v>14628416.92</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1917" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1917" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1917">
+        <v>0</v>
+      </c>
+      <c r="E1917">
+        <v>0</v>
+      </c>
+      <c r="F1917">
+        <v>0</v>
+      </c>
+      <c r="G1917">
+        <v>473270.62</v>
+      </c>
+      <c r="H1917">
+        <v>473270.62</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1918" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1918" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1918">
+        <v>0</v>
+      </c>
+      <c r="E1918">
+        <v>0</v>
+      </c>
+      <c r="F1918">
+        <v>0</v>
+      </c>
+      <c r="G1918">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1919" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1919" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1919">
+        <v>86937.5</v>
+      </c>
+      <c r="E1919">
+        <v>10683.47</v>
+      </c>
+      <c r="F1919">
+        <v>76254.03</v>
+      </c>
+      <c r="G1919">
+        <v>17098224.710000001</v>
+      </c>
+      <c r="H1919">
+        <v>17174478.740000002</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1920" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1920" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1920">
+        <v>0</v>
+      </c>
+      <c r="E1920">
+        <v>42204.87</v>
+      </c>
+      <c r="F1920">
+        <v>-42204.87</v>
+      </c>
+      <c r="G1920">
+        <v>217100.66</v>
+      </c>
+      <c r="H1920">
+        <v>174895.79</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1921" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1921" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1921">
+        <v>0</v>
+      </c>
+      <c r="E1921">
+        <v>0</v>
+      </c>
+      <c r="F1921">
+        <v>0</v>
+      </c>
+      <c r="G1921">
+        <v>41639174.93</v>
+      </c>
+      <c r="H1921">
+        <v>41639174.93</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1922" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1922" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1922">
+        <v>0</v>
+      </c>
+      <c r="E1922">
+        <v>0</v>
+      </c>
+      <c r="F1922">
+        <v>0</v>
+      </c>
+      <c r="G1922">
+        <v>373296.81</v>
+      </c>
+      <c r="H1922">
+        <v>373296.81</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1923" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1923" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1923">
+        <v>0</v>
+      </c>
+      <c r="E1923">
+        <v>0</v>
+      </c>
+      <c r="F1923">
+        <v>0</v>
+      </c>
+      <c r="G1923">
+        <v>1063483.47</v>
+      </c>
+      <c r="H1923">
+        <v>1063483.47</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1924" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1924" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1924">
+        <v>4399.9799999999996</v>
+      </c>
+      <c r="E1924">
+        <v>0</v>
+      </c>
+      <c r="F1924">
+        <v>4399.9799999999996</v>
+      </c>
+      <c r="G1924">
+        <v>69985.929999999993</v>
+      </c>
+      <c r="H1924">
+        <v>74385.909999999989</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1925" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1925" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1925">
+        <v>0</v>
+      </c>
+      <c r="E1925">
+        <v>0</v>
+      </c>
+      <c r="F1925">
+        <v>0</v>
+      </c>
+      <c r="G1925">
+        <v>3060152.7</v>
+      </c>
+      <c r="H1925">
+        <v>3060152.7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA6922B-3BC2-4761-A331-642D981DCADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B568859-5EA6-4D0C-A8ED-53792D026E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1925"/>
+  <dimension ref="A1:L1938"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1889" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1924" sqref="C1924:H1925"/>
+      <pane ySplit="1" topLeftCell="A1911" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1924" sqref="C1924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51028,6 +51028,344 @@
         <v>3060152.7</v>
       </c>
     </row>
+    <row r="1926" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1926" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1926" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1926">
+        <v>0</v>
+      </c>
+      <c r="E1926">
+        <v>0</v>
+      </c>
+      <c r="F1926">
+        <v>0</v>
+      </c>
+      <c r="G1926">
+        <v>998204.61</v>
+      </c>
+      <c r="H1926">
+        <v>998204.61</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1927" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1927" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1927">
+        <v>10291.48</v>
+      </c>
+      <c r="E1927">
+        <v>6587.16</v>
+      </c>
+      <c r="F1927">
+        <v>3704.3199999999997</v>
+      </c>
+      <c r="G1927">
+        <v>7623414.3099999996</v>
+      </c>
+      <c r="H1927">
+        <v>7627118.6299999999</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1928" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1928" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1928">
+        <v>117080.73</v>
+      </c>
+      <c r="E1928">
+        <v>0</v>
+      </c>
+      <c r="F1928">
+        <v>117080.73</v>
+      </c>
+      <c r="G1928">
+        <v>0</v>
+      </c>
+      <c r="H1928">
+        <v>117080.73</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1929" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1929" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1929">
+        <v>0</v>
+      </c>
+      <c r="E1929">
+        <v>0</v>
+      </c>
+      <c r="F1929">
+        <v>0</v>
+      </c>
+      <c r="G1929">
+        <v>14637128.699999999</v>
+      </c>
+      <c r="H1929">
+        <v>14637128.699999999</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1930" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1930" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1930">
+        <v>0</v>
+      </c>
+      <c r="E1930">
+        <v>0</v>
+      </c>
+      <c r="F1930">
+        <v>0</v>
+      </c>
+      <c r="G1930">
+        <v>198898.08</v>
+      </c>
+      <c r="H1930">
+        <v>198898.08</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1931" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1931" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1931">
+        <v>0</v>
+      </c>
+      <c r="E1931">
+        <v>0</v>
+      </c>
+      <c r="F1931">
+        <v>0</v>
+      </c>
+      <c r="G1931">
+        <v>2805161.33</v>
+      </c>
+      <c r="H1931">
+        <v>2805161.33</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1932" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1932" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1932">
+        <v>50147.12</v>
+      </c>
+      <c r="E1932">
+        <v>0</v>
+      </c>
+      <c r="F1932">
+        <v>50147.12</v>
+      </c>
+      <c r="G1932">
+        <v>17998167.850000001</v>
+      </c>
+      <c r="H1932">
+        <v>18048314.970000003</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1933" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1933" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1933">
+        <v>0</v>
+      </c>
+      <c r="E1933">
+        <v>0</v>
+      </c>
+      <c r="F1933">
+        <v>0</v>
+      </c>
+      <c r="G1933">
+        <v>174895.79</v>
+      </c>
+      <c r="H1933">
+        <v>174895.79</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1934" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1934" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1934">
+        <v>0</v>
+      </c>
+      <c r="E1934">
+        <v>0</v>
+      </c>
+      <c r="F1934">
+        <v>0</v>
+      </c>
+      <c r="G1934">
+        <v>41661003.670000002</v>
+      </c>
+      <c r="H1934">
+        <v>41661003.670000002</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1935" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1935" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1935">
+        <v>0</v>
+      </c>
+      <c r="E1935">
+        <v>0</v>
+      </c>
+      <c r="F1935">
+        <v>0</v>
+      </c>
+      <c r="G1935">
+        <v>373296.81</v>
+      </c>
+      <c r="H1935">
+        <v>373296.81</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1936" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1936" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1936">
+        <v>0</v>
+      </c>
+      <c r="E1936">
+        <v>0</v>
+      </c>
+      <c r="F1936">
+        <v>0</v>
+      </c>
+      <c r="G1936">
+        <v>1064266.29</v>
+      </c>
+      <c r="H1936">
+        <v>1064266.29</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1937" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1937" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1937">
+        <v>5013.49</v>
+      </c>
+      <c r="E1937">
+        <v>0</v>
+      </c>
+      <c r="F1937">
+        <v>5013.49</v>
+      </c>
+      <c r="G1937">
+        <v>91549.26</v>
+      </c>
+      <c r="H1937">
+        <v>96562.75</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1938" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1938" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1938">
+        <v>0</v>
+      </c>
+      <c r="E1938">
+        <v>0</v>
+      </c>
+      <c r="F1938">
+        <v>0</v>
+      </c>
+      <c r="G1938">
+        <v>3062038.82</v>
+      </c>
+      <c r="H1938">
+        <v>3062038.82</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B568859-5EA6-4D0C-A8ED-53792D026E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC1F5F-C4A0-4E44-AA0C-96E833FB8DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1938"/>
+  <dimension ref="A1:L1951"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1911" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1924" sqref="C1924"/>
+      <pane ySplit="1" topLeftCell="A1920" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1933" sqref="B1933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51366,6 +51366,344 @@
         <v>3062038.82</v>
       </c>
     </row>
+    <row r="1939" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1939" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1939" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1939">
+        <v>0</v>
+      </c>
+      <c r="E1939">
+        <v>0</v>
+      </c>
+      <c r="F1939">
+        <v>0</v>
+      </c>
+      <c r="G1939">
+        <v>998204.61</v>
+      </c>
+      <c r="H1939">
+        <v>998204.61</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1940" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1940" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1940">
+        <v>5007.53</v>
+      </c>
+      <c r="E1940">
+        <v>524594.27</v>
+      </c>
+      <c r="F1940">
+        <v>-519586.74</v>
+      </c>
+      <c r="G1940">
+        <v>7710191.3200000003</v>
+      </c>
+      <c r="H1940">
+        <v>7190604.5800000001</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1941" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1941" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1941">
+        <v>212287.59</v>
+      </c>
+      <c r="E1941">
+        <v>0</v>
+      </c>
+      <c r="F1941">
+        <v>212287.59</v>
+      </c>
+      <c r="G1941">
+        <v>0</v>
+      </c>
+      <c r="H1941">
+        <v>212287.59</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1942" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1942" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1942">
+        <v>0</v>
+      </c>
+      <c r="E1942">
+        <v>0</v>
+      </c>
+      <c r="F1942">
+        <v>0</v>
+      </c>
+      <c r="G1942">
+        <v>14644522.02</v>
+      </c>
+      <c r="H1942">
+        <v>14644522.02</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1943" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1943" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1943">
+        <v>0</v>
+      </c>
+      <c r="E1943">
+        <v>0</v>
+      </c>
+      <c r="F1943">
+        <v>0</v>
+      </c>
+      <c r="G1943">
+        <v>383584</v>
+      </c>
+      <c r="H1943">
+        <v>383584</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1944" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1944" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1944">
+        <v>0</v>
+      </c>
+      <c r="E1944">
+        <v>0</v>
+      </c>
+      <c r="F1944">
+        <v>0</v>
+      </c>
+      <c r="G1944">
+        <v>2805161.33</v>
+      </c>
+      <c r="H1944">
+        <v>2805161.33</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1945" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1945" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1945">
+        <v>105440.9</v>
+      </c>
+      <c r="E1945">
+        <v>1660411.39</v>
+      </c>
+      <c r="F1945">
+        <v>-1554970.49</v>
+      </c>
+      <c r="G1945">
+        <v>18849571.07</v>
+      </c>
+      <c r="H1945">
+        <v>17294600.580000002</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1946" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1946" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1946">
+        <v>0</v>
+      </c>
+      <c r="E1946">
+        <v>52516.35</v>
+      </c>
+      <c r="F1946">
+        <v>-52516.35</v>
+      </c>
+      <c r="G1946">
+        <v>174895.79</v>
+      </c>
+      <c r="H1946">
+        <v>122379.44</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1947" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1947" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1947">
+        <v>0</v>
+      </c>
+      <c r="E1947">
+        <v>0</v>
+      </c>
+      <c r="F1947">
+        <v>0</v>
+      </c>
+      <c r="G1947">
+        <v>41680480.640000001</v>
+      </c>
+      <c r="H1947">
+        <v>41680480.640000001</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1948" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1948" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1948">
+        <v>0</v>
+      </c>
+      <c r="E1948">
+        <v>0</v>
+      </c>
+      <c r="F1948">
+        <v>0</v>
+      </c>
+      <c r="G1948">
+        <v>373296.81</v>
+      </c>
+      <c r="H1948">
+        <v>373296.81</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1949" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1949" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1949">
+        <v>0</v>
+      </c>
+      <c r="E1949">
+        <v>0</v>
+      </c>
+      <c r="F1949">
+        <v>0</v>
+      </c>
+      <c r="G1949">
+        <v>1064945.1000000001</v>
+      </c>
+      <c r="H1949">
+        <v>1064945.1000000001</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1950" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1950" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1950">
+        <v>3003.99</v>
+      </c>
+      <c r="E1950">
+        <v>105077.68</v>
+      </c>
+      <c r="F1950">
+        <v>-102073.68999999999</v>
+      </c>
+      <c r="G1950">
+        <v>113721.42</v>
+      </c>
+      <c r="H1950">
+        <v>11647.73000000001</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1951" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1951" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1951">
+        <v>0</v>
+      </c>
+      <c r="E1951">
+        <v>0</v>
+      </c>
+      <c r="F1951">
+        <v>0</v>
+      </c>
+      <c r="G1951">
+        <v>3063280.66</v>
+      </c>
+      <c r="H1951">
+        <v>3063280.66</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC1F5F-C4A0-4E44-AA0C-96E833FB8DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D5F574-CD91-4756-AB16-EF8B502CCA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1951"/>
+  <dimension ref="A1:L1964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1920" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1933" sqref="B1933"/>
+      <pane ySplit="1" topLeftCell="A1928" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1945" sqref="B1945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51704,6 +51704,344 @@
         <v>3063280.66</v>
       </c>
     </row>
+    <row r="1952" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1952" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1952" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1952">
+        <v>0</v>
+      </c>
+      <c r="E1952">
+        <v>0</v>
+      </c>
+      <c r="F1952">
+        <v>0</v>
+      </c>
+      <c r="G1952">
+        <v>998204.61</v>
+      </c>
+      <c r="H1952">
+        <v>998204.61</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1953" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1953" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1953">
+        <v>274612.55</v>
+      </c>
+      <c r="E1953">
+        <v>0</v>
+      </c>
+      <c r="F1953">
+        <v>274612.55</v>
+      </c>
+      <c r="G1953">
+        <v>7335801.8799999999</v>
+      </c>
+      <c r="H1953">
+        <v>7610414.4299999997</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1954" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1954" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1954">
+        <v>380412.03</v>
+      </c>
+      <c r="E1954">
+        <v>0</v>
+      </c>
+      <c r="F1954">
+        <v>380412.03</v>
+      </c>
+      <c r="G1954">
+        <v>0</v>
+      </c>
+      <c r="H1954">
+        <v>380412.03</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1955" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1955" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1955">
+        <v>0</v>
+      </c>
+      <c r="E1955">
+        <v>0</v>
+      </c>
+      <c r="F1955">
+        <v>0</v>
+      </c>
+      <c r="G1955">
+        <v>14599923.43</v>
+      </c>
+      <c r="H1955">
+        <v>14599923.43</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1956" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1956" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1956">
+        <v>0</v>
+      </c>
+      <c r="E1956">
+        <v>0</v>
+      </c>
+      <c r="F1956">
+        <v>0</v>
+      </c>
+      <c r="G1956">
+        <v>1023020.16</v>
+      </c>
+      <c r="H1956">
+        <v>1023020.16</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1957" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1957" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1957">
+        <v>0</v>
+      </c>
+      <c r="E1957">
+        <v>0</v>
+      </c>
+      <c r="F1957">
+        <v>0</v>
+      </c>
+      <c r="G1957">
+        <v>2805161.33</v>
+      </c>
+      <c r="H1957">
+        <v>2805161.33</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1958" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1958" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1958">
+        <v>3185190.23</v>
+      </c>
+      <c r="E1958">
+        <v>0</v>
+      </c>
+      <c r="F1958">
+        <v>3185190.23</v>
+      </c>
+      <c r="G1958">
+        <v>18494318.920000002</v>
+      </c>
+      <c r="H1958">
+        <v>21679509.150000002</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1959" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1959" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1959">
+        <v>0</v>
+      </c>
+      <c r="E1959">
+        <v>1277.6300000000001</v>
+      </c>
+      <c r="F1959">
+        <v>-1277.6300000000001</v>
+      </c>
+      <c r="G1959">
+        <v>115074.27</v>
+      </c>
+      <c r="H1959">
+        <v>113796.64</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1960" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1960" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1960">
+        <v>0</v>
+      </c>
+      <c r="E1960">
+        <v>0</v>
+      </c>
+      <c r="F1960">
+        <v>0</v>
+      </c>
+      <c r="G1960">
+        <v>41634812.060000002</v>
+      </c>
+      <c r="H1960">
+        <v>41634812.060000002</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1961" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1961" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1961">
+        <v>0</v>
+      </c>
+      <c r="E1961">
+        <v>0</v>
+      </c>
+      <c r="F1961">
+        <v>0</v>
+      </c>
+      <c r="G1961">
+        <v>373296.81</v>
+      </c>
+      <c r="H1961">
+        <v>373296.81</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1962" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1962" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1962">
+        <v>0</v>
+      </c>
+      <c r="E1962">
+        <v>0</v>
+      </c>
+      <c r="F1962">
+        <v>0</v>
+      </c>
+      <c r="G1962">
+        <v>1065844.6499999999</v>
+      </c>
+      <c r="H1962">
+        <v>1065844.6499999999</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1963" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1963" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1963">
+        <v>113566.43</v>
+      </c>
+      <c r="E1963">
+        <v>0</v>
+      </c>
+      <c r="F1963">
+        <v>113566.43</v>
+      </c>
+      <c r="G1963">
+        <v>34325.660000000003</v>
+      </c>
+      <c r="H1963">
+        <v>147892.09</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1964" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1964" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1964">
+        <v>0</v>
+      </c>
+      <c r="E1964">
+        <v>0</v>
+      </c>
+      <c r="F1964">
+        <v>0</v>
+      </c>
+      <c r="G1964">
+        <v>3067997.35</v>
+      </c>
+      <c r="H1964">
+        <v>3067997.35</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/1Saldos - ecossistema.xlsx
+++ b/data/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D5F574-CD91-4756-AB16-EF8B502CCA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AB44B-8902-48A1-B47A-F197C1E4F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1964"/>
+  <dimension ref="A1:L1977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1928" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1945" sqref="B1945"/>
+      <pane ySplit="1" topLeftCell="A1958" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1977" sqref="C1977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52042,6 +52042,344 @@
         <v>3067997.35</v>
       </c>
     </row>
+    <row r="1965" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1965" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1965" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1965">
+        <v>0</v>
+      </c>
+      <c r="E1965">
+        <v>0</v>
+      </c>
+      <c r="F1965">
+        <v>0</v>
+      </c>
+      <c r="G1965">
+        <v>998204.61</v>
+      </c>
+      <c r="H1965">
+        <v>998204.61</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1966" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1966" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1966">
+        <v>7161.03</v>
+      </c>
+      <c r="E1966">
+        <v>3400972.4</v>
+      </c>
+      <c r="F1966">
+        <v>-3393811.37</v>
+      </c>
+      <c r="G1966">
+        <v>9887456.0800000001</v>
+      </c>
+      <c r="H1966">
+        <v>6493644.71</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1967" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1967" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1967">
+        <v>231728.04</v>
+      </c>
+      <c r="E1967">
+        <v>0</v>
+      </c>
+      <c r="F1967">
+        <v>231728.04</v>
+      </c>
+      <c r="G1967">
+        <v>0</v>
+      </c>
+      <c r="H1967">
+        <v>231728.04</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1968" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1968" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1968">
+        <v>0</v>
+      </c>
+      <c r="E1968">
+        <v>0</v>
+      </c>
+      <c r="F1968">
+        <v>0</v>
+      </c>
+      <c r="G1968">
+        <v>14606488.060000001</v>
+      </c>
+      <c r="H1968">
+        <v>14606488.060000001</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1969" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1969" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1969">
+        <v>0</v>
+      </c>
+      <c r="E1969">
+        <v>0</v>
+      </c>
+      <c r="F1969">
+        <v>0</v>
+      </c>
+      <c r="G1969">
+        <v>24262.34</v>
+      </c>
+      <c r="H1969">
+        <v>24262.34</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1970" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1970" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1970">
+        <v>0</v>
+      </c>
+      <c r="E1970">
+        <v>0</v>
+      </c>
+      <c r="F1970">
+        <v>0</v>
+      </c>
+      <c r="G1970">
+        <v>2805161.33</v>
+      </c>
+      <c r="H1970">
+        <v>2805161.33</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1971" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1971" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1971">
+        <v>99113.23</v>
+      </c>
+      <c r="E1971">
+        <v>6445188.1699999999</v>
+      </c>
+      <c r="F1971">
+        <v>-6346074.9399999995</v>
+      </c>
+      <c r="G1971">
+        <v>14214449.42</v>
+      </c>
+      <c r="H1971">
+        <v>7868374.4800000004</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1972" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1972" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1972">
+        <v>0</v>
+      </c>
+      <c r="E1972">
+        <v>42746.57</v>
+      </c>
+      <c r="F1972">
+        <v>-42746.57</v>
+      </c>
+      <c r="G1972">
+        <v>115074.27</v>
+      </c>
+      <c r="H1972">
+        <v>72327.700000000012</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1973" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1973" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1973">
+        <v>0</v>
+      </c>
+      <c r="E1973">
+        <v>0</v>
+      </c>
+      <c r="F1973">
+        <v>0</v>
+      </c>
+      <c r="G1973">
+        <v>51655009.210000001</v>
+      </c>
+      <c r="H1973">
+        <v>51655009.210000001</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1974" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1974" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1974">
+        <v>0</v>
+      </c>
+      <c r="E1974">
+        <v>0</v>
+      </c>
+      <c r="F1974">
+        <v>0</v>
+      </c>
+      <c r="G1974">
+        <v>373296.81</v>
+      </c>
+      <c r="H1974">
+        <v>373296.81</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1975" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1975" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1975">
+        <v>0</v>
+      </c>
+      <c r="E1975">
+        <v>0</v>
+      </c>
+      <c r="F1975">
+        <v>0</v>
+      </c>
+      <c r="G1975">
+        <v>1066462.04</v>
+      </c>
+      <c r="H1975">
+        <v>1066462.04</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1976" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1976" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1976">
+        <v>3021.98</v>
+      </c>
+      <c r="E1976">
+        <v>242024.18</v>
+      </c>
+      <c r="F1976">
+        <v>-239002.19999999998</v>
+      </c>
+      <c r="G1976">
+        <v>230943.68</v>
+      </c>
+      <c r="H1976">
+        <v>-8058.5199999999895</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1977" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1977" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1977">
+        <v>0</v>
+      </c>
+      <c r="E1977">
+        <v>0</v>
+      </c>
+      <c r="F1977">
+        <v>0</v>
+      </c>
+      <c r="G1977">
+        <v>3069537.84</v>
+      </c>
+      <c r="H1977">
+        <v>3069537.84</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1691" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
